--- a/src/droneSolution.xlsx
+++ b/src/droneSolution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>time_tot</t>
   </si>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -66,14 +66,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,25 +104,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/droneSolution.xlsx
+++ b/src/droneSolution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>time_tot</t>
   </si>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -70,11 +70,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -82,6 +84,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,34 +99,34 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="16.28515625" customWidth="true"/>
-    <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.28515625" customWidth="true"/>
+    <col min="3" max="3" width="16.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="16.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -151,1203 +155,1203 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.013377241712952497</v>
+        <v>0.013473452945697805</v>
       </c>
       <c r="B3">
-        <v>5.012546762251899e-06</v>
+        <v>-8.3098937890316249e-06</v>
       </c>
       <c r="C3">
-        <v>-5.0426599717898851e-06</v>
+        <v>8.3889039830174277e-06</v>
       </c>
       <c r="D3">
-        <v>-0.00081950579495569231</v>
+        <v>0.00020569352236558718</v>
       </c>
       <c r="E3">
-        <v>0.0084295728387651456</v>
+        <v>0.0084903112057853353</v>
       </c>
       <c r="F3">
-        <v>0.0084197176522163193</v>
+        <v>0.0084802008233558178</v>
       </c>
       <c r="G3">
-        <v>7.3934203593449378e-05</v>
+        <v>7.5408142523391913e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.039857018064105881</v>
+        <v>0.040143676025723385</v>
       </c>
       <c r="B4">
-        <v>-2.4439478597331575e-06</v>
+        <v>8.2603864943828225e-05</v>
       </c>
       <c r="C4">
-        <v>2.5356417526708782e-06</v>
+        <v>-8.2860780341615723e-05</v>
       </c>
       <c r="D4">
-        <v>-0.007627044283593446</v>
+        <v>4.1764774307978437e-07</v>
       </c>
       <c r="E4">
-        <v>0.038705488972387479</v>
+        <v>0.038982271031056163</v>
       </c>
       <c r="F4">
-        <v>0.03895453821551019</v>
+        <v>0.039236580509498006</v>
       </c>
       <c r="G4">
-        <v>-0.0037002301250411386</v>
+        <v>-0.0037525938662214034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.069217624447441201</v>
+        <v>0.069715448521991796</v>
       </c>
       <c r="B5">
-        <v>0.00027786032080572432</v>
+        <v>0.00052779582668736392</v>
       </c>
       <c r="C5">
-        <v>-0.00027922156998758238</v>
+        <v>-0.00052874959530692584</v>
       </c>
       <c r="D5">
-        <v>-0.017499255631686257</v>
+        <v>2.5052992455839218e-08</v>
       </c>
       <c r="E5">
-        <v>0.066937356276318277</v>
+        <v>0.067408163778665875</v>
       </c>
       <c r="F5">
-        <v>0.068465232008198512</v>
+        <v>0.068968993241002058</v>
       </c>
       <c r="G5">
-        <v>-0.015398396596691122</v>
+        <v>-0.015619770864296004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.090250123938862281</v>
+        <v>0.090899217067766977</v>
       </c>
       <c r="B6">
-        <v>0.0011675667358093675</v>
+        <v>0.001220225676460848</v>
       </c>
       <c r="C6">
-        <v>-0.0011778545675984152</v>
+        <v>-0.0012258330513074034</v>
       </c>
       <c r="D6">
-        <v>-0.019526128840801148</v>
+        <v>0.0013931297414291374</v>
       </c>
       <c r="E6">
-        <v>0.089267815977023074</v>
+        <v>0.089884758442188448</v>
       </c>
       <c r="F6">
-        <v>0.09282251815071399</v>
+        <v>0.093516216690393075</v>
       </c>
       <c r="G6">
-        <v>-0.02746146703510461</v>
+        <v>-0.02785704304003685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.09571590367351282</v>
+        <v>0.09640430755253096</v>
       </c>
       <c r="B7">
-        <v>0.0015545066552560981</v>
+        <v>0.0014925215613662477</v>
       </c>
       <c r="C7">
-        <v>-0.0015696474354717593</v>
+        <v>-0.0015013651792167325</v>
       </c>
       <c r="D7">
-        <v>-0.018860083386604262</v>
+        <v>0.0015951002292063181</v>
       </c>
       <c r="E7">
-        <v>0.094105990044284382</v>
+        <v>0.094752204273935284</v>
       </c>
       <c r="F7">
-        <v>0.098429883160943976</v>
+        <v>0.099169462968835248</v>
       </c>
       <c r="G7">
-        <v>-0.031502222590719456</v>
+        <v>-0.031956457484577656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.10270836476040567</v>
+        <v>0.10344705952266636</v>
       </c>
       <c r="B8">
-        <v>0.0021305721190220538</v>
+        <v>0.0019633553668738594</v>
       </c>
       <c r="C8">
-        <v>-0.0021541077529705229</v>
+        <v>-0.00197893629416219</v>
       </c>
       <c r="D8">
-        <v>-0.01765519133830859</v>
+        <v>0.00310375424765569</v>
       </c>
       <c r="E8">
-        <v>0.10153389184643406</v>
+        <v>0.102197852640096</v>
       </c>
       <c r="F8">
-        <v>0.10629999251073137</v>
+        <v>0.1071044758749496</v>
       </c>
       <c r="G8">
-        <v>-0.036754177131478209</v>
+        <v>-0.037290121549365091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.1178038931065527</v>
+        <v>0.11865115729009539</v>
       </c>
       <c r="B9">
-        <v>0.0037685571426924699</v>
+        <v>0.0033828709022368703</v>
       </c>
       <c r="C9">
-        <v>-0.0038198493262388863</v>
+        <v>-0.0034230663225841961</v>
       </c>
       <c r="D9">
-        <v>-0.012950831484318739</v>
+        <v>0.0084923106864267361</v>
       </c>
       <c r="E9">
-        <v>0.10513594699353568</v>
+        <v>0.10613059546151275</v>
       </c>
       <c r="F9">
-        <v>0.12356113302726586</v>
+        <v>0.12450637007246146</v>
       </c>
       <c r="G9">
-        <v>-0.049742831483077968</v>
+        <v>-0.050419976439393679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.13795805807115288</v>
+        <v>0.13895027418856987</v>
       </c>
       <c r="B10">
-        <v>0.0069128625023809542</v>
+        <v>0.0062563970386233575</v>
       </c>
       <c r="C10">
-        <v>-0.0069141713923884848</v>
+        <v>-0.0062439958454783033</v>
       </c>
       <c r="D10">
-        <v>-0.0022149002020329504</v>
+        <v>0.020201354629238104</v>
       </c>
       <c r="E10">
-        <v>0.085177311700307262</v>
+        <v>0.08646305783214335</v>
       </c>
       <c r="F10">
-        <v>0.14663363446513161</v>
+        <v>0.14775182199639517</v>
       </c>
       <c r="G10">
-        <v>-0.06927586553626898</v>
+        <v>-0.069890771096213389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.1591770131926262</v>
+        <v>0.1603218393827032</v>
       </c>
       <c r="B11">
-        <v>0.011610006267555591</v>
+        <v>0.010698587107257919</v>
       </c>
       <c r="C11">
-        <v>-0.011109740312245672</v>
+        <v>-0.01017974863869942</v>
       </c>
       <c r="D11">
-        <v>0.014561289557786232</v>
+        <v>0.038074733287855496</v>
       </c>
       <c r="E11">
-        <v>0.060485212528893453</v>
+        <v>0.061491567109387205</v>
       </c>
       <c r="F11">
-        <v>0.1702237195612871</v>
+        <v>0.17151071964975279</v>
       </c>
       <c r="G11">
-        <v>-0.087374558857217108</v>
+        <v>-0.087802407235458249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.17725833036504834</v>
+        <v>0.17853320024067326</v>
       </c>
       <c r="B12">
-        <v>0.016912754477221289</v>
+        <v>0.015812435341264159</v>
       </c>
       <c r="C12">
-        <v>-0.015288390299895149</v>
+        <v>-0.014156187857454979</v>
       </c>
       <c r="D12">
-        <v>0.03325697741835671</v>
+        <v>0.05776355448950278</v>
       </c>
       <c r="E12">
-        <v>0.038901123754960625</v>
+        <v>0.039865522930023191</v>
       </c>
       <c r="F12">
-        <v>0.18978355010261963</v>
+        <v>0.19121160672861368</v>
       </c>
       <c r="G12">
-        <v>-0.099519536530076627</v>
+        <v>-0.099784783030891097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.18862575902894815</v>
+        <v>0.18998238524480868</v>
       </c>
       <c r="B13">
-        <v>0.020930619846291833</v>
+        <v>0.019726469420662224</v>
       </c>
       <c r="C13">
-        <v>-0.018140823781860785</v>
+        <v>-0.016889255747774921</v>
       </c>
       <c r="D13">
-        <v>0.047068451927113737</v>
+        <v>0.072226466889591251</v>
       </c>
       <c r="E13">
-        <v>0.026098279287273263</v>
+        <v>0.026943857514050006</v>
       </c>
       <c r="F13">
-        <v>0.20190204561734976</v>
+        <v>0.2034168403952577</v>
       </c>
       <c r="G13">
-        <v>-0.10609499695546842</v>
+        <v>-0.10620688792543263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.1914318073470257</v>
+        <v>0.19280861510506198</v>
       </c>
       <c r="B14">
-        <v>0.022009209380680544</v>
+        <v>0.02078131814021569</v>
       </c>
       <c r="C14">
-        <v>-0.018866103435038063</v>
+        <v>-0.017585919125984031</v>
       </c>
       <c r="D14">
-        <v>0.05072115845497726</v>
+        <v>0.076043168485083246</v>
       </c>
       <c r="E14">
-        <v>0.022734137019595681</v>
+        <v>0.023582926887517716</v>
       </c>
       <c r="F14">
-        <v>0.20487468490166597</v>
+        <v>0.20641112883395715</v>
       </c>
       <c r="G14">
-        <v>-0.10744234228867389</v>
+        <v>-0.10752541324750556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.21175617385110634</v>
+        <v>0.21327915765933925</v>
       </c>
       <c r="B15">
-        <v>0.030914937757553777</v>
+        <v>0.029538944320532931</v>
       </c>
       <c r="C15">
-        <v>-0.02432599380376891</v>
+        <v>-0.022846911859087101</v>
       </c>
       <c r="D15">
-        <v>0.080034971997586246</v>
+        <v>0.10658205766918581</v>
       </c>
       <c r="E15">
-        <v>-0.00032541597780588803</v>
+        <v>0.00041990339751303172</v>
       </c>
       <c r="F15">
-        <v>0.22625723012755994</v>
+        <v>0.22795016386948419</v>
       </c>
       <c r="G15">
-        <v>-0.11577526800132994</v>
+        <v>-0.11556657534505914</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.24795522006623383</v>
+        <v>0.24973855312547785</v>
       </c>
       <c r="B16">
-        <v>0.052049851911607485</v>
+        <v>0.050524749405374395</v>
       </c>
       <c r="C16">
-        <v>-0.034506893873767555</v>
+        <v>-0.032701172693316675</v>
       </c>
       <c r="D16">
-        <v>0.14453103321217584</v>
+        <v>0.17341851112804246</v>
       </c>
       <c r="E16">
-        <v>-0.039723620312858518</v>
+        <v>-0.039101231658067101</v>
       </c>
       <c r="F16">
-        <v>0.26408739182453772</v>
+        <v>0.26606981832389648</v>
       </c>
       <c r="G16">
-        <v>-0.1220551762116652</v>
+        <v>-0.12119135709219368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.27866843442118755</v>
+        <v>0.2806726617632791</v>
       </c>
       <c r="B17">
-        <v>0.076027827678286627</v>
+        <v>0.07450695057427785</v>
       </c>
       <c r="C17">
-        <v>-0.042978701662968528</v>
+        <v>-0.040909450575584441</v>
       </c>
       <c r="D17">
-        <v>0.21133860029055834</v>
+        <v>0.24236468444045189</v>
       </c>
       <c r="E17">
-        <v>-0.070908764205603797</v>
+        <v>-0.07031558836471169</v>
       </c>
       <c r="F17">
-        <v>0.29650501615209107</v>
+        <v>0.29875322095075824</v>
       </c>
       <c r="G17">
-        <v>-0.1186001120333804</v>
+        <v>-0.11703732863717478</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.2871477110205386</v>
+        <v>0.28921292265759302</v>
       </c>
       <c r="B18">
-        <v>0.083728873101198725</v>
+        <v>0.082232398139259991</v>
       </c>
       <c r="C18">
-        <v>-0.045203890788019528</v>
+        <v>-0.043062072929947653</v>
       </c>
       <c r="D18">
-        <v>0.23169678878350985</v>
+        <v>0.26333702580109064</v>
       </c>
       <c r="E18">
-        <v>-0.079075777314816978</v>
+        <v>-0.078476343895841683</v>
       </c>
       <c r="F18">
-        <v>0.30558253531788454</v>
+        <v>0.30790840244743944</v>
       </c>
       <c r="G18">
-        <v>-0.11619825587124792</v>
+        <v>-0.11441815744205162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.29657908580132036</v>
+        <v>0.2987121293736581</v>
       </c>
       <c r="B19">
-        <v>0.092875697596379925</v>
+        <v>0.091415517687065906</v>
       </c>
       <c r="C19">
-        <v>-0.047593681784086919</v>
+        <v>-0.045372062710429803</v>
       </c>
       <c r="D19">
-        <v>0.25529141782689507</v>
+        <v>0.28761615476333346</v>
       </c>
       <c r="E19">
-        <v>-0.087949954049251752</v>
+        <v>-0.087315976358448746</v>
       </c>
       <c r="F19">
-        <v>0.31725814312710399</v>
+        <v>0.31916737053659072</v>
       </c>
       <c r="G19">
-        <v>-0.11292386778139983</v>
+        <v>-0.1108222810507781</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.31629662329736519</v>
+        <v>0.31857147850994255</v>
       </c>
       <c r="B20">
-        <v>0.1140733009887565</v>
+        <v>0.11275118302776162</v>
       </c>
       <c r="C20">
-        <v>-0.052213327614261798</v>
+        <v>-0.049812970979838098</v>
       </c>
       <c r="D20">
-        <v>0.30788312251317856</v>
+        <v>0.34173310466597367</v>
       </c>
       <c r="E20">
-        <v>-0.10482795604557665</v>
+        <v>-0.10431975070038818</v>
       </c>
       <c r="F20">
-        <v>0.31780785456082167</v>
+        <v>0.32568697367679483</v>
       </c>
       <c r="G20">
-        <v>-0.10097303037467065</v>
+        <v>-0.098970535985611535</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.34094245994498756</v>
+        <v>0.34339457190277362</v>
       </c>
       <c r="B21">
-        <v>0.14441462536065722</v>
+        <v>0.14339062795584134</v>
       </c>
       <c r="C21">
-        <v>-0.057058602092925938</v>
+        <v>-0.054445355740869554</v>
       </c>
       <c r="D21">
-        <v>0.3796523556118766</v>
+        <v>0.41535445402992377</v>
       </c>
       <c r="E21">
-        <v>-0.12356955506019228</v>
+        <v>-0.12294728112312291</v>
       </c>
       <c r="F21">
-        <v>0.28937393640616987</v>
+        <v>0.30490380979933468</v>
       </c>
       <c r="G21">
-        <v>-0.077338115169849272</v>
+        <v>-0.07524124954075688</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.36391058146279809</v>
+        <v>0.36652788377390882</v>
       </c>
       <c r="B22">
-        <v>0.17630639031330703</v>
+        <v>0.17582295217308666</v>
       </c>
       <c r="C22">
-        <v>-0.060303911495566798</v>
+        <v>-0.057465996116974845</v>
       </c>
       <c r="D22">
-        <v>0.45278984524002913</v>
+        <v>0.49039562245578167</v>
       </c>
       <c r="E22">
-        <v>-0.14037810392346095</v>
+        <v>-0.13925297474189124</v>
       </c>
       <c r="F22">
-        <v>0.27187081095887344</v>
+        <v>0.28502059445729311</v>
       </c>
       <c r="G22">
-        <v>-0.051025384713581076</v>
+        <v>-0.047938993036355189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.37905317825125678</v>
+        <v>0.38177938850731191</v>
       </c>
       <c r="B23">
-        <v>0.19903755170646603</v>
+        <v>0.19894779292409134</v>
       </c>
       <c r="C23">
-        <v>-0.06165906951457318</v>
+        <v>-0.058705072900299304</v>
       </c>
       <c r="D23">
-        <v>0.50407381212020597</v>
+        <v>0.54270277579864723</v>
       </c>
       <c r="E23">
-        <v>-0.15124111107978747</v>
+        <v>-0.150043849177316</v>
       </c>
       <c r="F23">
-        <v>0.25627033407966449</v>
+        <v>0.27061264256437817</v>
       </c>
       <c r="G23">
-        <v>-0.032044034647717844</v>
+        <v>-0.029100715851408877</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.38286361469405139</v>
+        <v>0.38561723021012395</v>
       </c>
       <c r="B24">
-        <v>0.20491839611168677</v>
+        <v>0.20486645197443001</v>
       </c>
       <c r="C24">
-        <v>-0.061914492440843454</v>
+        <v>-0.058967849867939653</v>
       </c>
       <c r="D24">
-        <v>0.5171968786070209</v>
+        <v>0.55583365317986555</v>
       </c>
       <c r="E24">
-        <v>-0.15409175771537612</v>
+        <v>-0.15283569470743072</v>
       </c>
       <c r="F24">
-        <v>0.25378705613003705</v>
+        <v>0.26759506254267951</v>
       </c>
       <c r="G24">
-        <v>-0.027455639655808484</v>
+        <v>-0.024461064439056782</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.40318798119813204</v>
+        <v>0.40608777276440122</v>
       </c>
       <c r="B25">
-        <v>0.23631503576306462</v>
+        <v>0.23626380622000392</v>
       </c>
       <c r="C25">
-        <v>-0.063229888381138452</v>
+        <v>-0.060432298254997581</v>
       </c>
       <c r="D25">
-        <v>0.58492494083992597</v>
+        <v>0.62283000053189375</v>
       </c>
       <c r="E25">
-        <v>-0.16926999956035288</v>
+        <v>-0.16776746553082045</v>
       </c>
       <c r="F25">
-        <v>0.23620540399359513</v>
+        <v>0.24985417190459697</v>
       </c>
       <c r="G25">
-        <v>-0.002281160613479057</v>
+        <v>0.00096731283390136128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.43938702741325952</v>
+        <v>0.44254716823053986</v>
       </c>
       <c r="B26">
-        <v>0.29209115250627793</v>
+        <v>0.29204011702138072</v>
       </c>
       <c r="C26">
-        <v>-0.065566631798592748</v>
+        <v>-0.063033813940206254</v>
       </c>
       <c r="D26">
-        <v>0.69492739524134184</v>
+        <v>0.73138706210603788</v>
       </c>
       <c r="E26">
-        <v>-0.19725706058635445</v>
+        <v>-0.1953359837735078</v>
       </c>
       <c r="F26">
-        <v>0.20583770785983974</v>
+        <v>0.2191914383888201</v>
       </c>
       <c r="G26">
-        <v>0.042999054482321539</v>
+        <v>0.046659578000736876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.47010024176821325</v>
+        <v>0.47348127686834107</v>
       </c>
       <c r="B27">
-        <v>0.33927081037554374</v>
+        <v>0.33921894651977835</v>
       </c>
       <c r="C27">
-        <v>-0.067543268035829038</v>
+        <v>-0.065234345007371575</v>
       </c>
       <c r="D27">
-        <v>0.77764260177755207</v>
+        <v>0.81273463070287755</v>
       </c>
       <c r="E27">
-        <v>-0.22195129490904691</v>
+        <v>-0.21968901195362561</v>
       </c>
       <c r="F27">
-        <v>0.18106819498195778</v>
+        <v>0.19416398544603469</v>
       </c>
       <c r="G27">
-        <v>0.081867858847821343</v>
+        <v>0.085863384987825239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.47857951836756424</v>
+        <v>0.48202153776265494</v>
       </c>
       <c r="B28">
-        <v>0.35227297972196087</v>
+        <v>0.35222070013942242</v>
       </c>
       <c r="C28">
-        <v>-0.068087980896834016</v>
+        <v>-0.065840765797094525</v>
       </c>
       <c r="D28">
-        <v>0.79876975115670457</v>
+        <v>0.83346140944921199</v>
       </c>
       <c r="E28">
-        <v>-0.22891962315827447</v>
+        <v>-0.22656578352822915</v>
       </c>
       <c r="F28">
-        <v>0.17439811017257728</v>
+        <v>0.18742120152334796</v>
       </c>
       <c r="G28">
-        <v>0.092677468014036354</v>
+        <v>0.09676122504081934</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.49890388487164489</v>
+        <v>0.50249208031693227</v>
       </c>
       <c r="B29">
-        <v>0.38339764682236616</v>
+        <v>0.38334410828836218</v>
       </c>
       <c r="C29">
-        <v>-0.069391947724830871</v>
+        <v>-0.067292420427061295</v>
       </c>
       <c r="D29">
-        <v>0.84641058536220826</v>
+        <v>0.88010290360472099</v>
       </c>
       <c r="E29">
-        <v>-0.24588593875570477</v>
+        <v>-0.2433159396920791</v>
       </c>
       <c r="F29">
-        <v>0.15871532503393657</v>
+        <v>0.1715625247826513</v>
       </c>
       <c r="G29">
-        <v>0.11872428301009756</v>
+        <v>0.12301806200621863</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.53510293108677243</v>
+        <v>0.5389514757830709</v>
       </c>
       <c r="B30">
-        <v>0.43869052334097114</v>
+        <v>0.43863372476631207</v>
       </c>
       <c r="C30">
-        <v>-0.071708431969453992</v>
+        <v>-0.069871228488519857</v>
       </c>
       <c r="D30">
-        <v>0.92081937396438895</v>
+        <v>0.95259358151098072</v>
       </c>
       <c r="E30">
-        <v>-0.27700910771766557</v>
+        <v>-0.27406773341679319</v>
       </c>
       <c r="F30">
-        <v>0.13189031713144267</v>
+        <v>0.14441615086662338</v>
       </c>
       <c r="G30">
-        <v>0.16562968705578165</v>
+        <v>0.17027833297064854</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.56581614544172609</v>
+        <v>0.569885584420872</v>
       </c>
       <c r="B31">
-        <v>0.48546149366747582</v>
+        <v>0.4854009144362344</v>
       </c>
       <c r="C31">
-        <v>-0.073667889149274135</v>
+        <v>-0.072052533434588034</v>
       </c>
       <c r="D31">
-        <v>0.97351844287094258</v>
+        <v>1.0035275407724837</v>
       </c>
       <c r="E31">
-        <v>-0.30430626028773267</v>
+        <v>-0.30106231853891741</v>
       </c>
       <c r="F31">
-        <v>0.11028990958506907</v>
+        <v>0.12253691266867688</v>
       </c>
       <c r="G31">
-        <v>0.20594638024622641</v>
+        <v>0.21088553142485239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.57429542204107709</v>
+        <v>0.57842584531518593</v>
       </c>
       <c r="B32">
-        <v>0.49835099540967304</v>
+        <v>0.4982892086133478</v>
       </c>
       <c r="C32">
-        <v>-0.074207888708135064</v>
+        <v>-0.072653665146899804</v>
       </c>
       <c r="D32">
-        <v>0.98638810475235517</v>
+        <v>1.0158877821189727</v>
       </c>
       <c r="E32">
-        <v>-0.31198342442319971</v>
+        <v>-0.30865793064635516</v>
       </c>
       <c r="F32">
-        <v>0.10452083693065013</v>
+        <v>0.11669000394279122</v>
       </c>
       <c r="G32">
-        <v>0.21716246859532795</v>
+        <v>0.22218043107655291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.59461978854515773</v>
+        <v>0.5988963878694632</v>
       </c>
       <c r="B33">
-        <v>0.52920601190116345</v>
+        <v>0.52914104438160148</v>
       </c>
       <c r="C33">
-        <v>-0.075500541430835941</v>
+        <v>-0.074092644943666158</v>
       </c>
       <c r="D33">
-        <v>1.0142881455918855</v>
+        <v>1.0425280416524929</v>
       </c>
       <c r="E33">
-        <v>-0.33061243364257359</v>
+        <v>-0.32709251703388403</v>
       </c>
       <c r="F33">
-        <v>0.091104212864141165</v>
+        <v>0.10308530882303332</v>
       </c>
       <c r="G33">
-        <v>0.24437095286289709</v>
+        <v>0.24957869181330797</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.63081883476028522</v>
+        <v>0.63535578333560183</v>
       </c>
       <c r="B34">
-        <v>0.5840198508637342</v>
+        <v>0.5839482202807954</v>
       </c>
       <c r="C34">
-        <v>-0.077796926376475686</v>
+        <v>-0.076648936686007904</v>
       </c>
       <c r="D34">
-        <v>1.0537174231280031</v>
+        <v>1.0795790357826414</v>
       </c>
       <c r="E34">
-        <v>-0.36489409897168379</v>
+        <v>-0.36108206089688483</v>
       </c>
       <c r="F34">
-        <v>0.067216285135538845</v>
+        <v>0.078867060836850467</v>
       </c>
       <c r="G34">
-        <v>0.28994710461390211</v>
+        <v>0.29546430652844086</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.66153204911523888</v>
+        <v>0.66628989197340305</v>
       </c>
       <c r="B35">
-        <v>0.63038561325845455</v>
+        <v>0.63030733298104558</v>
       </c>
       <c r="C35">
-        <v>-0.079739380936161994</v>
+        <v>-0.078811195484774291</v>
       </c>
       <c r="D35">
-        <v>1.0769179974221859</v>
+        <v>1.1006277401788085</v>
       </c>
       <c r="E35">
-        <v>-0.39528564811752387</v>
+        <v>-0.39133487807067779</v>
       </c>
       <c r="F35">
-        <v>0.045033415674976103</v>
+        <v>0.056398108337262005</v>
       </c>
       <c r="G35">
-        <v>0.3212080976529007</v>
+        <v>0.32687709302405121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.67001132571458988</v>
+        <v>0.67483015286771686</v>
       </c>
       <c r="B36">
-        <v>0.64316344350201748</v>
+        <v>0.64308316704485735</v>
       </c>
       <c r="C36">
-        <v>-0.080274694603366739</v>
+        <v>-0.079407078289196145</v>
       </c>
       <c r="D36">
-        <v>1.0816727142199476</v>
+        <v>1.1047668516521998</v>
       </c>
       <c r="E36">
-        <v>-0.40386449867029411</v>
+        <v>-0.39989703281334893</v>
       </c>
       <c r="F36">
-        <v>0.038402633846803022</v>
+        <v>0.049678919842175324</v>
       </c>
       <c r="G36">
-        <v>0.32834994724690114</v>
+        <v>0.33401730309093514</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.69033569221867053</v>
+        <v>0.69530069542199413</v>
       </c>
       <c r="B37">
-        <v>0.67375113838355616</v>
+        <v>0.6736657966092644</v>
       </c>
       <c r="C37">
-        <v>-0.081556128336548864</v>
+        <v>-0.080833492411092681</v>
       </c>
       <c r="D37">
-        <v>1.0901725321426066</v>
+        <v>1.1117534027719795</v>
       </c>
       <c r="E37">
-        <v>-0.42468857638182317</v>
+        <v>-0.42070690695503465</v>
       </c>
       <c r="F37">
-        <v>0.021768336070118025</v>
+        <v>0.032833519037543987</v>
       </c>
       <c r="G37">
-        <v>0.3434184479102817</v>
+        <v>0.34906206534400946</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.72653473843379812</v>
+        <v>0.73176009088813276</v>
       </c>
       <c r="B38">
-        <v>0.72809007773180145</v>
+        <v>0.7279947356316232</v>
       </c>
       <c r="C38">
-        <v>-0.083832579712512484</v>
+        <v>-0.083367460180509126</v>
       </c>
       <c r="D38">
-        <v>1.0952257802862913</v>
+        <v>1.1139804914060387</v>
       </c>
       <c r="E38">
-        <v>-0.46246121081223368</v>
+        <v>-0.4585476688474931</v>
       </c>
       <c r="F38">
-        <v>-0.011194789902140031</v>
+        <v>-0.00053448050055887933</v>
       </c>
       <c r="G38">
-        <v>0.36245977064191681</v>
+        <v>0.36791616885381029</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.75724795278875168</v>
+        <v>0.76269419952593398</v>
       </c>
       <c r="B39">
-        <v>0.77405413035588644</v>
+        <v>0.77394932611300671</v>
       </c>
       <c r="C39">
-        <v>-0.08575816859786016</v>
+        <v>-0.085510833908493011</v>
       </c>
       <c r="D39">
-        <v>1.089436786835206</v>
+        <v>1.1056632119172116</v>
       </c>
       <c r="E39">
-        <v>-0.49483543643123834</v>
+        <v>-0.4910581295812913</v>
       </c>
       <c r="F39">
-        <v>-0.043004134642002055</v>
+        <v>-0.032722995379594444</v>
       </c>
       <c r="G39">
-        <v>0.37103863225712885</v>
+        <v>0.37620410789142844</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.76572722938810267</v>
+        <v>0.77123446042024779</v>
       </c>
       <c r="B40">
-        <v>0.78672125267252102</v>
+        <v>0.78661367946933658</v>
       </c>
       <c r="C40">
-        <v>-0.086288832329664306</v>
+        <v>-0.086101511309118875</v>
       </c>
       <c r="D40">
-        <v>1.086216567355581</v>
+        <v>1.1017240419515422</v>
       </c>
       <c r="E40">
-        <v>-0.50377093408197327</v>
+        <v>-0.50004162466103363</v>
       </c>
       <c r="F40">
-        <v>-0.05247467054632568</v>
+        <v>-0.042306131840498917</v>
       </c>
       <c r="G40">
-        <v>0.37222171538891169</v>
+        <v>0.37728513411909825</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.77910447110105518</v>
+        <v>0.7847079133659457</v>
       </c>
       <c r="B41">
-        <v>0.80664258741090311</v>
+        <v>0.80653079943040762</v>
       </c>
       <c r="C41">
-        <v>-0.087057748865244269</v>
+        <v>-0.086964197764194853</v>
       </c>
       <c r="D41">
-        <v>1.0798358756002955</v>
+        <v>1.0941929335315075</v>
       </c>
       <c r="E41">
-        <v>-0.51782831387800299</v>
+        <v>-0.51418332072561646</v>
       </c>
       <c r="F41">
-        <v>-0.06805788724541581</v>
+        <v>-0.058067772325894461</v>
       </c>
       <c r="G41">
-        <v>0.37307538923536654</v>
+        <v>0.37797195534482292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.80558424745220858</v>
+        <v>0.81137813644597123</v>
       </c>
       <c r="B42">
-        <v>0.84624906581462978</v>
+        <v>0.84612682508768078</v>
       </c>
       <c r="C42">
-        <v>-0.088959590185362716</v>
+        <v>-0.089055924972167341</v>
       </c>
       <c r="D42">
-        <v>1.0613931173370921</v>
+        <v>1.0733947807306088</v>
       </c>
       <c r="E42">
-        <v>-0.54537921232630004</v>
+        <v>-0.54191668208816945</v>
       </c>
       <c r="F42">
-        <v>-0.10140534294131336</v>
+        <v>-0.091840457322067401</v>
       </c>
       <c r="G42">
-        <v>0.37109053619500704</v>
+        <v>0.37552678810290568</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.83494485383554384</v>
+        <v>0.84094990894223953</v>
       </c>
       <c r="B43">
-        <v>0.88919658122302314</v>
+        <v>0.88906719019956393</v>
       </c>
       <c r="C43">
-        <v>-0.089736887390384851</v>
+        <v>-0.090027220145914133</v>
       </c>
       <c r="D43">
-        <v>1.0354072863218369</v>
+        <v>1.0447380388410308</v>
       </c>
       <c r="E43">
-        <v>-0.5752198376340506</v>
+        <v>-0.57200221208216973</v>
       </c>
       <c r="F43">
-        <v>-0.14227950473597892</v>
+        <v>-0.1331306474538401</v>
       </c>
       <c r="G43">
-        <v>0.36377224360668753</v>
+        <v>0.36778340617577376</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.85597735332696501</v>
+        <v>0.86213367748801484</v>
       </c>
       <c r="B44">
-        <v>0.91699099645011284</v>
+        <v>0.91687099636800296</v>
       </c>
       <c r="C44">
-        <v>-0.0858851530167241</v>
+        <v>-0.086261071074683907</v>
       </c>
       <c r="D44">
-        <v>1.0195024421423726</v>
+        <v>1.0269939569814606</v>
       </c>
       <c r="E44">
-        <v>-0.59622464538382636</v>
+        <v>-0.5932075007441836</v>
       </c>
       <c r="F44">
-        <v>-0.17298693553340738</v>
+        <v>-0.1640150953290713</v>
       </c>
       <c r="G44">
-        <v>0.35724064096628527</v>
+        <v>0.36115568494291855</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.86144313306161557</v>
+        <v>0.86763876797277883</v>
       </c>
       <c r="B45">
-        <v>0.92353508393077544</v>
+        <v>0.92342030048717239</v>
       </c>
       <c r="C45">
-        <v>-0.083886957402957429</v>
+        <v>-0.084273089403400031</v>
       </c>
       <c r="D45">
-        <v>1.0164159972148989</v>
+        <v>1.0234518570674178</v>
       </c>
       <c r="E45">
-        <v>-0.60169254911061576</v>
+        <v>-0.5987223231262786</v>
       </c>
       <c r="F45">
-        <v>-0.18088815611516182</v>
+        <v>-0.1719789571722751</v>
       </c>
       <c r="G45">
-        <v>0.35579666960582629</v>
+        <v>0.35966303645271674</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.86491358238695704</v>
+        <v>0.87113417731715381</v>
       </c>
       <c r="B46">
-        <v>0.92762243060864968</v>
+        <v>0.92751083830879821</v>
       </c>
       <c r="C46">
-        <v>-0.082532671410948208</v>
+        <v>-0.082924263831102407</v>
       </c>
       <c r="D46">
-        <v>1.0144411612145383</v>
+        <v>1.021188272190767</v>
       </c>
       <c r="E46">
-        <v>-0.60470915195165409</v>
+        <v>-0.60176766225589151</v>
       </c>
       <c r="F46">
-        <v>-0.18582976078003866</v>
+        <v>-0.17696128625130605</v>
       </c>
       <c r="G46">
-        <v>0.35484592697046635</v>
+        <v>0.35868018941930208</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.87274516922134582</v>
+        <v>0.87902209015953858</v>
       </c>
       <c r="B47">
-        <v>0.9364975592130389</v>
+        <v>0.93639369949642282</v>
       </c>
       <c r="C47">
-        <v>-0.078994306164768546</v>
+        <v>-0.079392426692688381</v>
       </c>
       <c r="D47">
-        <v>1.0103667309625797</v>
+        <v>1.0164714221993787</v>
       </c>
       <c r="E47">
-        <v>-0.61401053375724157</v>
+        <v>-0.61115162971882753</v>
       </c>
       <c r="F47">
-        <v>-0.19755409887348271</v>
+        <v>-0.18874362850266935</v>
       </c>
       <c r="G47">
-        <v>0.3529829720713118</v>
+        <v>0.35680450726251012</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.88414474249373853</v>
+        <v>0.89050365096126227</v>
       </c>
       <c r="B48">
-        <v>0.9485318121602766</v>
+        <v>0.94843988513183586</v>
       </c>
       <c r="C48">
-        <v>-0.072641217971279842</v>
+        <v>-0.073034411553965978</v>
       </c>
       <c r="D48">
-        <v>1.005366382897162</v>
+        <v>1.0105585586347994</v>
       </c>
       <c r="E48">
-        <v>-0.61284284470527428</v>
+        <v>-0.60999057767351339</v>
       </c>
       <c r="F48">
-        <v>-0.2134319722838377</v>
+        <v>-0.20474784370369575</v>
       </c>
       <c r="G48">
-        <v>0.34957756037761356</v>
+        <v>0.35330008566804671</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.89799538704009552</v>
+        <v>0.90445391152822474</v>
       </c>
       <c r="B49">
-        <v>0.96170431180695104</v>
+        <v>0.96162717664036412</v>
       </c>
       <c r="C49">
-        <v>-0.063029328933505532</v>
+        <v>-0.063394257620383046</v>
       </c>
       <c r="D49">
-        <v>1.0007685272365783</v>
+        <v>1.0048882232903693</v>
       </c>
       <c r="E49">
-        <v>-0.59503264395559474</v>
+        <v>-0.59206751138044977</v>
       </c>
       <c r="F49">
-        <v>-0.2354927455130609</v>
+        <v>-0.22693519744276042</v>
       </c>
       <c r="G49">
-        <v>0.34703732518879671</v>
+        <v>0.35072243553917654</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.91294112232524438</v>
+        <v>0.91950713889933</v>
       </c>
       <c r="B50">
-        <v>0.97408499647730407</v>
+        <v>0.97402365779984645</v>
       </c>
       <c r="C50">
-        <v>-0.050412617712940699</v>
+        <v>-0.050721686875371742</v>
       </c>
       <c r="D50">
-        <v>0.99764530916842298</v>
+        <v>1.0006532110886568</v>
       </c>
       <c r="E50">
-        <v>-0.57799487022650597</v>
+        <v>-0.57500011879195723</v>
       </c>
       <c r="F50">
-        <v>-0.24440066351600803</v>
+        <v>-0.23591365860513394</v>
       </c>
       <c r="G50">
-        <v>0.33396161668600988</v>
+        <v>0.33747728855797782</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.92751892448396478</v>
+        <v>0.93418978691091792</v>
       </c>
       <c r="B51">
-        <v>0.98434148065125149</v>
+        <v>0.9842962749560612</v>
       </c>
       <c r="C51">
-        <v>-0.035924402487340537</v>
+        <v>-0.036154925073299475</v>
       </c>
       <c r="D51">
-        <v>0.99647126755471638</v>
+        <v>0.99844082294411873</v>
       </c>
       <c r="E51">
-        <v>-0.55573444170470276</v>
+        <v>-0.55282416903063258</v>
       </c>
       <c r="F51">
-        <v>-0.23704612030163</v>
+        <v>-0.22835797622018528</v>
       </c>
       <c r="G51">
-        <v>0.31028131489269967</v>
+        <v>0.31383413040833202</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.94030187183852998</v>
+        <v>0.94706467123944904</v>
       </c>
       <c r="B52">
-        <v>0.99192387887287414</v>
+        <v>0.99189539451937647</v>
       </c>
       <c r="C52">
-        <v>-0.021480105784991845</v>
+        <v>-0.021622636962163131</v>
       </c>
       <c r="D52">
-        <v>0.99700497168406887</v>
+        <v>0.99810172540288455</v>
       </c>
       <c r="E52">
-        <v>-0.53941548701691899</v>
+        <v>-0.53638077103174797</v>
       </c>
       <c r="F52">
-        <v>-0.23378748008114797</v>
+        <v>-0.22544884631254158</v>
       </c>
       <c r="G52">
-        <v>0.29311929255559005</v>
+        <v>0.29586671979638574</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.95003898050719904</v>
+        <v>0.95687181072975458</v>
       </c>
       <c r="B53">
-        <v>0.99684873977841526</v>
+        <v>0.99683562066957676</v>
       </c>
       <c r="C53">
-        <v>-0.0094065831098004878</v>
+        <v>-0.0094704023468685766</v>
       </c>
       <c r="D53">
-        <v>0.99841311816360068</v>
+        <v>0.99886881671742733</v>
       </c>
       <c r="E53">
-        <v>-0.52527609203320047</v>
+        <v>-0.52201435452227973</v>
       </c>
       <c r="F53">
-        <v>-0.22820493974036393</v>
+        <v>-0.22040818683743782</v>
       </c>
       <c r="G53">
-        <v>0.2795745405612724</v>
+        <v>0.28118224642374468</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.95577953992147346</v>
+        <v>0.9626536571529466</v>
       </c>
       <c r="B54">
-        <v>0.99941853517075219</v>
+        <v>0.9994158512126472</v>
       </c>
       <c r="C54">
-        <v>-0.0018601451650102562</v>
+        <v>-0.0018729134483123878</v>
       </c>
       <c r="D54">
-        <v>0.99965532793228107</v>
+        <v>0.99974275190753792</v>
       </c>
       <c r="E54">
-        <v>-0.5183463143315421</v>
+        <v>-0.5150130485181158</v>
       </c>
       <c r="F54">
-        <v>-0.22606430236012323</v>
+        <v>-0.21842691949654877</v>
       </c>
       <c r="G54">
-        <v>0.2728204118769626</v>
+        <v>0.27403979492915359</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.95715903673512848</v>
+        <v>0.96404307552530988</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1359,18 +1363,18 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>-0.51625029716157078</v>
+        <v>-0.51287675582335246</v>
       </c>
       <c r="F55">
-        <v>-0.22504141154437771</v>
+        <v>-0.21749380800224591</v>
       </c>
       <c r="G55">
-        <v>0.27096978312883052</v>
+        <v>0.27199757689537374</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.95715903673512848</v>
+        <v>0.96404307552530988</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1382,915 +1386,915 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>-0.51625029716157078</v>
+        <v>-0.51287675582335246</v>
       </c>
       <c r="F56">
-        <v>-0.22504141154437771</v>
+        <v>-0.21749380800224591</v>
       </c>
       <c r="G56">
-        <v>0.27096978312883052</v>
+        <v>0.27199757689537374</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.96737225754829614</v>
+        <v>0.97418810691104363</v>
       </c>
       <c r="B57">
-        <v>1.0038773757404305</v>
+        <v>1.0038508692790191</v>
       </c>
       <c r="C57">
-        <v>0.014332800182637334</v>
+        <v>0.014227863764633584</v>
       </c>
       <c r="D57">
-        <v>1.0031107127746268</v>
+        <v>1.0024354026032618</v>
       </c>
       <c r="E57">
-        <v>-0.50292679091996528</v>
+        <v>-0.49954307959700267</v>
       </c>
       <c r="F57">
-        <v>-0.21929102399240688</v>
+        <v>-0.2122295840443589</v>
       </c>
       <c r="G57">
-        <v>0.25904492959080727</v>
+        <v>0.25929218302275731</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.98556268194095464</v>
+        <v>0.99225708140588753</v>
       </c>
       <c r="B58">
-        <v>1.0089864130174711</v>
+        <v>1.0089722750698826</v>
       </c>
       <c r="C58">
-        <v>0.042264226264080988</v>
+        <v>0.041931912929785382</v>
       </c>
       <c r="D58">
-        <v>1.0111311319985463</v>
+        <v>1.0092397070597443</v>
       </c>
       <c r="E58">
-        <v>-0.479884142432907</v>
+        <v>-0.47645615284079451</v>
       </c>
       <c r="F58">
-        <v>-0.20753913093676218</v>
+        <v>-0.20133706369924864</v>
       </c>
       <c r="G58">
-        <v>0.24021691658344088</v>
+        <v>0.23903397264389134</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1.0009964146492443</v>
+        <v>1.0075877695001616</v>
       </c>
       <c r="B59">
-        <v>1.0116151719562365</v>
+        <v>1.0116697891411901</v>
       </c>
       <c r="C59">
-        <v>0.068316205142151018</v>
+        <v>0.067751456383418535</v>
       </c>
       <c r="D59">
-        <v>1.0204808562335244</v>
+        <v>1.0175423194803743</v>
       </c>
       <c r="E59">
-        <v>-0.46101020260435643</v>
+        <v>-0.45752295793383724</v>
       </c>
       <c r="F59">
-        <v>-0.19614181816178083</v>
+        <v>-0.1906632049548859</v>
       </c>
       <c r="G59">
-        <v>0.22670631668055258</v>
+        <v>0.22426827505883595</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1.0052573456961091</v>
+        <v>1.0118202520826551</v>
       </c>
       <c r="B60">
-        <v>1.0120788437215067</v>
+        <v>1.0121616278609569</v>
       </c>
       <c r="C60">
-        <v>0.075880456043112346</v>
+        <v>0.075245297277417078</v>
       </c>
       <c r="D60">
-        <v>1.0234808770425834</v>
+        <v>1.0202505307467344</v>
       </c>
       <c r="E60">
-        <v>-0.45590454465167818</v>
+        <v>-0.45239864924100048</v>
       </c>
       <c r="F60">
-        <v>-0.19277864371346642</v>
+        <v>-0.1874980193201882</v>
       </c>
       <c r="G60">
-        <v>0.22337608529599187</v>
+        <v>0.22058669174042453</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1.0154705665092767</v>
+        <v>1.0219652834683888</v>
       </c>
       <c r="B61">
-        <v>1.0127612248923561</v>
+        <v>1.0129225021757817</v>
       </c>
       <c r="C61">
-        <v>0.094631877403572234</v>
+        <v>0.093824904842137458</v>
       </c>
       <c r="D61">
-        <v>1.0313626803685598</v>
+        <v>1.0274471111544008</v>
       </c>
       <c r="E61">
-        <v>-0.44384505072170788</v>
+        <v>-0.44029149069310614</v>
       </c>
       <c r="F61">
-        <v>-0.18435281011258717</v>
+        <v>-0.17954340375909303</v>
       </c>
       <c r="G61">
-        <v>0.21610268320922596</v>
+        <v>0.21246361593995189</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1.0336609909019352</v>
+        <v>1.0400342579632327</v>
       </c>
       <c r="B62">
-        <v>1.0124370673328034</v>
+        <v>1.0128161996416076</v>
       </c>
       <c r="C62">
-        <v>0.13033854429299185</v>
+        <v>0.12914993933419616</v>
       </c>
       <c r="D62">
-        <v>1.0483291279825686</v>
+        <v>1.0430776721437838</v>
       </c>
       <c r="E62">
-        <v>-0.42295771211437289</v>
+        <v>-0.41931266387431321</v>
       </c>
       <c r="F62">
-        <v>-0.16813111593029906</v>
+        <v>-0.16415216432961555</v>
       </c>
       <c r="G62">
-        <v>0.20564958299071079</v>
+        <v>0.20046664421807933</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1.0490947236102248</v>
+        <v>1.0553649460575067</v>
       </c>
       <c r="B63">
-        <v>1.0109242730603631</v>
+        <v>1.011488977498713</v>
       </c>
       <c r="C63">
-        <v>0.16253915292362672</v>
+        <v>0.161072492201986</v>
       </c>
       <c r="D63">
-        <v>1.064831183821739</v>
+        <v>1.0586307532710253</v>
       </c>
       <c r="E63">
-        <v>-0.4057773919149788</v>
+        <v>-0.4020542609410811</v>
       </c>
       <c r="F63">
-        <v>-0.15323252432551676</v>
+        <v>-0.14994756771997328</v>
       </c>
       <c r="G63">
-        <v>0.19930541654323203</v>
+        <v>0.19278837170363183</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.0533556546570897</v>
+        <v>1.0595974286400003</v>
       </c>
       <c r="B64">
-        <v>1.0104133427412474</v>
+        <v>1.0109954785840396</v>
       </c>
       <c r="C64">
-        <v>0.1715730120766587</v>
+        <v>0.17009080542219204</v>
       </c>
       <c r="D64">
-        <v>1.069342648088043</v>
+        <v>1.063044044163475</v>
       </c>
       <c r="E64">
-        <v>-0.40111234552260683</v>
+        <v>-0.39736915702731657</v>
       </c>
       <c r="F64">
-        <v>-0.14894998603223114</v>
+        <v>-0.14585287039222589</v>
       </c>
       <c r="G64">
-        <v>0.19795735920697413</v>
+        <v>0.19107304092885935</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1.0635688754702575</v>
+        <v>1.0697424600257339</v>
       </c>
       <c r="B65">
-        <v>1.0092671969505718</v>
+        <v>1.0098291494063818</v>
       </c>
       <c r="C65">
-        <v>0.19308461454933784</v>
+        <v>0.19166783010903946</v>
       </c>
       <c r="D65">
-        <v>1.0790981230368277</v>
+        <v>1.0728329708219819</v>
       </c>
       <c r="E65">
-        <v>-0.39005873577616329</v>
+        <v>-0.38626270219544923</v>
       </c>
       <c r="F65">
-        <v>-0.13839343451196173</v>
+        <v>-0.13576449438232255</v>
       </c>
       <c r="G65">
-        <v>0.19545771029600667</v>
+        <v>0.18763495310082456</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.081759299862916</v>
+        <v>1.0878114345205778</v>
       </c>
       <c r="B66">
-        <v>1.0072284476097799</v>
+        <v>1.0077544762574682</v>
       </c>
       <c r="C66">
-        <v>0.2313488128436762</v>
+        <v>0.23004873840266116</v>
       </c>
       <c r="D66">
-        <v>1.0938978524748244</v>
+        <v>1.0877261041693926</v>
       </c>
       <c r="E66">
-        <v>-0.3706817190440585</v>
+        <v>-0.36689571638329677</v>
       </c>
       <c r="F66">
-        <v>-0.11888358229337349</v>
+        <v>-0.11678702273910552</v>
       </c>
       <c r="G66">
-        <v>0.1929320630028509</v>
+        <v>0.18416349689783665</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1.0971930325712054</v>
+        <v>1.1031421226148521</v>
       </c>
       <c r="B67">
-        <v>1.0055013068156982</v>
+        <v>1.0059968959504961</v>
       </c>
       <c r="C67">
-        <v>0.26376462926759581</v>
+        <v>0.26256373788989085</v>
       </c>
       <c r="D67">
-        <v>1.1038747597211778</v>
+        <v>1.097816022577796</v>
       </c>
       <c r="E67">
-        <v>-0.35432905097661643</v>
+        <v>-0.35074555590441298</v>
       </c>
       <c r="F67">
-        <v>-0.10225474911174925</v>
+        <v>-0.099975279573754489</v>
       </c>
       <c r="G67">
-        <v>0.19118315034214145</v>
+        <v>0.18326166313279718</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.1014539636180702</v>
+        <v>1.1073746051973454</v>
       </c>
       <c r="B68">
-        <v>1.0050249001503473</v>
+        <v>1.0055120867089262</v>
       </c>
       <c r="C68">
-        <v>0.27270596038817557</v>
+        <v>0.2715324865977104</v>
       </c>
       <c r="D68">
-        <v>1.1062129572848374</v>
+        <v>1.100190885237404</v>
       </c>
       <c r="E68">
-        <v>-0.34979522487575643</v>
+        <v>-0.346293747523157</v>
       </c>
       <c r="F68">
-        <v>-0.097762502019173317</v>
+        <v>-0.095328121480729638</v>
       </c>
       <c r="G68">
-        <v>0.19046977348731242</v>
+        <v>0.18307601700569165</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1.111667184431238</v>
+        <v>1.1175196365830791</v>
       </c>
       <c r="B69">
-        <v>1.0038837326722689</v>
+        <v>1.004350794976244</v>
       </c>
       <c r="C69">
-        <v>0.29412374903008981</v>
+        <v>0.29301603002575205</v>
       </c>
       <c r="D69">
-        <v>1.111085565772628</v>
+        <v>1.1051609119320194</v>
       </c>
       <c r="E69">
-        <v>-0.33892644289419771</v>
+        <v>-0.33558222699222684</v>
       </c>
       <c r="F69">
-        <v>-0.087072728806039154</v>
+        <v>-0.084401253241468979</v>
       </c>
       <c r="G69">
-        <v>0.18858603438756913</v>
+        <v>0.18209695679556473</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.1298576088238965</v>
+        <v>1.1355886110779232</v>
       </c>
       <c r="B70">
-        <v>1.0018538537663155</v>
+        <v>1.0022851045815557</v>
       </c>
       <c r="C70">
-        <v>0.33222105059033769</v>
+        <v>0.33123061788539004</v>
       </c>
       <c r="D70">
-        <v>1.1172109539667592</v>
+        <v>1.1114931532295012</v>
       </c>
       <c r="E70">
-        <v>-0.31957270192887882</v>
+        <v>-0.31645399644282324</v>
       </c>
       <c r="F70">
-        <v>-0.068283512800795892</v>
+        <v>-0.065366666229585771</v>
       </c>
       <c r="G70">
-        <v>0.18464529917199773</v>
+        <v>0.17930110559146362</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.1452913415321861</v>
+        <v>1.1509192991721973</v>
       </c>
       <c r="B71">
-        <v>1.0001342245151721</v>
+        <v>1.0005351201796482</v>
       </c>
       <c r="C71">
-        <v>0.36449548467733695</v>
+        <v>0.36360474037674029</v>
       </c>
       <c r="D71">
-        <v>1.1198505625929951</v>
+        <v>1.114341634956642</v>
       </c>
       <c r="E71">
-        <v>-0.30322260050367589</v>
+        <v>-0.30024287266667671</v>
       </c>
       <c r="F71">
-        <v>-0.052300254950541081</v>
+        <v>-0.049380913594647406</v>
       </c>
       <c r="G71">
-        <v>0.18155186057926731</v>
+        <v>0.17659147846051912</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1.1495522725790508</v>
+        <v>1.1551517817546906</v>
       </c>
       <c r="B72">
-        <v>0.99965989406599509</v>
+        <v>1.0000524146390943</v>
       </c>
       <c r="C72">
-        <v>0.37339781139020245</v>
+        <v>0.37253461613254035</v>
       </c>
       <c r="D72">
-        <v>1.1201666938365404</v>
+        <v>1.1147208050816992</v>
       </c>
       <c r="E72">
-        <v>-0.29872762230695499</v>
+        <v>-0.29578153624301418</v>
       </c>
       <c r="F72">
-        <v>-0.047833488906958641</v>
+        <v>-0.044936448870720631</v>
       </c>
       <c r="G72">
-        <v>0.18088898213382557</v>
+        <v>0.17596332401546</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.1597654933922186</v>
+        <v>1.1652968131404244</v>
       </c>
       <c r="B73">
-        <v>0.9985236966457709</v>
+        <v>0.99889615116837871</v>
       </c>
       <c r="C73">
-        <v>0.39472217598883352</v>
+        <v>0.39392506301441826</v>
       </c>
       <c r="D73">
-        <v>1.1201989076724823</v>
+        <v>1.1149135615127541</v>
       </c>
       <c r="E73">
-        <v>-0.2879494207183228</v>
+        <v>-0.28508234556999373</v>
       </c>
       <c r="F73">
-        <v>-0.037249526394623395</v>
+        <v>-0.034415325454654908</v>
       </c>
       <c r="G73">
-        <v>0.17893946157750518</v>
+        <v>0.174064819429078</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1.1779559177848771</v>
+        <v>1.1833657876352683</v>
       </c>
       <c r="B74">
-        <v>0.99650266130935483</v>
+        <v>0.99683940678371086</v>
       </c>
       <c r="C74">
-        <v>0.4326532944035632</v>
+        <v>0.4319740498789616</v>
       </c>
       <c r="D74">
-        <v>1.1177254556387237</v>
+        <v>1.1127589560021869</v>
       </c>
       <c r="E74">
-        <v>-0.26876456920380898</v>
+        <v>-0.266037380946062</v>
       </c>
       <c r="F74">
-        <v>-0.018871834110200273</v>
+        <v>-0.016186186330576665</v>
       </c>
       <c r="G74">
-        <v>0.17389853307155073</v>
+        <v>0.16896713280104209</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1.1933896504931667</v>
+        <v>1.1986964757295424</v>
       </c>
       <c r="B75">
-        <v>0.99479052454577865</v>
+        <v>0.99509700142278956</v>
       </c>
       <c r="C75">
-        <v>0.46478694529763992</v>
+        <v>0.46420788085028775</v>
       </c>
       <c r="D75">
-        <v>1.1130916172748397</v>
+        <v>1.1084285740915858</v>
       </c>
       <c r="E75">
-        <v>-0.25253154663370558</v>
+        <v>-0.24992774230436915</v>
       </c>
       <c r="F75">
-        <v>-0.0038283255593205483</v>
+        <v>-0.0012769235832496243</v>
       </c>
       <c r="G75">
-        <v>0.167582934141456</v>
+        <v>0.16254259693307391</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.1976505815400316</v>
+        <v>1.2029289583120357</v>
       </c>
       <c r="B76">
-        <v>0.99431826157415049</v>
+        <v>0.99461638692561416</v>
       </c>
       <c r="C76">
-        <v>0.47365043875497392</v>
+        <v>0.47309905893904125</v>
       </c>
       <c r="D76">
-        <v>1.1114032938030118</v>
+        <v>1.1068293314679505</v>
       </c>
       <c r="E76">
-        <v>-0.2480667815637812</v>
+        <v>-0.24549792028014161</v>
       </c>
       <c r="F76">
-        <v>0.00026097314232258542</v>
+        <v>0.0027783878970751475</v>
       </c>
       <c r="G76">
-        <v>0.16555976407348255</v>
+        <v>0.16049634673996424</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1.2078638023531991</v>
+        <v>1.2130739896977696</v>
       </c>
       <c r="B77">
-        <v>0.99318701699536216</v>
+        <v>0.99346513250109592</v>
       </c>
       <c r="C77">
-        <v>0.494881784271131</v>
+        <v>0.49439681072085434</v>
       </c>
       <c r="D77">
-        <v>1.1066372612884006</v>
+        <v>1.102286136369286</v>
       </c>
       <c r="E77">
-        <v>-0.23740018054357606</v>
+        <v>-0.23491689151524284</v>
       </c>
       <c r="F77">
-        <v>0.0099229481334311437</v>
+        <v>0.012354855845219342</v>
       </c>
       <c r="G77">
-        <v>0.16007975948661582</v>
+        <v>0.15493492739496778</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.2260542267458576</v>
+        <v>1.2311429641926135</v>
       </c>
       <c r="B78">
-        <v>0.9911747934230567</v>
+        <v>0.99141729912041943</v>
       </c>
       <c r="C78">
-        <v>0.5326474436782398</v>
+        <v>0.53228091306129799</v>
       </c>
       <c r="D78">
-        <v>1.095639857730645</v>
+        <v>1.0917180949950378</v>
       </c>
       <c r="E78">
-        <v>-0.21857234822896868</v>
+        <v>-0.21624690066979377</v>
       </c>
       <c r="F78">
-        <v>0.02674106724250155</v>
+        <v>0.029028594916990679</v>
       </c>
       <c r="G78">
-        <v>0.1482598905677539</v>
+        <v>0.14297162386697423</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1.2414879594541472</v>
+        <v>1.2464736522868876</v>
       </c>
       <c r="B79">
-        <v>0.98947012263638856</v>
+        <v>0.98968244340395428</v>
       </c>
       <c r="C79">
-        <v>0.56464092683322253</v>
+        <v>0.56437506040144481</v>
       </c>
       <c r="D79">
-        <v>1.0837959286765486</v>
+        <v>1.0802709514921067</v>
       </c>
       <c r="E79">
-        <v>-0.20282226845032258</v>
+        <v>-0.20063547214405883</v>
       </c>
       <c r="F79">
-        <v>0.040672702259634284</v>
+        <v>0.042849971402677545</v>
       </c>
       <c r="G79">
-        <v>0.1361024408619286</v>
+        <v>0.13071464024667676</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1.2457488905010121</v>
+        <v>1.2507061348693809</v>
       </c>
       <c r="B80">
-        <v>0.98899991968460299</v>
+        <v>0.9892039117130681</v>
       </c>
       <c r="C80">
-        <v>0.57346575829371904</v>
+        <v>0.57322770935625911</v>
       </c>
       <c r="D80">
-        <v>1.0801206169113231</v>
+        <v>1.0767104142005892</v>
       </c>
       <c r="E80">
-        <v>-0.19851753533807998</v>
+        <v>-0.19636976261235253</v>
       </c>
       <c r="F80">
-        <v>0.044476033114822497</v>
+        <v>0.046623311969665966</v>
       </c>
       <c r="G80">
-        <v>0.13241061840603732</v>
+        <v>0.12699326304134217</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1.2559621113141799</v>
+        <v>1.2608511662551147</v>
       </c>
       <c r="B81">
-        <v>0.98787776114749903</v>
+        <v>0.98806200988222836</v>
       </c>
       <c r="C81">
-        <v>0.59461422287509236</v>
+        <v>0.59444295866151087</v>
       </c>
       <c r="D81">
-        <v>1.070657581726822</v>
+        <v>1.0675326269722349</v>
       </c>
       <c r="E81">
-        <v>-0.18828482044520262</v>
+        <v>-0.18623128734643021</v>
       </c>
       <c r="F81">
-        <v>0.053528983096424572</v>
+        <v>0.055608127803850368</v>
       </c>
       <c r="G81">
-        <v>0.12297505387903283</v>
+        <v>0.11749761626532312</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1.2741525357068384</v>
+        <v>1.2789201407499586</v>
       </c>
       <c r="B82">
-        <v>0.98586131733079785</v>
+        <v>0.986009127508226</v>
       </c>
       <c r="C82">
-        <v>0.63218497986352429</v>
+        <v>0.63213166195616421</v>
       </c>
       <c r="D82">
-        <v>1.0510256097736572</v>
+        <v>1.0484311899004226</v>
       </c>
       <c r="E82">
-        <v>-0.17041228626592408</v>
+        <v>-0.16853263048945799</v>
       </c>
       <c r="F82">
-        <v>0.069447103918767461</v>
+        <v>0.071406803993370044</v>
       </c>
       <c r="G82">
-        <v>0.10391941169928361</v>
+        <v>0.098314958627075386</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1.2895862684151278</v>
+        <v>1.2942508288442327</v>
       </c>
       <c r="B83">
-        <v>0.98419969418852149</v>
+        <v>0.98431620979121137</v>
       </c>
       <c r="C83">
-        <v>0.66412567099233455</v>
+        <v>0.66416398936927046</v>
       </c>
       <c r="D83">
-        <v>1.0325596081194615</v>
+        <v>1.0304057330246723</v>
       </c>
       <c r="E83">
-        <v>-0.15562411869100826</v>
+        <v>-0.15388725788867527</v>
       </c>
       <c r="F83">
-        <v>0.082864333566791112</v>
+        <v>0.084740929189214081</v>
       </c>
       <c r="G83">
-        <v>0.085857259493069785</v>
+        <v>0.080239585897956045</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.2938471994619927</v>
+        <v>1.2984833114267262</v>
       </c>
       <c r="B84">
-        <v>0.98377832297910417</v>
+        <v>0.98388696169757428</v>
       </c>
       <c r="C84">
-        <v>0.67302378854151335</v>
+        <v>0.67308421203060664</v>
       </c>
       <c r="D84">
-        <v>1.0275944823686303</v>
+        <v>1.0255546522324621</v>
       </c>
       <c r="E84">
-        <v>-0.15159590859348596</v>
+        <v>-0.14989375686331322</v>
       </c>
       <c r="F84">
-        <v>0.086590924110354323</v>
+        <v>0.088453839110147647</v>
       </c>
       <c r="G84">
-        <v>0.080739799160417319</v>
+        <v>0.075177052612419221</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1.3040604202751604</v>
+        <v>1.3086283428124599</v>
       </c>
       <c r="B85">
-        <v>0.98291753473230337</v>
+        <v>0.98301136675837908</v>
       </c>
       <c r="C85">
-        <v>0.69465639790104339</v>
+        <v>0.69476286367914786</v>
       </c>
       <c r="D85">
-        <v>1.0169785053958396</v>
+        <v>1.0152012377237203</v>
       </c>
       <c r="E85">
-        <v>-0.1420058746785407</v>
+        <v>-0.14038414201021479</v>
       </c>
       <c r="F85">
-        <v>0.095613941090049545</v>
+        <v>0.097444440271830121</v>
       </c>
       <c r="G85">
-        <v>0.068592623974942063</v>
+        <v>0.063175704687489093</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1.3222508446678189</v>
+        <v>1.3266973173073038</v>
       </c>
       <c r="B86">
-        <v>0.98190007834821214</v>
+        <v>0.98197628990284336</v>
       </c>
       <c r="C86">
-        <v>0.73398701989593873</v>
+        <v>0.73415312762830398</v>
       </c>
       <c r="D86">
-        <v>1.0013667175655843</v>
+        <v>1.0000126614116971</v>
       </c>
       <c r="E86">
-        <v>-0.12518725391400928</v>
+        <v>-0.12371649721174084</v>
       </c>
       <c r="F86">
-        <v>0.11195468194302784</v>
+        <v>0.11370442013943866</v>
       </c>
       <c r="G86">
-        <v>0.047051729178618197</v>
+        <v>0.041768918647959626</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1.3376845773761086</v>
+        <v>1.3420280054015779</v>
       </c>
       <c r="B87">
-        <v>0.98164985437296504</v>
+        <v>0.98171753944047513</v>
       </c>
       <c r="C87">
-        <v>0.7680770869098088</v>
+        <v>0.76827252219344622</v>
       </c>
       <c r="D87">
-        <v>0.9914249837913538</v>
+        <v>0.99038518037253565</v>
       </c>
       <c r="E87">
-        <v>-0.11116998500887595</v>
+        <v>-0.10982030780968426</v>
       </c>
       <c r="F87">
-        <v>0.12610127868958537</v>
+        <v>0.12778381658033011</v>
       </c>
       <c r="G87">
-        <v>0.028987735933212692</v>
+        <v>0.023855073688957916</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.3419455084229732</v>
+        <v>1.3462604879840714</v>
       </c>
       <c r="B88">
-        <v>0.98169300391105452</v>
+        <v>0.98175904760127974</v>
       </c>
       <c r="C88">
-        <v>0.77759294335429585</v>
+        <v>0.77779320934562313</v>
       </c>
       <c r="D88">
-        <v>0.98921339791328078</v>
+        <v>0.98825309837141151</v>
       </c>
       <c r="E88">
-        <v>-0.10734187411752953</v>
+        <v>-0.10602613596588774</v>
       </c>
       <c r="F88">
-        <v>0.13004976910506691</v>
+        <v>0.13171136424866556</v>
       </c>
       <c r="G88">
-        <v>0.024023263609717314</v>
+        <v>0.018920158885627775</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1.352158729236141</v>
+        <v>1.356405519369805</v>
       </c>
       <c r="B89">
-        <v>0.98201206777798999</v>
+        <v>0.9820749834996132</v>
       </c>
       <c r="C89">
-        <v>0.80056859542983716</v>
+        <v>0.8007749337105019</v>
       </c>
       <c r="D89">
-        <v>0.98484951676225563</v>
+        <v>0.98406697435648449</v>
       </c>
       <c r="E89">
-        <v>-0.098237234383297276</v>
+        <v>-0.097000652231444162</v>
       </c>
       <c r="F89">
-        <v>0.13959212729283368</v>
+        <v>0.14120440183091648</v>
       </c>
       <c r="G89">
-        <v>0.012189281912437995</v>
+        <v>0.0071697742731989551</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1.3703491536287995</v>
+        <v>1.3744744938646489</v>
       </c>
       <c r="B90">
-        <v>0.98340139050858222</v>
+        <v>0.98345985904210609</v>
       </c>
       <c r="C90">
-        <v>0.84200603658341389</v>
+        <v>0.8422049305881163</v>
       </c>
       <c r="D90">
-        <v>0.98034353697782783</v>
+        <v>0.97983283684930556</v>
       </c>
       <c r="E90">
-        <v>-0.082276058258320114</v>
+        <v>-0.081176096061046366</v>
       </c>
       <c r="F90">
-        <v>0.15684706127092013</v>
+        <v>0.15836807559809807</v>
       </c>
       <c r="G90">
-        <v>-0.0087260669102631298</v>
+        <v>-0.013591510516473445</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1.3857828863370889</v>
+        <v>1.389805181958923</v>
       </c>
       <c r="B91">
-        <v>0.98549410107386182</v>
+        <v>0.98554767404646393</v>
       </c>
       <c r="C91">
-        <v>0.8775918646926204</v>
+        <v>0.87776747169066183</v>
       </c>
       <c r="D91">
-        <v>0.97978699274920134</v>
+        <v>0.97946202511275204</v>
       </c>
       <c r="E91">
-        <v>-0.068986791850301502</v>
+        <v>-0.067999591847164934</v>
       </c>
       <c r="F91">
-        <v>0.17174245013783554</v>
+        <v>0.17318176357904863</v>
       </c>
       <c r="G91">
-        <v>-0.02629368995948711</v>
+        <v>-0.031033516510827121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1.3900438173839538</v>
+        <v>1.3940376645414165</v>
       </c>
       <c r="B92">
-        <v>0.98623190486174228</v>
+        <v>0.98628363501198169</v>
       </c>
       <c r="C92">
-        <v>0.8874727748459329</v>
+        <v>0.88763940608636016</v>
       </c>
       <c r="D92">
-        <v>0.98015931329375949</v>
+        <v>0.97987837596504124</v>
       </c>
       <c r="E92">
-        <v>-0.065358886578850056</v>
+        <v>-0.064402234289058252</v>
       </c>
       <c r="F92">
-        <v>0.17589494269217718</v>
+        <v>0.17731110796642902</v>
       </c>
       <c r="G92">
-        <v>-0.031116877925325973</v>
+        <v>-0.035822138496891261</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.4002570381971216</v>
+        <v>1.4041826959271502</v>
       </c>
       <c r="B93">
-        <v>0.98829905385411909</v>
+        <v>0.98834507688733575</v>
       </c>
       <c r="C93">
-        <v>0.91123810496260549</v>
+        <v>0.91137901700261537</v>
       </c>
       <c r="D93">
-        <v>0.98197478503379887</v>
+        <v>0.98178664666057724</v>
       </c>
       <c r="E93">
-        <v>-0.05673440145219124</v>
+        <v>-0.055850291266352492</v>
       </c>
       <c r="F93">
-        <v>0.18591811805374966</v>
+        <v>0.18727756715718719</v>
       </c>
       <c r="G93">
-        <v>-0.04262622643969953</v>
+        <v>-0.047251503506683876</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1.4184474625897801</v>
+        <v>1.4222516704219941</v>
       </c>
       <c r="B94">
-        <v>0.99308735929866476</v>
+        <v>0.99311711398689295</v>
       </c>
       <c r="C94">
-        <v>0.95378023283166802</v>
+        <v>0.95386174830897652</v>
       </c>
       <c r="D94">
-        <v>0.98841956713975943</v>
+        <v>0.98835233616314766</v>
       </c>
       <c r="E94">
-        <v>-0.041626179834693598</v>
+        <v>-0.040867102953522874</v>
       </c>
       <c r="F94">
-        <v>0.20400796969135193</v>
+        <v>0.20526291514820838</v>
       </c>
       <c r="G94">
-        <v>-0.062972010254607358</v>
+        <v>-0.067452424550113327</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1.4338811952980697</v>
+        <v>1.4375823585162681</v>
       </c>
       <c r="B95">
-        <v>0.99834423939380423</v>
+        <v>0.99835194832246532</v>
       </c>
       <c r="C95">
-        <v>0.98999564528977735</v>
+        <v>0.99001464543346651</v>
       </c>
       <c r="D95">
-        <v>0.9970912232045972</v>
+        <v>0.99708225919199633</v>
       </c>
       <c r="E95">
-        <v>-0.029058509228559338</v>
+        <v>-0.028402401229950525</v>
       </c>
       <c r="F95">
-        <v>0.2195892490131385</v>
+        <v>0.22075187082943085</v>
       </c>
       <c r="G95">
-        <v>-0.080072586334756515</v>
+        <v>-0.08443436192275601</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1.4381421263449345</v>
+        <v>1.4418148410987617</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2302,18 +2306,18 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>-0.025629427711538189</v>
+        <v>-0.025001191079016664</v>
       </c>
       <c r="F96">
-        <v>0.22392760878193604</v>
+        <v>0.22506419664800217</v>
       </c>
       <c r="G96">
-        <v>-0.084769003242934182</v>
+        <v>-0.089098297609288626</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.4381421263449345</v>
+        <v>1.4418148410987617</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2325,1283 +2329,1283 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>-0.025629427711538189</v>
+        <v>-0.025001191079016664</v>
       </c>
       <c r="F97">
-        <v>0.22392760878193604</v>
+        <v>0.22506419664800217</v>
       </c>
       <c r="G97">
-        <v>-0.084769003242934182</v>
+        <v>-0.089098297609288626</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.4606631756139874</v>
+        <v>1.4643102681416438</v>
       </c>
       <c r="B98">
-        <v>1.0103092126422113</v>
+        <v>1.0103192704894364</v>
       </c>
       <c r="C98">
-        <v>1.0528123122432194</v>
+        <v>1.0529943745220909</v>
       </c>
       <c r="D98">
-        <v>1.0190445344375563</v>
+        <v>1.0191642752889336</v>
       </c>
       <c r="E98">
-        <v>-0.0078164903919847612</v>
+        <v>-0.0072495421210418774</v>
       </c>
       <c r="F98">
-        <v>0.24711103950827984</v>
+        <v>0.24823643229765499</v>
       </c>
       <c r="G98">
-        <v>-0.10951765519858352</v>
+        <v>-0.11386801611242402</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1.5007746596860703</v>
+        <v>1.5043761173276851</v>
       </c>
       <c r="B99">
-        <v>1.0357180827823691</v>
+        <v>1.0357553993678017</v>
       </c>
       <c r="C99">
-        <v>1.1458709488082279</v>
+        <v>1.146328149786493</v>
       </c>
       <c r="D99">
-        <v>1.068034866727499</v>
+        <v>1.0683243079992075</v>
       </c>
       <c r="E99">
-        <v>0.023447353713671352</v>
+        <v>0.024117842505607529</v>
       </c>
       <c r="F99">
-        <v>0.28940840406536855</v>
+        <v>0.29049559550566378</v>
       </c>
       <c r="G99">
-        <v>-0.15012838554991842</v>
+        <v>-0.15379014182850886</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1.5348073963797337</v>
+        <v>1.5383701349338694</v>
       </c>
       <c r="B100">
-        <v>1.0651258856314556</v>
+        <v>1.0651882577302103</v>
       </c>
       <c r="C100">
-        <v>1.2227425049183378</v>
+        <v>1.2233845059338271</v>
       </c>
       <c r="D100">
-        <v>1.1243817737028277</v>
+        <v>1.1247711157922435</v>
       </c>
       <c r="E100">
-        <v>0.051848612033590931</v>
+        <v>0.052784729220089005</v>
       </c>
       <c r="F100">
-        <v>0.32589018375785556</v>
+        <v>0.32692220123230448</v>
       </c>
       <c r="G100">
-        <v>-0.17419791991009323</v>
+        <v>-0.17673867661642428</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1.5442031237211773</v>
+        <v>1.5477551727444609</v>
       </c>
       <c r="B101">
-        <v>1.0746159209524164</v>
+        <v>1.0746845614004417</v>
       </c>
       <c r="C101">
-        <v>1.2434754147010874</v>
+        <v>1.244160760711285</v>
       </c>
       <c r="D101">
-        <v>1.1422722671899426</v>
+        <v>1.1426820349242279</v>
       </c>
       <c r="E101">
-        <v>0.060474169153177479</v>
+        <v>0.061435267874507239</v>
       </c>
       <c r="F101">
-        <v>0.33594636229709829</v>
+        <v>0.33696213221615801</v>
       </c>
       <c r="G101">
-        <v>-0.17792284594456759</v>
+        <v>-0.18035451029257893</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1.5489370455360782</v>
+        <v>1.5524837087705399</v>
       </c>
       <c r="B102">
-        <v>1.0796312822051044</v>
+        <v>1.079702914834366</v>
       </c>
       <c r="C102">
-        <v>1.2538267449917428</v>
+        <v>1.2545327167411977</v>
       </c>
       <c r="D102">
-        <v>1.1516630842908073</v>
+        <v>1.1520819640074944</v>
       </c>
       <c r="E102">
-        <v>0.064845102421958595</v>
+        <v>0.065837984668274604</v>
       </c>
       <c r="F102">
-        <v>0.34090042134111886</v>
+        <v>0.34190578667149923</v>
       </c>
       <c r="G102">
-        <v>-0.17968679120225281</v>
+        <v>-0.1820011201099648</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1.5595147529305424</v>
+        <v>1.5630493818939541</v>
       </c>
       <c r="B103">
-        <v>1.0914158624724557</v>
+        <v>1.0914936501549344</v>
       </c>
       <c r="C103">
-        <v>1.2767087831184221</v>
+        <v>1.2774579123970122</v>
       </c>
       <c r="D103">
-        <v>1.1735512589651003</v>
+        <v>1.1739876488115299</v>
       </c>
       <c r="E103">
-        <v>0.074913755562129841</v>
+        <v>0.075983309642077196</v>
       </c>
       <c r="F103">
-        <v>0.35265258290495471</v>
+        <v>0.35363059287353538</v>
       </c>
       <c r="G103">
-        <v>-0.18266417231048687</v>
+        <v>-0.18470913831080754</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.5746240435361143</v>
+        <v>1.5781414826405391</v>
       </c>
       <c r="B104">
-        <v>1.1096657542030171</v>
+        <v>1.1097508054913963</v>
       </c>
       <c r="C104">
-        <v>1.3087476864661063</v>
+        <v>1.309551571329552</v>
       </c>
       <c r="D104">
-        <v>1.2069620708711724</v>
+        <v>1.2074166338322239</v>
       </c>
       <c r="E104">
-        <v>0.089910355920260532</v>
+        <v>0.091089834388745253</v>
       </c>
       <c r="F104">
-        <v>0.3675947150122717</v>
+        <v>0.3685311064227535</v>
       </c>
       <c r="G104">
-        <v>-0.18499994178473014</v>
+        <v>-0.18667583377560529</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1.5924410775509215</v>
+        <v>1.5959382461932661</v>
       </c>
       <c r="B105">
-        <v>1.1333957973128388</v>
+        <v>1.1334865816451212</v>
       </c>
       <c r="C105">
-        <v>1.3454373754968885</v>
+        <v>1.3462957161314133</v>
       </c>
       <c r="D105">
-        <v>1.2495513258429811</v>
+        <v>1.2500169745730505</v>
       </c>
       <c r="E105">
-        <v>0.10896748120300324</v>
+        <v>0.11029911527622066</v>
       </c>
       <c r="F105">
-        <v>0.38901551444479221</v>
+        <v>0.38988628975553069</v>
       </c>
       <c r="G105">
-        <v>-0.18395836700821103</v>
+        <v>-0.18517028059696494</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1.6108166247654134</v>
+        <v>1.6142928875245057</v>
       </c>
       <c r="B106">
-        <v>1.1604657700739043</v>
+        <v>1.1605586124175207</v>
       </c>
       <c r="C106">
-        <v>1.3818877091595092</v>
+        <v>1.3827911881784689</v>
       </c>
       <c r="D106">
-        <v>1.2970189946598576</v>
+        <v>1.2974843414683648</v>
       </c>
       <c r="E106">
-        <v>0.12889353675899293</v>
+        <v>0.13034911475720914</v>
       </c>
       <c r="F106">
-        <v>0.38966768393110168</v>
+        <v>0.39049421149645053</v>
       </c>
       <c r="G106">
-        <v>-0.18216102731903169</v>
+        <v>-0.18299486297901185</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1.6275343500265338</v>
+        <v>1.6309915930085019</v>
       </c>
       <c r="B107">
-        <v>1.1873578787552446</v>
+        <v>1.1874490824960782</v>
       </c>
       <c r="C107">
-        <v>1.4137055673777763</v>
+        <v>1.4146408510189972</v>
       </c>
       <c r="D107">
-        <v>1.3433041582008733</v>
+        <v>1.3437588184468272</v>
       </c>
       <c r="E107">
-        <v>0.14622123908534476</v>
+        <v>0.14767428138163913</v>
       </c>
       <c r="F107">
-        <v>0.36799677841481732</v>
+        <v>0.36883758704276237</v>
       </c>
       <c r="G107">
-        <v>-0.18264126618904836</v>
+        <v>-0.18342885205706036</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.6405782481595712</v>
+        <v>1.6440206510821744</v>
       </c>
       <c r="B108">
-        <v>1.2097481153181675</v>
+        <v>1.2098359544655399</v>
       </c>
       <c r="C108">
-        <v>1.4375849243773673</v>
+        <v>1.4385391928909155</v>
       </c>
       <c r="D108">
-        <v>1.3814826171293457</v>
+        <v>1.381921975262467</v>
       </c>
       <c r="E108">
-        <v>0.15937743417422778</v>
+        <v>0.16080993545074918</v>
       </c>
       <c r="F108">
-        <v>0.35667570496989709</v>
+        <v>0.35753076303288195</v>
       </c>
       <c r="G108">
-        <v>-0.18408244767597803</v>
+        <v>-0.18488134232562101</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1.6483783655636259</v>
+        <v>1.6518118942828164</v>
       </c>
       <c r="B109">
-        <v>1.2236997618292056</v>
+        <v>1.2237847841126612</v>
       </c>
       <c r="C109">
-        <v>1.4514491874223965</v>
+        <v>1.4524124603314232</v>
       </c>
       <c r="D109">
-        <v>1.4051804340894627</v>
+        <v>1.405607706272255</v>
       </c>
       <c r="E109">
-        <v>0.16679544237604099</v>
+        <v>0.16822009660679563</v>
       </c>
       <c r="F109">
-        <v>0.34730225420259497</v>
+        <v>0.34816696130258495</v>
       </c>
       <c r="G109">
-        <v>-0.18624191061996295</v>
+        <v>-0.18703137295950847</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.6502641210974203</v>
+        <v>1.6536955043901604</v>
       </c>
       <c r="B110">
-        <v>1.2271338854186382</v>
+        <v>1.2272181418614463</v>
       </c>
       <c r="C110">
-        <v>1.4547531004964918</v>
+        <v>1.4557182936629469</v>
       </c>
       <c r="D110">
-        <v>1.4110072885737024</v>
+        <v>1.4114313077484266</v>
       </c>
       <c r="E110">
-        <v>0.16860547112477334</v>
+        <v>0.17002672854489706</v>
       </c>
       <c r="F110">
-        <v>0.34591509077274674</v>
+        <v>0.34678221214877375</v>
       </c>
       <c r="G110">
-        <v>-0.18673487637070757</v>
+        <v>-0.18752681924463552</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1.6727851703664731</v>
+        <v>1.6761909314330428</v>
       </c>
       <c r="B111">
-        <v>1.2699039632507161</v>
+        <v>1.2699767345369304</v>
       </c>
       <c r="C111">
-        <v>1.4927156245095341</v>
+        <v>1.4936962860422462</v>
       </c>
       <c r="D111">
-        <v>1.4835417516044334</v>
+        <v>1.4839169128350942</v>
       </c>
       <c r="E111">
-        <v>0.18901467931836072</v>
+        <v>0.19040435291657526</v>
       </c>
       <c r="F111">
-        <v>0.32361225506422142</v>
+        <v>0.32451140438299553</v>
       </c>
       <c r="G111">
-        <v>-0.19642392998095162</v>
+        <v>-0.19720623222153943</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1.712896654438556</v>
+        <v>1.7162567806190838</v>
       </c>
       <c r="B112">
-        <v>1.3533409345435006</v>
+        <v>1.3533846168038817</v>
       </c>
       <c r="C112">
-        <v>1.5530150627215917</v>
+        <v>1.5539917085452022</v>
       </c>
       <c r="D112">
-        <v>1.6262337987081243</v>
+        <v>1.6264758391850591</v>
       </c>
       <c r="E112">
-        <v>0.22193084049633197</v>
+        <v>0.22326095379864053</v>
       </c>
       <c r="F112">
-        <v>0.28681726395243495</v>
+        <v>0.28778168911454011</v>
       </c>
       <c r="G112">
-        <v>-0.22687844417447584</v>
+        <v>-0.22760874025776653</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1.7469293911322197</v>
+        <v>1.7502507982252682</v>
       </c>
       <c r="B113">
-        <v>1.4302453838154847</v>
+        <v>1.4302589441367877</v>
       </c>
       <c r="C113">
-        <v>1.5961364397781816</v>
+        <v>1.5970816728796018</v>
       </c>
       <c r="D113">
-        <v>1.7608823731977268</v>
+        <v>1.7609648896520023</v>
       </c>
       <c r="E113">
-        <v>0.24733779036728692</v>
+        <v>0.24860654709620955</v>
       </c>
       <c r="F113">
-        <v>0.25896223769435039</v>
+        <v>0.25999180122638432</v>
       </c>
       <c r="G113">
-        <v>-0.26494708808832812</v>
+        <v>-0.26562040147921206</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1.7563251184736632</v>
+        <v>1.7596358360358599</v>
       </c>
       <c r="B114">
-        <v>1.4522977739745377</v>
+        <v>1.4523026096674754</v>
       </c>
       <c r="C114">
-        <v>1.606648799742743</v>
+        <v>1.607581331211404</v>
       </c>
       <c r="D114">
-        <v>1.8002486655753567</v>
+        <v>1.8002796082722377</v>
       </c>
       <c r="E114">
-        <v>0.25410485099485081</v>
+        <v>0.2553517971886074</v>
       </c>
       <c r="F114">
-        <v>0.25182364381568467</v>
+        <v>0.25287468193901058</v>
       </c>
       <c r="G114">
-        <v>-0.27711825218098129</v>
+        <v>-0.27778486082311005</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1.7788461677427161</v>
+        <v>1.782131263078742</v>
       </c>
       <c r="B115">
-        <v>1.5064378452861018</v>
+        <v>1.5064218478658922</v>
       </c>
       <c r="C115">
-        <v>1.6290187720356153</v>
+        <v>1.6299139314291069</v>
       </c>
       <c r="D115">
-        <v>1.8991638352077995</v>
+        <v>1.8990558910829138</v>
       </c>
       <c r="E115">
-        <v>0.27051441117900688</v>
+        <v>0.27170378157353337</v>
       </c>
       <c r="F115">
-        <v>0.23515944847096501</v>
+        <v>0.23626549749335518</v>
       </c>
       <c r="G115">
-        <v>-0.30688113736454231</v>
+        <v>-0.30754657911049155</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1.818957651814799</v>
+        <v>1.8221971122647833</v>
       </c>
       <c r="B116">
-        <v>1.605573716004677</v>
+        <v>1.6055219621733419</v>
       </c>
       <c r="C116">
-        <v>1.6617061761313927</v>
+        <v>1.6625188510011935</v>
       </c>
       <c r="D116">
-        <v>2.0825630756112585</v>
+        <v>2.0821793005912572</v>
       </c>
       <c r="E116">
-        <v>0.30082059921537951</v>
+        <v>0.30190424466491517</v>
       </c>
       <c r="F116">
-        <v>0.20668688760208598</v>
+        <v>0.20788563058754339</v>
       </c>
       <c r="G116">
-        <v>-0.36030567248521089</v>
+        <v>-0.36096132422752103</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1.8529903885084624</v>
+        <v>1.8561911298709677</v>
       </c>
       <c r="B117">
-        <v>1.6900749293193178</v>
+        <v>1.689993764739391</v>
       </c>
       <c r="C117">
-        <v>1.687491329752294</v>
+        <v>1.688230478250679</v>
       </c>
       <c r="D117">
-        <v>2.2300494694976294</v>
+        <v>2.2294472161166272</v>
       </c>
       <c r="E117">
-        <v>0.32759107969314194</v>
+        <v>0.32857810038063634</v>
       </c>
       <c r="F117">
-        <v>0.18379297282641638</v>
+        <v>0.18507078905348101</v>
       </c>
       <c r="G117">
-        <v>-0.40604522480369154</v>
+        <v>-0.40670458905278262</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.862386115849906</v>
+        <v>1.8655761676815592</v>
       </c>
       <c r="B118">
-        <v>1.7132017458741702</v>
+        <v>1.7131123531118506</v>
       </c>
       <c r="C118">
-        <v>1.6950789559422845</v>
+        <v>1.6957988245604079</v>
       </c>
       <c r="D118">
-        <v>2.2672585258030931</v>
+        <v>2.2666047932566911</v>
       </c>
       <c r="E118">
-        <v>0.33514938393039673</v>
+        <v>0.33610769192898426</v>
       </c>
       <c r="F118">
-        <v>0.17768251799667595</v>
+        <v>0.17898388749091171</v>
       </c>
       <c r="G118">
-        <v>-0.41873460901031434</v>
+        <v>-0.41940187646629173</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1.8849071651189588</v>
+        <v>1.8880715947244415</v>
       </c>
       <c r="B119">
-        <v>1.7687820811139441</v>
+        <v>1.7686733503064267</v>
       </c>
       <c r="C119">
-        <v>1.7125298579623687</v>
+        <v>1.7132022221859542</v>
       </c>
       <c r="D119">
-        <v>2.3546490486078233</v>
+        <v>2.3538748348922898</v>
       </c>
       <c r="E119">
-        <v>0.35438018097063761</v>
+        <v>0.35525447804286125</v>
       </c>
       <c r="F119">
-        <v>0.16172514616378841</v>
+        <v>0.16311895689989397</v>
       </c>
       <c r="G119">
-        <v>-0.44446976655726006</v>
+        <v>-0.44527282217864161</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1.9250186491910419</v>
+        <v>1.9281374439104826</v>
       </c>
       <c r="B120">
-        <v>1.8674929619985581</v>
+        <v>1.8673502064967367</v>
       </c>
       <c r="C120">
-        <v>1.7435226964242825</v>
+        <v>1.7441108089171664</v>
       </c>
       <c r="D120">
-        <v>2.497129482601669</v>
+        <v>2.4961707555269741</v>
       </c>
       <c r="E120">
-        <v>0.39116022503054476</v>
+        <v>0.39190099767298003</v>
       </c>
       <c r="F120">
-        <v>0.13032256982829893</v>
+        <v>0.13187281823086325</v>
       </c>
       <c r="G120">
-        <v>-0.48003744894298761</v>
+        <v>-0.48107174374156475</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1.9590513858847054</v>
+        <v>1.962131461516667</v>
       </c>
       <c r="B121">
-        <v>1.9509627729527732</v>
+        <v>1.9507915680723837</v>
       </c>
       <c r="C121">
-        <v>1.7697302015250633</v>
+        <v>1.7702471738934262</v>
       </c>
       <c r="D121">
-        <v>2.6048689269711018</v>
+        <v>2.6037836235912373</v>
       </c>
       <c r="E121">
-        <v>0.42446082327489615</v>
+        <v>0.42511723528747858</v>
       </c>
       <c r="F121">
-        <v>0.10011547792631077</v>
+        <v>0.10175443771877664</v>
       </c>
       <c r="G121">
-        <v>-0.50017232850723958</v>
+        <v>-0.50130443921805712</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1.968447113226149</v>
+        <v>1.9715164993272587</v>
       </c>
       <c r="B122">
-        <v>1.9739615892901967</v>
+        <v>1.9737825975603263</v>
       </c>
       <c r="C122">
-        <v>1.7769512668686747</v>
+        <v>1.777448658319406</v>
       </c>
       <c r="D122">
-        <v>2.6324980651066063</v>
+        <v>2.631382617132815</v>
       </c>
       <c r="E122">
-        <v>0.43390318427513169</v>
+        <v>0.43454214220860621</v>
       </c>
       <c r="F122">
-        <v>0.091172308656627066</v>
+        <v>0.092821449121166369</v>
       </c>
       <c r="G122">
-        <v>-0.50430179745822967</v>
+        <v>-0.50542974609790747</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.9909681624952018</v>
+        <v>1.994011926370141</v>
       </c>
       <c r="B123">
-        <v>2.0290085912500406</v>
+        <v>2.0288110551158933</v>
       </c>
       <c r="C123">
-        <v>1.7942346747460276</v>
+        <v>1.7946852304988836</v>
       </c>
       <c r="D123">
-        <v>2.6950118799664486</v>
+        <v>2.6938325985245046</v>
       </c>
       <c r="E123">
-        <v>0.45682606212137283</v>
+        <v>0.45743438916274548</v>
       </c>
       <c r="F123">
-        <v>0.068871403908731019</v>
+        <v>0.07048589176062392</v>
       </c>
       <c r="G123">
-        <v>-0.51239476873144973</v>
+        <v>-0.51339551082340518</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2.0310796465672847</v>
+        <v>2.0340777755561819</v>
       </c>
       <c r="B124">
-        <v>2.1267722640609077</v>
+        <v>2.1265421130552395</v>
       </c>
       <c r="C124">
-        <v>1.8249300537877011</v>
+        <v>1.8252975377531846</v>
       </c>
       <c r="D124">
-        <v>2.7934367084769423</v>
+        <v>2.7921729691029231</v>
       </c>
       <c r="E124">
-        <v>0.49807446388508436</v>
+        <v>0.49861814079689631</v>
       </c>
       <c r="F124">
-        <v>0.030138709752035781</v>
+        <v>0.031751099057911805</v>
       </c>
       <c r="G124">
-        <v>-0.5288280090079468</v>
+        <v>-0.52971592123253153</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>2.0651123832609484</v>
+        <v>2.0680717931623667</v>
       </c>
       <c r="B125">
-        <v>2.2094411155325453</v>
+        <v>2.2091837048827241</v>
       </c>
       <c r="C125">
-        <v>1.8508860260691054</v>
+        <v>1.8511833676902136</v>
       </c>
       <c r="D125">
-        <v>2.8640481400435012</v>
+        <v>2.8627418603038737</v>
       </c>
       <c r="E125">
-        <v>0.53340183993889867</v>
+        <v>0.5338718946319515</v>
       </c>
       <c r="F125">
-        <v>-0.00018109406034844119</v>
+        <v>0.0014155892167394793</v>
       </c>
       <c r="G125">
-        <v>-0.54769791325934036</v>
+        <v>-0.54848687676877539</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>2.0745081106023919</v>
+        <v>2.0774568309729582</v>
       </c>
       <c r="B126">
-        <v>2.2322192380191903</v>
+        <v>2.2319543688420822</v>
       </c>
       <c r="C126">
-        <v>1.8580377880516639</v>
+        <v>1.8583158218702613</v>
       </c>
       <c r="D126">
-        <v>2.8814674055425944</v>
+        <v>2.8801540494749016</v>
       </c>
       <c r="E126">
-        <v>0.543280811199784</v>
+        <v>0.54373265166273865</v>
       </c>
       <c r="F126">
-        <v>-0.008529407620826655</v>
+        <v>-0.0070108803995523527</v>
       </c>
       <c r="G126">
-        <v>-0.55286339412494345</v>
+        <v>-0.55349564741618673</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>2.0970291598714446</v>
+        <v>2.0999522580158403</v>
       </c>
       <c r="B127">
-        <v>2.2867380139734985</v>
+        <v>2.2864553861556547</v>
       </c>
       <c r="C127">
-        <v>1.8751553176656885</v>
+        <v>1.8753871708586876</v>
       </c>
       <c r="D127">
-        <v>2.9195796049849356</v>
+        <v>2.9182574648133039</v>
       </c>
       <c r="E127">
-        <v>0.56706308717453491</v>
+        <v>0.56751313634472467</v>
       </c>
       <c r="F127">
-        <v>-0.029511174201000707</v>
+        <v>-0.027054256430226589</v>
       </c>
       <c r="G127">
-        <v>-0.56381047412638552</v>
+        <v>-0.56584265568551462</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>2.1371406439435274</v>
+        <v>2.1400181072018816</v>
       </c>
       <c r="B128">
-        <v>2.3835635502679886</v>
+        <v>2.3832497028044566</v>
       </c>
       <c r="C128">
-        <v>1.9055560965938845</v>
+        <v>1.9057060401802699</v>
       </c>
       <c r="D128">
-        <v>2.9747902232007264</v>
+        <v>2.9734808388738729</v>
       </c>
       <c r="E128">
-        <v>0.6102099286807513</v>
+        <v>0.61048459833484714</v>
       </c>
       <c r="F128">
-        <v>-0.064501232303426165</v>
+        <v>-0.061932531510923122</v>
       </c>
       <c r="G128">
-        <v>-0.58695287509044791</v>
+        <v>-0.58926749362132036</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>2.1711733806371911</v>
+        <v>2.1740121248080659</v>
       </c>
       <c r="B129">
-        <v>2.4654391108647102</v>
+        <v>2.4650991824762136</v>
       </c>
       <c r="C129">
-        <v>1.9312629532188472</v>
+        <v>1.9313437373933484</v>
       </c>
       <c r="D129">
-        <v>3.0089827303312342</v>
+        <v>3.0077124529315888</v>
       </c>
       <c r="E129">
-        <v>0.64759842806003998</v>
+        <v>0.64763090868552931</v>
       </c>
       <c r="F129">
-        <v>-0.092104548714997792</v>
+        <v>-0.091588587662085108</v>
       </c>
       <c r="G129">
-        <v>-0.60976572307421373</v>
+        <v>-0.60898701508736319</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>2.1805691079786347</v>
+        <v>2.1833971626186575</v>
       </c>
       <c r="B130">
-        <v>2.4879986523041415</v>
+        <v>2.487651590744357</v>
       </c>
       <c r="C130">
-        <v>1.9383460747902537</v>
+        <v>1.9384078220511318</v>
       </c>
       <c r="D130">
-        <v>3.0163871235200412</v>
+        <v>3.0151321774751496</v>
       </c>
       <c r="E130">
-        <v>0.65797685162390951</v>
+        <v>0.65804336466701918</v>
       </c>
       <c r="F130">
-        <v>-0.10029680248585321</v>
+        <v>-0.099215299826439812</v>
       </c>
       <c r="G130">
-        <v>-0.61523253793114674</v>
+        <v>-0.61525660281046468</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>2.1910198374550118</v>
+        <v>2.1982033689979956</v>
       </c>
       <c r="B131">
-        <v>2.5130686673828571</v>
+        <v>2.5231920572487083</v>
       </c>
       <c r="C131">
-        <v>1.9462174175040425</v>
+        <v>1.9495401503258574</v>
       </c>
       <c r="D131">
-        <v>3.023591672259454</v>
+        <v>3.0250573197604007</v>
       </c>
       <c r="E131">
-        <v>0.66957823620333956</v>
+        <v>0.67459810892769967</v>
       </c>
       <c r="F131">
-        <v>-0.10930571537294957</v>
+        <v>-0.11112088842324565</v>
       </c>
       <c r="G131">
-        <v>-0.62150999936069129</v>
+        <v>-0.62525007615927763</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2.2128684708834472</v>
+        <v>2.2275117303139367</v>
       </c>
       <c r="B132">
-        <v>2.565403955683045</v>
+        <v>2.5934022327452406</v>
       </c>
       <c r="C132">
-        <v>1.9626493495831374</v>
+        <v>1.9715320541055568</v>
       </c>
       <c r="D132">
-        <v>3.0351538302369381</v>
+        <v>3.0382974729012555</v>
       </c>
       <c r="E132">
-        <v>0.69412988982292345</v>
+        <v>0.70781201146524686</v>
       </c>
       <c r="F132">
-        <v>-0.12737609119080059</v>
+        <v>-0.13406075996768557</v>
       </c>
       <c r="G132">
-        <v>-0.63565159113739933</v>
+        <v>-0.64583202133597639</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2.2401780601543688</v>
+        <v>2.2600086535857393</v>
       </c>
       <c r="B133">
-        <v>2.6306741701337768</v>
+        <v>2.6710324277287616</v>
       </c>
       <c r="C133">
-        <v>1.9831425057800229</v>
+        <v>1.9958481227128979</v>
       </c>
       <c r="D133">
-        <v>3.0429717949999695</v>
+        <v>3.0430723270845554</v>
       </c>
       <c r="E133">
-        <v>0.72564077229345025</v>
+        <v>0.74579803774241693</v>
       </c>
       <c r="F133">
-        <v>-0.14703655844902813</v>
+        <v>-0.15557471764052422</v>
       </c>
       <c r="G133">
-        <v>-0.65682207408475768</v>
+        <v>-0.67308438820889804</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2.2656286047613241</v>
+        <v>2.2832878567896238</v>
       </c>
       <c r="B134">
-        <v>2.6913555227608073</v>
+        <v>2.7265020623728762</v>
       </c>
       <c r="C134">
-        <v>2.0021948635493714</v>
+        <v>2.013222841624152</v>
       </c>
       <c r="D134">
-        <v>3.0436520190891252</v>
+        <v>3.0401219816320251</v>
       </c>
       <c r="E134">
-        <v>0.75575181982383166</v>
+        <v>0.7734475764831259</v>
       </c>
       <c r="F134">
-        <v>-0.16290647042074943</v>
+        <v>-0.1702635567916263</v>
       </c>
       <c r="G134">
-        <v>-0.67924185192420439</v>
+        <v>-0.69332447085364191</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>2.282407832210593</v>
+        <v>2.2893374942643567</v>
       </c>
       <c r="B135">
-        <v>2.7312852407348043</v>
+        <v>2.7408979160505149</v>
       </c>
       <c r="C135">
-        <v>2.0147317413611376</v>
+        <v>2.0177320446917153</v>
       </c>
       <c r="D135">
-        <v>3.040629395270972</v>
+        <v>3.0384879553106425</v>
       </c>
       <c r="E135">
-        <v>0.77562934677737894</v>
+        <v>0.78053631303591409</v>
       </c>
       <c r="F135">
-        <v>-0.1742382311559752</v>
+        <v>-0.17489559332132376</v>
       </c>
       <c r="G135">
-        <v>-0.69299832613411783</v>
+        <v>-0.69770380666495802</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>2.2866301053548774</v>
+        <v>2.2952979685868744</v>
       </c>
       <c r="B136">
-        <v>2.741323437194072</v>
+        <v>2.7550553985119621</v>
       </c>
       <c r="C136">
-        <v>2.017883466254049</v>
+        <v>2.0221577528655748</v>
       </c>
       <c r="D136">
-        <v>3.0394356381262453</v>
+        <v>3.0365502451694817</v>
       </c>
       <c r="E136">
-        <v>0.7806008697052248</v>
+        <v>0.78755356589125058</v>
       </c>
       <c r="F136">
-        <v>-0.17739388152303176</v>
+        <v>-0.17938971149779001</v>
       </c>
       <c r="G136">
-        <v>-0.69614860448944937</v>
+        <v>-0.70210557892854486</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>2.2925973686403647</v>
+        <v>2.3084322529230135</v>
       </c>
       <c r="B137">
-        <v>2.7554851467180614</v>
+        <v>2.7863486782052758</v>
       </c>
       <c r="C137">
-        <v>2.0223210345621969</v>
+        <v>2.031999166544864</v>
       </c>
       <c r="D137">
-        <v>3.0374734455392574</v>
+        <v>3.0309160615466357</v>
       </c>
       <c r="E137">
-        <v>0.78763241076491197</v>
+        <v>0.80296193827071849</v>
       </c>
       <c r="F137">
-        <v>-0.18191971694264614</v>
+        <v>-0.1899985600259281</v>
       </c>
       <c r="G137">
-        <v>-0.70053005950593383</v>
+        <v>-0.71112229568469176</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2.3057466128882762</v>
+        <v>2.3266946737417968</v>
       </c>
       <c r="B138">
-        <v>2.7867880940568601</v>
+        <v>2.8290952861484988</v>
       </c>
       <c r="C138">
-        <v>2.0321887249031882</v>
+        <v>2.0451127946719092</v>
       </c>
       <c r="D138">
-        <v>3.031782417097157</v>
+        <v>3.0210977388707163</v>
       </c>
       <c r="E138">
-        <v>0.80307556124796642</v>
+        <v>0.82424420744234561</v>
       </c>
       <c r="F138">
-        <v>-0.19257409748513163</v>
+        <v>-0.20645843651492829</v>
       </c>
       <c r="G138">
-        <v>-0.70952830846536852</v>
+        <v>-0.72210082363826034</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>2.3240298345514159</v>
+        <v>2.3473031308989629</v>
       </c>
       <c r="B139">
-        <v>2.8295456546551647</v>
+        <v>2.872488004219492</v>
       </c>
       <c r="C139">
-        <v>2.0453376692419907</v>
+        <v>2.0562023293484524</v>
       </c>
       <c r="D139">
-        <v>3.0218802190808574</v>
+        <v>3.0114440818548238</v>
       </c>
       <c r="E139">
-        <v>0.82440624615640767</v>
+        <v>0.84803871704219647</v>
       </c>
       <c r="F139">
-        <v>-0.20907930390635882</v>
+        <v>-0.22751773903065145</v>
       </c>
       <c r="G139">
-        <v>-0.7204998467862781</v>
+        <v>-0.73241120498091961</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>2.3446617646815242</v>
+        <v>2.3671199639362053</v>
       </c>
       <c r="B140">
-        <v>2.8729347352030206</v>
+        <v>2.9083177201135952</v>
       </c>
       <c r="C140">
-        <v>2.0564593448873238</v>
+        <v>2.0624805235275474</v>
       </c>
       <c r="D140">
-        <v>3.0121314819666467</v>
+        <v>3.0044260554407334</v>
       </c>
       <c r="E140">
-        <v>0.84825377426920268</v>
+        <v>0.87066070048071786</v>
       </c>
       <c r="F140">
-        <v>-0.23017428950044239</v>
+        <v>-0.2503808243032285</v>
       </c>
       <c r="G140">
-        <v>-0.73081985960254525</v>
+        <v>-0.74033273546820366</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>2.3645011690341322</v>
+        <v>2.3831286889853751</v>
       </c>
       <c r="B141">
-        <v>2.9087417841582739</v>
+        <v>2.9333083794221895</v>
       </c>
       <c r="C141">
-        <v>2.0627588592563213</v>
+        <v>2.0647360171608393</v>
       </c>
       <c r="D141">
-        <v>3.0050222003596168</v>
+        <v>2.9997901572769332</v>
       </c>
       <c r="E141">
-        <v>0.87092279579913223</v>
+        <v>0.88872685024741627</v>
       </c>
       <c r="F141">
-        <v>-0.25307004905638064</v>
+        <v>-0.27077123081028848</v>
       </c>
       <c r="G141">
-        <v>-0.73875301110365998</v>
+        <v>-0.74539790328184852</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>2.3805281279747117</v>
+        <v>2.3928963522555473</v>
       </c>
       <c r="B142">
-        <v>2.9337015527085515</v>
+        <v>2.9465240789781726</v>
       </c>
       <c r="C142">
-        <v>2.0650249273104588</v>
+        <v>2.0646785101214316</v>
       </c>
       <c r="D142">
-        <v>3.000311268813848</v>
+        <v>2.9976643423463329</v>
       </c>
       <c r="E142">
-        <v>0.88902646801492535</v>
+        <v>0.89964519089844774</v>
       </c>
       <c r="F142">
-        <v>-0.27347554820312375</v>
+        <v>-0.28408662584742667</v>
       </c>
       <c r="G142">
-        <v>-0.74383960198800902</v>
+        <v>-0.74791991287796777</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>2.3903069165850246</v>
+        <v>2.395277825910056</v>
       </c>
       <c r="B143">
-        <v>2.9468919878026445</v>
+        <v>2.9495886665993973</v>
       </c>
       <c r="C143">
-        <v>2.0649704314187591</v>
+        <v>2.064562743161876</v>
       </c>
       <c r="D143">
-        <v>2.9981393016392155</v>
+        <v>2.9971312522530913</v>
       </c>
       <c r="E143">
-        <v>0.89996732325408058</v>
+        <v>0.90229557635504509</v>
       </c>
       <c r="F143">
-        <v>-0.28679274979764252</v>
+        <v>-0.28742820232612309</v>
       </c>
       <c r="G143">
-        <v>-0.74638044442981255</v>
+        <v>-0.74847737151753002</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>2.3926911027311206</v>
+        <v>2.4000063619361347</v>
       </c>
       <c r="B144">
-        <v>2.9499499386579005</v>
+        <v>2.9553419882462131</v>
       </c>
       <c r="C144">
-        <v>2.064855114650177</v>
+        <v>2.0640986775021268</v>
       </c>
       <c r="D144">
-        <v>2.9975947537897447</v>
+        <v>2.9962244819775665</v>
       </c>
       <c r="E144">
-        <v>0.90262455250395257</v>
+        <v>0.90297183920095547</v>
       </c>
       <c r="F144">
-        <v>-0.29012593866769182</v>
+        <v>-0.29427543534881573</v>
       </c>
       <c r="G144">
-        <v>-0.74694997996754531</v>
+        <v>-0.749775996367266</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>2.3974250245460214</v>
+        <v>2.4105720350595492</v>
       </c>
       <c r="B145">
-        <v>2.9556889832999094</v>
+        <v>2.9669677020898817</v>
       </c>
       <c r="C145">
-        <v>2.0643913297131373</v>
+        <v>2.0622371480693458</v>
       </c>
       <c r="D145">
-        <v>2.9966653297565551</v>
+        <v>2.9944942411622759</v>
       </c>
       <c r="E145">
-        <v>0.90327980572266586</v>
+        <v>0.89333306553726821</v>
       </c>
       <c r="F145">
-        <v>-0.29684412532389021</v>
+        <v>-0.30232753893040737</v>
       </c>
       <c r="G145">
-        <v>-0.74817587628019488</v>
+        <v>-0.74401861560809746</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>2.4080027319404853</v>
+        <v>2.4256641358061346</v>
       </c>
       <c r="B146">
-        <v>2.9672798408891783</v>
+        <v>2.9806337050164378</v>
       </c>
       <c r="C146">
-        <v>2.0625281300512177</v>
+        <v>2.0576098087183992</v>
       </c>
       <c r="D146">
-        <v>2.9948836307712958</v>
+        <v>2.9927778880469442</v>
       </c>
       <c r="E146">
-        <v>0.8932824963511955</v>
+        <v>0.8707506716695852</v>
       </c>
       <c r="F146">
-        <v>-0.3037598967576236</v>
+        <v>-0.30179192955457923</v>
       </c>
       <c r="G146">
-        <v>-0.74128290558057197</v>
+        <v>-0.72330422757466006</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>2.4231120225460572</v>
+        <v>2.4434608993588611</v>
       </c>
       <c r="B147">
-        <v>2.9808919528794839</v>
+        <v>2.9924197797456831</v>
       </c>
       <c r="C147">
-        <v>2.0578876021194845</v>
+        <v>2.0492015037281837</v>
       </c>
       <c r="D147">
-        <v>2.9930957470194599</v>
+        <v>2.9919725830256185</v>
       </c>
       <c r="E147">
-        <v>0.87038593304987311</v>
+        <v>0.84598192530109884</v>
       </c>
       <c r="F147">
-        <v>-0.30211476835902135</v>
+        <v>-0.29897895956389964</v>
       </c>
       <c r="G147">
-        <v>-0.719636853218247</v>
+        <v>-0.70138970040694915</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>2.4409290565608646</v>
+        <v>2.4618155406901012</v>
       </c>
       <c r="B148">
-        <v>2.9926155104201664</v>
+        <v>2.9997842091810782</v>
       </c>
       <c r="C148">
-        <v>2.0494452141555528</v>
+        <v>2.0371744499344269</v>
       </c>
       <c r="D148">
-        <v>2.9922088084992096</v>
+        <v>2.9926818366339214</v>
       </c>
       <c r="E148">
-        <v>0.84574892391757583</v>
+        <v>0.82015980736177541</v>
       </c>
       <c r="F148">
-        <v>-0.2992445436203911</v>
+        <v>-0.29207901767122391</v>
       </c>
       <c r="G148">
-        <v>-0.69824532296018826</v>
+        <v>-0.67964073527734015</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>2.4593046037753563</v>
+        <v>2.4785142461740968</v>
       </c>
       <c r="B149">
-        <v>2.9999139862182496</v>
+        <v>3.002411596643157</v>
       </c>
       <c r="C149">
-        <v>2.0373608144086504</v>
+        <v>2.0233021224604264</v>
       </c>
       <c r="D149">
-        <v>2.9928404222911373</v>
+        <v>2.9947745897857261</v>
       </c>
       <c r="E149">
-        <v>0.8199120610050209</v>
+        <v>0.79819103955141457</v>
       </c>
       <c r="F149">
-        <v>-0.29190751889020272</v>
+        <v>-0.28430209496233222</v>
       </c>
       <c r="G149">
-        <v>-0.67653955573988489</v>
+        <v>-0.66316413192047774</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>2.4760223290364767</v>
+        <v>2.4915433042477697</v>
       </c>
       <c r="B150">
-        <v>3.0024836285677909</v>
+        <v>3.001820942215244</v>
       </c>
       <c r="C150">
-        <v>2.0234193329308914</v>
+        <v>2.0105270040701684</v>
       </c>
       <c r="D150">
-        <v>2.9948652533589462</v>
+        <v>2.9974656289159531</v>
       </c>
       <c r="E150">
-        <v>0.79803658576869541</v>
+        <v>0.78100101683797485</v>
       </c>
       <c r="F150">
-        <v>-0.28399101922836395</v>
+        <v>-0.27600297432790721</v>
       </c>
       <c r="G150">
-        <v>-0.66043032773445831</v>
+        <v>-0.6509331602763393</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>2.4890662271695145</v>
+        <v>2.4993345474484117</v>
       </c>
       <c r="B151">
-        <v>3.0018466662337357</v>
+        <v>3.0004225029677207</v>
       </c>
       <c r="C151">
-        <v>2.0105768408380515</v>
+        <v>2.0021015362849464</v>
       </c>
       <c r="D151">
-        <v>2.9975090073628672</v>
+        <v>2.9994969633978155</v>
       </c>
       <c r="E151">
-        <v>0.78084822553312672</v>
+        <v>0.77131068390393198</v>
       </c>
       <c r="F151">
-        <v>-0.27541892495776393</v>
+        <v>-0.2708950794278519</v>
       </c>
       <c r="G151">
-        <v>-0.64826022664331939</v>
+        <v>-0.64482968881528702</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>2.496866344573569</v>
+        <v>2.5012181575557557</v>
       </c>
       <c r="B152">
-        <v>3.000424199495122</v>
+        <v>3</v>
       </c>
       <c r="C152">
-        <v>2.0021090577384006</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>2.9995092708903446</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>0.77120403134071691</v>
+        <v>0.76886378894739926</v>
       </c>
       <c r="F152">
-        <v>-0.2702659834719317</v>
+        <v>-0.26942725166550163</v>
       </c>
       <c r="G152">
-        <v>-0.64233378932635388</v>
+        <v>-0.64322634499295828</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>2.4987521001073634</v>
+        <v>2.5012181575557557</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3613,938 +3617,938 @@
         <v>3</v>
       </c>
       <c r="E153">
-        <v>0.76875196490275721</v>
+        <v>0.76886378894739926</v>
       </c>
       <c r="F153">
-        <v>-0.26875082178578957</v>
+        <v>-0.26942725166550163</v>
       </c>
       <c r="G153">
-        <v>-0.6407220441120951</v>
+        <v>-0.64322634499295828</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>2.4987521001073634</v>
+        <v>2.5178070896776465</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>2.9962270683273271</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1.9814672126566097</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>3.0029855739521105</v>
       </c>
       <c r="E154">
-        <v>0.76875196490275721</v>
+        <v>0.74845629838703587</v>
       </c>
       <c r="F154">
-        <v>-0.26875082178578957</v>
+        <v>-0.25618144152015859</v>
       </c>
       <c r="G154">
-        <v>-0.6407220441120951</v>
+        <v>-0.63155277555354306</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>2.5153169411804113</v>
+        <v>2.5473530792374874</v>
       </c>
       <c r="B155">
-        <v>2.9962391513969826</v>
+        <v>2.9895211468202363</v>
       </c>
       <c r="C155">
-        <v>1.9814626652709153</v>
+        <v>1.9485281070258278</v>
       </c>
       <c r="D155">
-        <v>3.0028489365050315</v>
+        <v>3.0016103123321436</v>
       </c>
       <c r="E155">
-        <v>0.74843446471339226</v>
+        <v>0.71354638423526184</v>
       </c>
       <c r="F155">
-        <v>-0.25534396413786797</v>
+        <v>-0.22896738294851782</v>
       </c>
       <c r="G155">
-        <v>-0.62926551412963982</v>
+        <v>-0.61509278050418614</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>2.5448200229826958</v>
+        <v>2.5724214831199461</v>
       </c>
       <c r="B156">
-        <v>2.9895545256636979</v>
+        <v>2.9838457412787616</v>
       </c>
       <c r="C156">
-        <v>1.9485152512575454</v>
+        <v>1.9206502120620845</v>
       </c>
       <c r="D156">
-        <v>3.001250899169861</v>
+        <v>2.9937498409868919</v>
       </c>
       <c r="E156">
-        <v>0.71361671508312086</v>
+        <v>0.68443489699290672</v>
       </c>
       <c r="F156">
-        <v>-0.22807638472191702</v>
+        <v>-0.20558678602052957</v>
       </c>
       <c r="G156">
-        <v>-0.61293564599615591</v>
+        <v>-0.60178177930741483</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>2.5698520216199037</v>
+        <v>2.5793423455203133</v>
       </c>
       <c r="B157">
-        <v>2.9838972764788738</v>
+        <v>2.9822810805350737</v>
       </c>
       <c r="C157">
-        <v>1.9206303431149769</v>
+        <v>1.9129648327852624</v>
       </c>
       <c r="D157">
-        <v>2.9932215754536888</v>
+        <v>2.9905014720388889</v>
       </c>
       <c r="E157">
-        <v>0.68450717873221223</v>
+        <v>0.67633537414131861</v>
       </c>
       <c r="F157">
-        <v>-0.20492352531933922</v>
+        <v>-0.199615977206966</v>
       </c>
       <c r="G157">
-        <v>-0.59941091968374238</v>
+        <v>-0.59755464125557745</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>2.5767628332929</v>
+        <v>2.5959312776422041</v>
       </c>
       <c r="B158">
-        <v>2.9823375393917342</v>
+        <v>2.9785347878138562</v>
       </c>
       <c r="C158">
-        <v>1.9129429526090584</v>
+        <v>1.8945631524192423</v>
       </c>
       <c r="D158">
-        <v>2.9899299584508428</v>
+        <v>2.9808211593145892</v>
       </c>
       <c r="E158">
-        <v>0.6764052969147788</v>
+        <v>0.65699504571918776</v>
       </c>
       <c r="F158">
-        <v>-0.19902896666978373</v>
+        <v>-0.18545866615958934</v>
       </c>
       <c r="G158">
-        <v>-0.59510416152290413</v>
+        <v>-0.58726179002122048</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>2.5933276743659479</v>
+        <v>2.6254772672020446</v>
       </c>
       <c r="B159">
-        <v>2.9786031406627349</v>
+        <v>2.9718763601177787</v>
       </c>
       <c r="C159">
-        <v>1.8945365139573274</v>
+        <v>1.8618571816013354</v>
       </c>
       <c r="D159">
-        <v>2.9801515887262111</v>
+        <v>2.9569813320232354</v>
       </c>
       <c r="E159">
-        <v>0.65710072072415204</v>
+        <v>0.62278345201188534</v>
       </c>
       <c r="F159">
-        <v>-0.18488532269820374</v>
+        <v>-0.16081012550613755</v>
       </c>
       <c r="G159">
-        <v>-0.58483707692057918</v>
+        <v>-0.56827000822332385</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>2.6228307561682325</v>
+        <v>2.6505456710845037</v>
       </c>
       <c r="B160">
-        <v>2.9719658239517788</v>
+        <v>2.9662409985128537</v>
       </c>
       <c r="C160">
-        <v>1.8618219785954484</v>
+        <v>1.8341764824187323</v>
       </c>
       <c r="D160">
-        <v>2.956157093433232</v>
+        <v>2.9301553058009699</v>
       </c>
       <c r="E160">
-        <v>0.62297594274825385</v>
+        <v>0.59421997708266072</v>
       </c>
       <c r="F160">
-        <v>-0.16016483774729412</v>
+        <v>-0.13944932921202885</v>
       </c>
       <c r="G160">
-        <v>-0.56602084797590868</v>
+        <v>-0.55283737967141433</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>2.6478627548054403</v>
+        <v>2.6574665334848704</v>
       </c>
       <c r="B161">
-        <v>2.9663483077297488</v>
+        <v>2.9646874517573552</v>
       </c>
       <c r="C161">
-        <v>1.8341339290224199</v>
+        <v>1.8265455233426964</v>
       </c>
       <c r="D161">
-        <v>2.9292197666918636</v>
+        <v>2.9216860622640111</v>
       </c>
       <c r="E161">
-        <v>0.59446392258288561</v>
+        <v>0.58643425781518332</v>
       </c>
       <c r="F161">
-        <v>-0.13883596651944174</v>
+        <v>-0.13335313807148463</v>
       </c>
       <c r="G161">
-        <v>-0.55061138339607907</v>
+        <v>-0.54887912766216285</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>2.6547735664784371</v>
+        <v>2.6740554656067617</v>
       </c>
       <c r="B162">
-        <v>2.964799675048337</v>
+        <v>2.9609676603163324</v>
       </c>
       <c r="C162">
-        <v>1.8265009253325875</v>
+        <v>1.8082740609302166</v>
       </c>
       <c r="D162">
-        <v>2.9207230034901093</v>
+        <v>2.8995184426960683</v>
       </c>
       <c r="E162">
-        <v>0.58668717089325362</v>
+        <v>0.56786006231441322</v>
       </c>
       <c r="F162">
-        <v>-0.1327721919515997</v>
+        <v>-0.11879787270591514</v>
       </c>
       <c r="G162">
-        <v>-0.5466230375770359</v>
+        <v>-0.53932081788004194</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>2.671338407551485</v>
+        <v>2.7036014551666021</v>
       </c>
       <c r="B163">
-        <v>2.961091643013313</v>
+        <v>2.9543563380632221</v>
       </c>
       <c r="C163">
-        <v>1.8082245374223542</v>
+        <v>1.7757995337827335</v>
       </c>
       <c r="D163">
-        <v>2.8984950440255544</v>
+        <v>2.8535309549039236</v>
       </c>
       <c r="E163">
-        <v>0.56814167412464034</v>
+        <v>0.53519885898001052</v>
       </c>
       <c r="F163">
-        <v>-0.11825753717877757</v>
+        <v>-0.092442416676985037</v>
       </c>
       <c r="G163">
-        <v>-0.5370493012704507</v>
+        <v>-0.52302367308499886</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.7008414893537696</v>
+        <v>2.7286698590490608</v>
       </c>
       <c r="B164">
-        <v>2.9545011967063175</v>
+        <v>2.948760844503413</v>
       </c>
       <c r="C164">
-        <v>1.7757411521027493</v>
+        <v>1.748314717058133</v>
       </c>
       <c r="D164">
-        <v>2.852419645322871</v>
+        <v>2.8080067371121213</v>
       </c>
       <c r="E164">
-        <v>0.53553394967888102</v>
+        <v>0.50788295689047713</v>
       </c>
       <c r="F164">
-        <v>-0.091953586678532026</v>
+        <v>-0.069683506294626149</v>
       </c>
       <c r="G164">
-        <v>-0.52075553224349047</v>
+        <v>-0.50989852737397112</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>2.7258734879909774</v>
+        <v>2.7355907214494279</v>
       </c>
       <c r="B165">
-        <v>2.9489233501268504</v>
+        <v>2.9472182894628354</v>
       </c>
       <c r="C165">
-        <v>1.7482487373025326</v>
+        <v>1.7407377591119015</v>
       </c>
       <c r="D165">
-        <v>2.8068403524115397</v>
+        <v>2.7943903072705267</v>
       </c>
       <c r="E165">
-        <v>0.50826425847904522</v>
+        <v>0.50040203362208091</v>
       </c>
       <c r="F165">
-        <v>-0.069226350799634989</v>
+        <v>-0.063339432726333508</v>
       </c>
       <c r="G165">
-        <v>-0.50765229327390082</v>
+        <v>-0.50638658922102509</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>2.7327842996639742</v>
+        <v>2.7521796535713188</v>
       </c>
       <c r="B166">
-        <v>2.9473856555291302</v>
+        <v>2.9435248165007977</v>
       </c>
       <c r="C166">
-        <v>1.7406696672913213</v>
+        <v>1.7225955961052752</v>
       </c>
       <c r="D166">
-        <v>2.7932118578153871</v>
+        <v>2.7599114979865855</v>
       </c>
       <c r="E166">
-        <v>0.50079569487966002</v>
+        <v>0.48257270746438202</v>
       </c>
       <c r="F166">
-        <v>-0.062892199110668109</v>
+        <v>-0.048024910142382859</v>
       </c>
       <c r="G166">
-        <v>-0.50414440692421525</v>
+        <v>-0.49817393169737445</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>2.7493491407370216</v>
+        <v>2.7817256431311597</v>
       </c>
       <c r="B167">
-        <v>2.9437038136765548</v>
+        <v>2.9369602725125175</v>
       </c>
       <c r="C167">
-        <v>1.7225224173293761</v>
+        <v>1.6903508781601793</v>
       </c>
       <c r="D167">
-        <v>2.758709636608879</v>
+        <v>2.6920887166078886</v>
       </c>
       <c r="E167">
-        <v>0.48299576474409145</v>
+        <v>0.45115316904668551</v>
       </c>
       <c r="F167">
-        <v>-0.047601573159996115</v>
+        <v>-0.020395829211926664</v>
       </c>
       <c r="G167">
-        <v>-0.49594094924874582</v>
+        <v>-0.48424164720991514</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>2.7788522225393062</v>
+        <v>2.8067940470136183</v>
       </c>
       <c r="B168">
-        <v>2.9371599193425921</v>
+        <v>2.9314043701128369</v>
       </c>
       <c r="C168">
-        <v>1.6902685557510009</v>
+        <v>1.6630605604675857</v>
       </c>
       <c r="D168">
-        <v>2.6908643071250671</v>
+        <v>2.6281300237368019</v>
       </c>
       <c r="E168">
-        <v>0.45162704998052033</v>
+        <v>0.424805435574858</v>
       </c>
       <c r="F168">
-        <v>-0.020018990547773449</v>
+        <v>0.0033780687128041522</v>
       </c>
       <c r="G168">
-        <v>-0.48201643617605189</v>
+        <v>-0.47310974754500473</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>2.803884221176514</v>
+        <v>2.8137149094139855</v>
       </c>
       <c r="B169">
-        <v>2.9316214729461927</v>
+        <v>2.9298727298847727</v>
       </c>
       <c r="C169">
-        <v>1.6629703990993081</v>
+        <v>1.6555372217749464</v>
       </c>
       <c r="D169">
-        <v>2.6269055896447724</v>
+        <v>2.6094390035824668</v>
       </c>
       <c r="E169">
-        <v>0.42532149141761527</v>
+        <v>0.41757771523192577</v>
       </c>
       <c r="F169">
-        <v>0.0037140056804907001</v>
+        <v>0.0099920806338111585</v>
       </c>
       <c r="G169">
-        <v>-0.47088730525100436</v>
+        <v>-0.47014643707815601</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>2.8107950328495108</v>
+        <v>2.8303038415358763</v>
       </c>
       <c r="B170">
-        <v>2.9300946409673836</v>
+        <v>2.9262053914879891</v>
       </c>
       <c r="C170">
-        <v>1.655444882227328</v>
+        <v>1.6375234438288728</v>
       </c>
       <c r="D170">
-        <v>2.6082176374599562</v>
+        <v>2.562822642000012</v>
       </c>
       <c r="E170">
-        <v>0.41810528610232284</v>
+        <v>0.4003295571840686</v>
       </c>
       <c r="F170">
-        <v>0.01031695338890037</v>
+        <v>0.025931372313458472</v>
       </c>
       <c r="G170">
-        <v>-0.46792506747423385</v>
+        <v>-0.46323791898139971</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>2.8273598739225587</v>
+        <v>2.8598498310957168</v>
       </c>
       <c r="B171">
-        <v>2.9264388090604294</v>
+        <v>2.91968729833888</v>
       </c>
       <c r="C171">
-        <v>1.6374258590766944</v>
+        <v>1.6055069092496945</v>
       </c>
       <c r="D171">
-        <v>2.5616140220929418</v>
+        <v>2.4734725343328585</v>
       </c>
       <c r="E171">
-        <v>0.40088457402153876</v>
+        <v>0.36985488320940269</v>
       </c>
       <c r="F171">
-        <v>0.026229104671288975</v>
+        <v>0.054605359425716794</v>
       </c>
       <c r="G171">
-        <v>-0.46101755062544258</v>
+        <v>-0.45160749509593062</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2.8568629557248433</v>
+        <v>2.8849182349781759</v>
       </c>
       <c r="B172">
-        <v>2.9199411452227038</v>
+        <v>2.914170709980398</v>
       </c>
       <c r="C172">
-        <v>1.6053999002921979</v>
+        <v>1.5784097142758535</v>
       </c>
       <c r="D172">
-        <v>2.4723053673752182</v>
+        <v>2.3913393690500993</v>
       </c>
       <c r="E172">
-        <v>0.37045805850747476</v>
+        <v>0.34421670712657337</v>
       </c>
       <c r="F172">
-        <v>0.054854514063661854</v>
+        <v>0.079200482515694615</v>
       </c>
       <c r="G172">
-        <v>-0.44938682626038778</v>
+        <v>-0.4424115669354356</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>2.8818949543620511</v>
+        <v>2.8918390973785426</v>
       </c>
       <c r="B173">
-        <v>2.9144418269236243</v>
+        <v>2.9126499080474568</v>
       </c>
       <c r="C173">
-        <v>1.5782946292867559</v>
+        <v>1.5709396151863089</v>
       </c>
       <c r="D173">
-        <v>2.3902260811736533</v>
+        <v>2.3676453319493636</v>
       </c>
       <c r="E173">
-        <v>0.3448602138227877</v>
+        <v>0.33716979362178146</v>
       </c>
       <c r="F173">
-        <v>0.07940864860891686</v>
+        <v>0.086031011715862443</v>
       </c>
       <c r="G173">
-        <v>-0.4401901789827633</v>
+        <v>-0.43998050413015882</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>2.8888057660350475</v>
+        <v>2.9084280295004339</v>
       </c>
       <c r="B174">
-        <v>2.9129257823044554</v>
+        <v>2.9090085211184791</v>
       </c>
       <c r="C174">
-        <v>1.570822286697674</v>
+        <v>1.5530533128994335</v>
       </c>
       <c r="D174">
-        <v>2.3665499300002448</v>
+        <v>2.3090626105937027</v>
       </c>
       <c r="E174">
-        <v>0.33782432445665395</v>
+        <v>0.32032800118334692</v>
       </c>
       <c r="F174">
-        <v>0.086228048284966177</v>
+        <v>0.10247138956171988</v>
       </c>
       <c r="G174">
-        <v>-0.43775922679596818</v>
+        <v>-0.43434419675690195</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>2.9053706071080954</v>
+        <v>2.9379740190602743</v>
       </c>
       <c r="B175">
-        <v>2.9092957803846597</v>
+        <v>2.9025365534073546</v>
       </c>
       <c r="C175">
-        <v>1.5529305824320676</v>
+        <v>1.5212633444817683</v>
       </c>
       <c r="D175">
-        <v>2.3080153620919965</v>
+        <v>2.1984888087674794</v>
       </c>
       <c r="E175">
-        <v>0.32100886430386494</v>
+        <v>0.29048119567213793</v>
       </c>
       <c r="F175">
-        <v>0.10264174176477669</v>
+        <v>0.13197784064472226</v>
       </c>
       <c r="G175">
-        <v>-0.43212302369483252</v>
+        <v>-0.42497327854064498</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>2.9348736889103799</v>
+        <v>2.963042422942733</v>
       </c>
       <c r="B176">
-        <v>2.9028440272538907</v>
+        <v>2.8970590040190016</v>
       </c>
       <c r="C176">
-        <v>1.5211309108447419</v>
+        <v>1.4943579025690239</v>
       </c>
       <c r="D176">
-        <v>2.1975456873859747</v>
+        <v>2.0984375161284987</v>
       </c>
       <c r="E176">
-        <v>0.29120968200363834</v>
+        <v>0.26527596977761386</v>
       </c>
       <c r="F176">
-        <v>0.13209784319266735</v>
+        <v>0.15722319958982856</v>
       </c>
       <c r="G176">
-        <v>-0.42274149633698677</v>
+        <v>-0.41770201530008783</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>2.9599056875475878</v>
+        <v>2.9699632853431002</v>
       </c>
       <c r="B177">
-        <v>2.8973835671070294</v>
+        <v>2.8955489646613173</v>
       </c>
       <c r="C177">
-        <v>1.4942171560843103</v>
+        <v>1.4869406650266488</v>
       </c>
       <c r="D177">
-        <v>2.0976010628958393</v>
+        <v>2.0698110295878345</v>
       </c>
       <c r="E177">
-        <v>0.26604819237406002</v>
+        <v>0.25833172838073803</v>
       </c>
       <c r="F177">
-        <v>0.1572941304972727</v>
+        <v>0.16422512445415596</v>
       </c>
       <c r="G177">
-        <v>-0.41543688867647754</v>
+        <v>-0.41580696087766722</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>2.9668164992205845</v>
+        <v>2.986552217464991</v>
       </c>
       <c r="B178">
-        <v>2.8958782356699744</v>
+        <v>2.8919563580613667</v>
       </c>
       <c r="C178">
-        <v>1.4867976092415065</v>
+        <v>1.4691381144611777</v>
       </c>
       <c r="D178">
-        <v>2.0690069755235379</v>
+        <v>1.9995872058902588</v>
       </c>
       <c r="E178">
-        <v>0.25911693751877346</v>
+        <v>0.24171469380916669</v>
       </c>
       <c r="F178">
-        <v>0.16428131792108888</v>
+        <v>0.1810463851966998</v>
       </c>
       <c r="G178">
-        <v>-0.41352734690931631</v>
+        <v>-0.41140645738897069</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>2.9833813402936324</v>
+        <v>3.0160982070248319</v>
       </c>
       <c r="B179">
-        <v>2.8922968579648165</v>
+        <v>2.8854567002681515</v>
       </c>
       <c r="C179">
-        <v>1.4689895473662231</v>
+        <v>1.4377098603837533</v>
       </c>
       <c r="D179">
-        <v>1.998865508354315</v>
+        <v>1.8675889415190385</v>
       </c>
       <c r="E179">
-        <v>0.24252846139791145</v>
+        <v>0.21215715988144998</v>
       </c>
       <c r="F179">
-        <v>0.18107243771745937</v>
+        <v>0.21119209807555697</v>
       </c>
       <c r="G179">
-        <v>-0.40911015918589766</v>
+        <v>-0.40430296384719122</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>3.012884422095917</v>
+        <v>3.0411666109072906</v>
       </c>
       <c r="B180">
-        <v>2.8858173374650042</v>
+        <v>2.8801993212169594</v>
       </c>
       <c r="C180">
-        <v>1.43755113274152</v>
+        <v>1.4106572390144725</v>
       </c>
       <c r="D180">
-        <v>1.8670343506910199</v>
+        <v>1.7511075094161903</v>
       </c>
       <c r="E180">
-        <v>0.21299821037452812</v>
+        <v>0.18676521412677632</v>
       </c>
       <c r="F180">
-        <v>0.2111904131853044</v>
+        <v>0.23719418444364002</v>
       </c>
       <c r="G180">
-        <v>-0.40209246990459607</v>
+        <v>-0.40039176131133558</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>3.0379164207331248</v>
+        <v>3.0480874733076577</v>
       </c>
       <c r="B181">
-        <v>2.8805765841883049</v>
+        <v>2.8789489110911974</v>
       </c>
       <c r="C181">
-        <v>1.4104903102213566</v>
+        <v>1.4028292425627993</v>
       </c>
       <c r="D181">
-        <v>1.7507076451519288</v>
+        <v>1.7193125461470304</v>
       </c>
       <c r="E181">
-        <v>0.18764591827910621</v>
+        <v>0.17961826672453579</v>
       </c>
       <c r="F181">
-        <v>0.23715645285461406</v>
+        <v>0.24449170823653493</v>
       </c>
       <c r="G181">
-        <v>-0.39818141281624853</v>
+        <v>-0.39997605916964241</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>3.0448272324061216</v>
+        <v>3.0646764054295486</v>
       </c>
       <c r="B182">
-        <v>2.879330421702611</v>
+        <v>2.8767604091646746</v>
       </c>
       <c r="C182">
-        <v>1.4026604596105194</v>
+        <v>1.382707839904157</v>
       </c>
       <c r="D182">
-        <v>1.7189541557548866</v>
+        <v>1.6464669324264778</v>
       </c>
       <c r="E182">
-        <v>0.18052718305651064</v>
+        <v>0.16246232826416376</v>
       </c>
       <c r="F182">
-        <v>0.24442988728651044</v>
+        <v>0.26197522877043689</v>
       </c>
       <c r="G182">
-        <v>-0.39768967935682392</v>
+        <v>-0.39911053361820936</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>3.0613920734791691</v>
+        <v>3.094222394989389</v>
       </c>
       <c r="B183">
-        <v>2.8771505413477922</v>
+        <v>2.8756333932125857</v>
       </c>
       <c r="C183">
-        <v>1.382536238641084</v>
+        <v>1.3431393858125162</v>
       </c>
       <c r="D183">
-        <v>1.6461973927023492</v>
+        <v>1.5253176660137564</v>
       </c>
       <c r="E183">
-        <v>0.16343294708475564</v>
+        <v>0.13177999632557075</v>
       </c>
       <c r="F183">
-        <v>0.26186547426254497</v>
+        <v>0.29312073925155335</v>
       </c>
       <c r="G183">
-        <v>-0.39667900780819698</v>
+        <v>-0.39816869761719459</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>3.0908951552814536</v>
+        <v>3.1192907988718481</v>
       </c>
       <c r="B184">
-        <v>2.8760321361783303</v>
+        <v>2.8779587096034995</v>
       </c>
       <c r="C184">
-        <v>1.342967605004991</v>
+        <v>1.306030332009418</v>
       </c>
       <c r="D184">
-        <v>1.525179732355497</v>
+        <v>1.4310694364815173</v>
       </c>
       <c r="E184">
-        <v>0.13283507568946931</v>
+        <v>0.10570123808917947</v>
       </c>
       <c r="F184">
-        <v>0.29294723188136118</v>
+        <v>0.31949138156002549</v>
       </c>
       <c r="G184">
-        <v>-0.39558945908268051</v>
+        <v>-0.39758975107624006</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>3.1159271539186615</v>
+        <v>3.1262116612722153</v>
       </c>
       <c r="B185">
-        <v>2.8783553938230844</v>
+        <v>2.8792004968361691</v>
       </c>
       <c r="C185">
-        <v>1.3058635162434489</v>
+        <v>1.295243031860027</v>
       </c>
       <c r="D185">
-        <v>1.4310172712792155</v>
+        <v>1.4064159498596871</v>
       </c>
       <c r="E185">
-        <v>0.10680632167005955</v>
+        <v>0.098492164518969361</v>
       </c>
       <c r="F185">
-        <v>0.31927837597227637</v>
+        <v>0.32676603042586155</v>
       </c>
       <c r="G185">
-        <v>-0.39497260224567593</v>
+        <v>-0.39747096725669367</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>3.1228379655916583</v>
+        <v>3.1428005933941057</v>
       </c>
       <c r="B186">
-        <v>2.8795947355683822</v>
+        <v>2.8833289009930101</v>
       </c>
       <c r="C186">
-        <v>1.2950784578352876</v>
+        <v>1.268472928114075</v>
       </c>
       <c r="D186">
-        <v>1.4063833954481133</v>
+        <v>1.3497067541479586</v>
       </c>
       <c r="E186">
-        <v>0.099613852977259776</v>
+        <v>0.081129681110802571</v>
       </c>
       <c r="F186">
-        <v>0.32654092393351558</v>
+        <v>0.3442050904951659</v>
       </c>
       <c r="G186">
-        <v>-0.39483388707266098</v>
+        <v>-0.39744066652914678</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>3.1394028066647062</v>
+        <v>3.1723465829539466</v>
       </c>
       <c r="B187">
-        <v>2.8837134802444919</v>
+        <v>2.8950684860504472</v>
       </c>
       <c r="C187">
-        <v>1.2683153028776346</v>
+        <v>1.2177615225215033</v>
       </c>
       <c r="D187">
-        <v>1.3497142547342467</v>
+        <v>1.2569357510889927</v>
       </c>
       <c r="E187">
-        <v>0.082292753132556198</v>
+        <v>0.050042197744907473</v>
       </c>
       <c r="F187">
-        <v>0.34395214133878943</v>
+        <v>0.37523887714139476</v>
       </c>
       <c r="G187">
-        <v>-0.39475482399587769</v>
+        <v>-0.39785758034068969</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>3.1689058884669907</v>
+        <v>3.1974149868364052</v>
       </c>
       <c r="B188">
-        <v>2.8954207050395167</v>
+        <v>2.9099155407294517</v>
       </c>
       <c r="C188">
-        <v>1.2176220095992454</v>
+        <v>1.1719085406727545</v>
       </c>
       <c r="D188">
-        <v>1.2569910913683122</v>
+        <v>1.1863425762992814</v>
       </c>
       <c r="E188">
-        <v>0.051284751985044723</v>
+        <v>0.023510815115684813</v>
       </c>
       <c r="F188">
-        <v>0.37493766352930347</v>
+        <v>0.40153193622019562</v>
       </c>
       <c r="G188">
-        <v>-0.39507390216145188</v>
+        <v>-0.39859157416123997</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>3.1939378871041981</v>
+        <v>3.2043358492367724</v>
       </c>
       <c r="B189">
-        <v>2.9102225857031492</v>
+        <v>2.9148711201329669</v>
       </c>
       <c r="C189">
-        <v>1.171790444132859</v>
+        <v>1.1588232257277686</v>
       </c>
       <c r="D189">
-        <v>1.1864160939147099</v>
+        <v>1.1681432433960264</v>
       </c>
       <c r="E189">
-        <v>0.02482378063344497</v>
+        <v>0.016147346802493332</v>
       </c>
       <c r="F189">
-        <v>0.4011916575314467</v>
+        <v>0.40878675792711905</v>
       </c>
       <c r="G189">
-        <v>-0.3957234543464852</v>
+        <v>-0.3988870670358271</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>3.2008486987771949</v>
+        <v>3.2209247813586632</v>
       </c>
       <c r="B190">
-        <v>2.9151624831093792</v>
+        <v>2.928349505781668</v>
       </c>
       <c r="C190">
-        <v>1.1587120619645679</v>
+        <v>1.1267507618194783</v>
       </c>
       <c r="D190">
-        <v>1.1682183303398783</v>
+        <v>1.1267582572052321</v>
       </c>
       <c r="E190">
-        <v>0.017480120265832899</v>
+        <v>-0.0016032794655709759</v>
       </c>
       <c r="F190">
-        <v>0.40843601554576331</v>
+        <v>0.42616436500971855</v>
       </c>
       <c r="G190">
-        <v>-0.39599564509729851</v>
+        <v>-0.39981894333940149</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>3.2174135398502428</v>
+        <v>3.2504707709185041</v>
       </c>
       <c r="B191">
-        <v>2.9285971526693131</v>
+        <v>2.9582914933916964</v>
       </c>
       <c r="C191">
-        <v>1.1266580699597359</v>
+        <v>1.0673204155015716</v>
       </c>
       <c r="D191">
-        <v>1.1268312963054969</v>
+        <v>1.0607278380199838</v>
       </c>
       <c r="E191">
-        <v>-0.0002192990097727121</v>
+        <v>-0.03336186668598734</v>
       </c>
       <c r="F191">
-        <v>0.42578914127613215</v>
+        <v>0.45708251992693427</v>
       </c>
       <c r="G191">
-        <v>-0.39686455954263949</v>
+        <v>-0.40173762299737276</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>3.2469166216525274</v>
+        <v>3.2755391748009628</v>
       </c>
       <c r="B192">
-        <v>2.9584380886727906</v>
+        <v>2.9901139259736431</v>
       </c>
       <c r="C192">
-        <v>1.0672673367068686</v>
+        <v>1.0148049008762163</v>
       </c>
       <c r="D192">
-        <v>1.0607779914483795</v>
+        <v>1.0122111495930091</v>
       </c>
       <c r="E192">
-        <v>-0.031888318769999896</v>
+        <v>-0.06034745301133719</v>
       </c>
       <c r="F192">
-        <v>0.45666538146607377</v>
+        <v>0.48329353019485499</v>
       </c>
       <c r="G192">
-        <v>-0.39868011562158345</v>
+        <v>-0.40335239791881927</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>3.2719486202897352</v>
+        <v>3.2824600372013299</v>
       </c>
       <c r="B193">
-        <v>2.9901491436551448</v>
+        <v>3</v>
       </c>
       <c r="C193">
-        <v>1.0147924883506216</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>1.0122240826907714</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>-0.058810506616662997</v>
+        <v>-0.067830119934628716</v>
       </c>
       <c r="F193">
-        <v>0.48284063258415377</v>
+        <v>0.49052840121319186</v>
       </c>
       <c r="G193">
-        <v>-0.40024076050337432</v>
+        <v>-0.40385740757801003</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>3.278859431962732</v>
+        <v>3.2824600372013299</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -4556,938 +4560,938 @@
         <v>1</v>
       </c>
       <c r="E194">
-        <v>-0.066278009731180546</v>
+        <v>-0.067830119934628716</v>
       </c>
       <c r="F194">
-        <v>0.49006537387248528</v>
+        <v>0.49052840121319186</v>
       </c>
       <c r="G194">
-        <v>-0.40073628629301816</v>
+        <v>-0.40385740757801003</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>3.278859431962732</v>
+        <v>3.2918717084320139</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>3.0142370034063286</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0.97966899548993835</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0.98420056518926902</v>
       </c>
       <c r="E195">
-        <v>-0.066278009731180546</v>
+        <v>-0.078053619817460368</v>
       </c>
       <c r="F195">
-        <v>0.49006537387248528</v>
+        <v>0.50036042022657223</v>
       </c>
       <c r="G195">
-        <v>-0.40073628629301816</v>
+        <v>-0.4046311794270423</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>3.2882789704979922</v>
+        <v>3.3086345197980025</v>
       </c>
       <c r="B196">
-        <v>3.0142194274883729</v>
+        <v>3.0419223256412469</v>
       </c>
       <c r="C196">
-        <v>0.97963991686728902</v>
+        <v>0.94292766212135826</v>
       </c>
       <c r="D196">
-        <v>0.98414604963507746</v>
+        <v>0.9583267772784918</v>
       </c>
       <c r="E196">
-        <v>-0.076503338127135959</v>
+        <v>-0.096380628884770198</v>
       </c>
       <c r="F196">
-        <v>0.49990598428270799</v>
+        <v>0.51786033917977159</v>
       </c>
       <c r="G196">
-        <v>-0.40149799504336176</v>
+        <v>-0.4062167369259852</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>3.3050557940557943</v>
+        <v>3.3228569889651629</v>
       </c>
       <c r="B197">
-        <v>3.0418746357439717</v>
+        <v>3.0678291957655084</v>
       </c>
       <c r="C197">
-        <v>0.94284690184585851</v>
+        <v>0.91126369846072675</v>
       </c>
       <c r="D197">
-        <v>0.95818074975996548</v>
+        <v>0.93860463425911089</v>
       </c>
       <c r="E197">
-        <v>-0.094834420400837241</v>
+        <v>-0.1120645277651038</v>
       </c>
       <c r="F197">
-        <v>0.51742193109556611</v>
+        <v>0.53269230736261985</v>
       </c>
       <c r="G197">
-        <v>-0.40306305470292586</v>
+        <v>-0.40779219881716533</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>3.3192901519188109</v>
+        <v>3.3267835154628571</v>
       </c>
       <c r="B198">
-        <v>3.0677572891835672</v>
+        <v>3.0753832824850793</v>
       </c>
       <c r="C198">
-        <v>0.91113954032666777</v>
+        <v>0.90244851073532606</v>
       </c>
       <c r="D198">
-        <v>0.93838657574900353</v>
+        <v>0.93351392445305104</v>
       </c>
       <c r="E198">
-        <v>-0.11052020525764185</v>
+        <v>-0.11642306225108077</v>
       </c>
       <c r="F198">
-        <v>0.53226759509126453</v>
+        <v>0.53678334366546177</v>
       </c>
       <c r="G198">
-        <v>-0.40461911209094448</v>
+        <v>-0.40827642942495035</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>3.3232199606369659</v>
+        <v>3.3361951866935411</v>
       </c>
       <c r="B199">
-        <v>3.0753049247056521</v>
+        <v>3.0942126532432188</v>
       </c>
       <c r="C199">
-        <v>0.90231249221900267</v>
+        <v>0.88119787801974991</v>
       </c>
       <c r="D199">
-        <v>0.9332768864573604</v>
+        <v>0.92192631069541597</v>
       </c>
       <c r="E199">
-        <v>-0.11487877208648685</v>
+        <v>-0.12691928667494973</v>
       </c>
       <c r="F199">
-        <v>0.53636256995026521</v>
+        <v>0.5465821412300863</v>
       </c>
       <c r="G199">
-        <v>-0.40509708158210761</v>
+        <v>-0.40951879818391096</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>3.3326394991722261</v>
+        <v>3.3529579980595297</v>
       </c>
       <c r="B200">
-        <v>3.0941192708178233</v>
+        <v>3.1303310408139429</v>
       </c>
       <c r="C200">
-        <v>0.88103370954501181</v>
+        <v>0.84295738810274567</v>
       </c>
       <c r="D200">
-        <v>0.92164537624622311</v>
+        <v>0.90339925757234496</v>
       </c>
       <c r="E200">
-        <v>-0.12537445610640391</v>
+        <v>-0.14580265665601125</v>
       </c>
       <c r="F200">
-        <v>0.54617074729461856</v>
+        <v>0.5640063634775887</v>
       </c>
       <c r="G200">
-        <v>-0.40632385494820589</v>
+        <v>-0.41203974541726091</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>3.3494163227300282</v>
+        <v>3.3671804672266896</v>
       </c>
       <c r="B201">
-        <v>3.1302125301875572</v>
+        <v>3.1636441855194497</v>
       </c>
       <c r="C201">
-        <v>0.84274430922119126</v>
+        <v>0.8101613486293594</v>
       </c>
       <c r="D201">
-        <v>0.90304571192750083</v>
+        <v>0.88974979746536453</v>
       </c>
       <c r="E201">
-        <v>-0.14425332833876123</v>
+        <v>-0.16202684273472015</v>
       </c>
       <c r="F201">
-        <v>0.5636132240267534</v>
+        <v>0.57875680986026035</v>
       </c>
       <c r="G201">
-        <v>-0.40881029935900459</v>
+        <v>-0.41449984373274595</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>3.3636506805930448</v>
+        <v>3.3711069937243843</v>
       </c>
       <c r="B202">
-        <v>3.1635061237438227</v>
+        <v>3.1732830888237369</v>
       </c>
       <c r="C202">
-        <v>0.80990834299685177</v>
+        <v>0.80105630614338275</v>
       </c>
       <c r="D202">
-        <v>0.88934022406253566</v>
+        <v>0.88630892618321766</v>
       </c>
       <c r="E202">
-        <v>-0.16046874549231796</v>
+        <v>-0.16654122164107374</v>
       </c>
       <c r="F202">
-        <v>0.57838037221443694</v>
+        <v>0.58282299618833511</v>
       </c>
       <c r="G202">
-        <v>-0.41123315999738763</v>
+        <v>-0.41523362397614039</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>3.3675804893112002</v>
+        <v>3.3805186649550683</v>
       </c>
       <c r="B203">
-        <v>3.1731399329351682</v>
+        <v>3.197179546297813</v>
       </c>
       <c r="C203">
-        <v>0.80079257919701408</v>
+        <v>0.77915095684451474</v>
       </c>
       <c r="D203">
-        <v>0.88588478325361952</v>
+        <v>0.87862785944837629</v>
       </c>
       <c r="E203">
-        <v>-0.16498015002386832</v>
+        <v>-0.1774248066615477</v>
       </c>
       <c r="F203">
-        <v>0.58245136274400022</v>
+        <v>0.5925579384803078</v>
       </c>
       <c r="G203">
-        <v>-0.41195584031871169</v>
+        <v>-0.41708782242535325</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>3.3770000278464605</v>
+        <v>3.3972814763210568</v>
       </c>
       <c r="B204">
-        <v>3.1970247383574075</v>
+        <v>3.2425641411157264</v>
       </c>
       <c r="C204">
-        <v>0.77886212846352332</v>
+        <v>0.73988463897439571</v>
       </c>
       <c r="D204">
-        <v>0.87817037226967332</v>
+        <v>0.86688704082624579</v>
       </c>
       <c r="E204">
-        <v>-0.17585557559474388</v>
+        <v>-0.19703525247901654</v>
       </c>
       <c r="F204">
-        <v>0.59219788216055858</v>
+        <v>0.60985590459166394</v>
       </c>
       <c r="G204">
-        <v>-0.41378230240318919</v>
+        <v>-0.42072293739380867</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>3.3937768514042621</v>
+        <v>3.4115039454882168</v>
       </c>
       <c r="B205">
-        <v>3.2423906222236334</v>
+        <v>3.2839776985760718</v>
       </c>
       <c r="C205">
-        <v>0.7395534412212893</v>
+        <v>0.70635945718849735</v>
       </c>
       <c r="D205">
-        <v>0.8663756590450099</v>
+        <v>0.85881808475019017</v>
       </c>
       <c r="E205">
-        <v>-0.19544899190157472</v>
+        <v>-0.21390828629087763</v>
       </c>
       <c r="F205">
-        <v>0.60951839979589284</v>
+        <v>0.62448776133677419</v>
       </c>
       <c r="G205">
-        <v>-0.41736353041957441</v>
+        <v>-0.4241432166298198</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>3.4080112092672787</v>
+        <v>3.4154304719859114</v>
       </c>
       <c r="B206">
-        <v>3.2837904745081681</v>
+        <v>3.2958909500753655</v>
       </c>
       <c r="C206">
-        <v>0.70599499847885128</v>
+        <v>0.69707599264423914</v>
       </c>
       <c r="D206">
-        <v>0.85826645888125985</v>
+        <v>0.85688851820071688</v>
       </c>
       <c r="E206">
-        <v>-0.21230461176916854</v>
+        <v>-0.21860652552794993</v>
       </c>
       <c r="F206">
-        <v>0.62417024545943178</v>
+        <v>0.62851949670835805</v>
       </c>
       <c r="G206">
-        <v>-0.42073458519808937</v>
+        <v>-0.42514358703524507</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>3.4119410179854341</v>
+        <v>3.4248421432165954</v>
       </c>
       <c r="B207">
-        <v>3.2957003090467021</v>
+        <v>3.32530502038763</v>
       </c>
       <c r="C207">
-        <v>0.69670283339687777</v>
+        <v>0.67478332783364237</v>
       </c>
       <c r="D207">
-        <v>0.85632666216021402</v>
+        <v>0.85277731530854595</v>
       </c>
       <c r="E207">
-        <v>-0.21699795097916993</v>
+        <v>-0.22994114766715021</v>
       </c>
       <c r="F207">
-        <v>0.62820757837738084</v>
+        <v>0.63816817604774334</v>
       </c>
       <c r="G207">
-        <v>-0.42172143040130122</v>
+        <v>-0.42764315671587499</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>3.4213605565206944</v>
+        <v>3.441604954582584</v>
       </c>
       <c r="B208">
-        <v>3.3251068559944317</v>
+        <v>3.3807448286482269</v>
       </c>
       <c r="C208">
-        <v>0.67439022859135567</v>
+        <v>0.63496836895880682</v>
       </c>
       <c r="D208">
-        <v>0.85219248100221534</v>
+        <v>0.84720710055029413</v>
       </c>
       <c r="E208">
-        <v>-0.22832015975045994</v>
+        <v>-0.25038025154296578</v>
       </c>
       <c r="F208">
-        <v>0.63786946652563148</v>
+        <v>0.65530480057460672</v>
       </c>
       <c r="G208">
-        <v>-0.42418843968177294</v>
+        <v>-0.43243086292823329</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>3.438137380078496</v>
+        <v>3.4558274237497439</v>
       </c>
       <c r="B209">
-        <v>3.3805356770293917</v>
+        <v>3.4309144549671138</v>
       </c>
       <c r="C209">
-        <v>0.63454320381267371</v>
+        <v>0.6011196761054125</v>
       </c>
       <c r="D209">
-        <v>0.84658669859156022</v>
+        <v>0.84418053181692221</v>
       </c>
       <c r="E209">
-        <v>-0.24874122040653479</v>
+        <v>-0.26797890767075117</v>
       </c>
       <c r="F209">
-        <v>0.65503014629219014</v>
+        <v>0.66979283387499722</v>
       </c>
       <c r="G209">
-        <v>-0.42892415218242719</v>
+        <v>-0.43682890476393044</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>3.4523717379415131</v>
+        <v>3.4597539502474386</v>
       </c>
       <c r="B210">
-        <v>3.4306985102771104</v>
+        <v>3.4452807966052594</v>
       </c>
       <c r="C210">
-        <v>0.60067110689812431</v>
+        <v>0.59176987523528057</v>
       </c>
       <c r="D210">
-        <v>0.84353528236364395</v>
+        <v>0.84361119271503004</v>
       </c>
       <c r="E210">
-        <v>-0.26632971517210019</v>
+        <v>-0.27288275595684242</v>
       </c>
       <c r="F210">
-        <v>0.66953641847874279</v>
+        <v>0.6737832973405965</v>
       </c>
       <c r="G210">
-        <v>-0.43328830260940299</v>
+        <v>-0.43810187697132252</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>3.456301546659668</v>
+        <v>3.4691656214781226</v>
       </c>
       <c r="B211">
-        <v>3.4450633993616946</v>
+        <v>3.4806368546167095</v>
       </c>
       <c r="C211">
-        <v>0.59131550687070189</v>
+        <v>0.56935870166987135</v>
       </c>
       <c r="D211">
-        <v>0.8429599366233731</v>
+        <v>0.84270335413975839</v>
       </c>
       <c r="E211">
-        <v>-0.27123179688608678</v>
+        <v>-0.28472062429596795</v>
       </c>
       <c r="F211">
-        <v>0.6735315325947584</v>
+        <v>0.68332950301607054</v>
       </c>
       <c r="G211">
-        <v>-0.43455377585909888</v>
+        <v>-0.44126150998513874</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>3.4657210851949283</v>
+        <v>3.4859284328441111</v>
       </c>
       <c r="B212">
-        <v>3.4804167382483469</v>
+        <v>3.5468733031116688</v>
       </c>
       <c r="C212">
-        <v>0.56889166389497392</v>
+        <v>0.52947424709766466</v>
       </c>
       <c r="D212">
-        <v>0.84203919288035134</v>
+        <v>0.84263590085801121</v>
       </c>
       <c r="E212">
-        <v>-0.28306577322892718</v>
+        <v>-0.30609536555031519</v>
       </c>
       <c r="F212">
-        <v>0.68308778059967534</v>
+        <v>0.70027398484511394</v>
       </c>
       <c r="G212">
-        <v>-0.43769735474460708</v>
+        <v>-0.44725113493930979</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>3.4824979087527304</v>
+        <v>3.5001509020112711</v>
       </c>
       <c r="B213">
-        <v>3.5466510804094691</v>
+        <v>3.6064132905386983</v>
       </c>
       <c r="C213">
-        <v>0.52898919376950648</v>
+        <v>0.49570880465294204</v>
       </c>
       <c r="D213">
-        <v>0.84195392480815023</v>
+        <v>0.84407022715585911</v>
       </c>
       <c r="E213">
-        <v>-0.30444771382991309</v>
+        <v>-0.32453408558211233</v>
       </c>
       <c r="F213">
-        <v>0.700047830176312</v>
+        <v>0.71458538268250382</v>
       </c>
       <c r="G213">
-        <v>-0.44367789891525133</v>
+        <v>-0.45270784243047202</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>3.496732266615747</v>
+        <v>3.5040774285089658</v>
       </c>
       <c r="B214">
-        <v>3.6061921222264637</v>
+        <v>3.6233998853603686</v>
       </c>
       <c r="C214">
-        <v>0.49521336609608968</v>
+        <v>0.48640498156937001</v>
       </c>
       <c r="D214">
-        <v>0.8433782610658167</v>
+        <v>0.84469821613381224</v>
       </c>
       <c r="E214">
-        <v>-0.32290612532011242</v>
+        <v>-0.32967992307181165</v>
       </c>
       <c r="F214">
-        <v>0.71436556889815594</v>
+        <v>0.71852385225022586</v>
       </c>
       <c r="G214">
-        <v>-0.44914992912963853</v>
+        <v>-0.45428308061152112</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>3.5006620753339019</v>
+        <v>3.5134890997396497</v>
       </c>
       <c r="B215">
-        <v>3.6231794796678702</v>
+        <v>3.6650942737305581</v>
       </c>
       <c r="C215">
-        <v>0.48590751410638189</v>
+        <v>0.4641445077361685</v>
       </c>
       <c r="D215">
-        <v>0.84400430966317952</v>
+        <v>0.84659918039429916</v>
       </c>
       <c r="E215">
-        <v>-0.32805901780862534</v>
+        <v>-0.34211364619676227</v>
       </c>
       <c r="F215">
-        <v>0.71830490732731611</v>
+        <v>0.72793934488113943</v>
       </c>
       <c r="G215">
-        <v>-0.45073204953930623</v>
+        <v>-0.45818253640294182</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>3.5100816138691622</v>
+        <v>3.5302519111056383</v>
       </c>
       <c r="B216">
-        <v>3.6648765403162487</v>
+        <v>3.7428179001122883</v>
       </c>
       <c r="C216">
-        <v>0.46364371402631122</v>
+        <v>0.42466991516861002</v>
       </c>
       <c r="D216">
-        <v>0.84590205107669358</v>
+        <v>0.85131764557493916</v>
       </c>
       <c r="E216">
-        <v>-0.34050976304491076</v>
+        <v>-0.3646356456312505</v>
       </c>
       <c r="F216">
-        <v>0.72771988042285274</v>
+        <v>0.74462532914639479</v>
       </c>
       <c r="G216">
-        <v>-0.45465070881282016</v>
+        <v>-0.46558192418126015</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>3.5268584374269643</v>
+        <v>3.5444743802727983</v>
       </c>
       <c r="B217">
-        <v>3.742607938231544</v>
+        <v>3.8122984141781115</v>
       </c>
       <c r="C217">
-        <v>0.42416880182837269</v>
+        <v>0.39139416025878693</v>
       </c>
       <c r="D217">
-        <v>0.85061971161191563</v>
+        <v>0.85659080681850863</v>
       </c>
       <c r="E217">
-        <v>-0.36308013645016535</v>
+        <v>-0.38414559890277222</v>
       </c>
       <c r="F217">
-        <v>0.74440337109263233</v>
+        <v>0.75868031533513525</v>
       </c>
       <c r="G217">
-        <v>-0.46210457231896962</v>
+        <v>-0.47234808646586068</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>3.5410927952899809</v>
+        <v>3.5484009067704925</v>
       </c>
       <c r="B218">
-        <v>3.8120981505497302</v>
+        <v>3.8320600917937533</v>
       </c>
       <c r="C218">
-        <v>0.39089871195011727</v>
+        <v>0.38224845706448435</v>
       </c>
       <c r="D218">
-        <v>0.85589706573415258</v>
+        <v>0.85824219041712002</v>
       </c>
       <c r="E218">
-        <v>-0.3826390140791473</v>
+        <v>-0.38960306230811542</v>
       </c>
       <c r="F218">
-        <v>0.75844721013229299</v>
+        <v>0.76254147718420151</v>
       </c>
       <c r="G218">
-        <v>-0.46893317694967679</v>
+        <v>-0.47430271446760891</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>3.5450226040081363</v>
+        <v>3.5578125780011769</v>
       </c>
       <c r="B219">
-        <v>3.8318630176701576</v>
+        <v>3.8804593260543268</v>
       </c>
       <c r="C219">
-        <v>0.38175557468128951</v>
+        <v>0.36040732846306278</v>
       </c>
       <c r="D219">
-        <v>0.85755038224789426</v>
+        <v>0.86253124747306276</v>
       </c>
       <c r="E219">
-        <v>-0.38810986013825582</v>
+        <v>-0.40280403310604274</v>
       </c>
       <c r="F219">
-        <v>0.76230420549057221</v>
+        <v>0.77175906781845138</v>
       </c>
       <c r="G219">
-        <v>-0.4709057163922461</v>
+        <v>-0.47913579503776055</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>3.5544421425433965</v>
+        <v>3.574575389367165</v>
       </c>
       <c r="B220">
-        <v>3.8802708039842169</v>
+        <v>3.9703066339917417</v>
       </c>
       <c r="C220">
-        <v>0.35992241117349932</v>
+        <v>0.32182040620246155</v>
       </c>
       <c r="D220">
-        <v>0.86184543093602839</v>
+        <v>0.87127328014281002</v>
       </c>
       <c r="E220">
-        <v>-0.40133618206054056</v>
+        <v>-0.42681815951216984</v>
       </c>
       <c r="F220">
-        <v>0.77150551497773212</v>
+        <v>0.78805392164292509</v>
       </c>
       <c r="G220">
-        <v>-0.47578039609194001</v>
+        <v>-0.48833018655854149</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>3.5712189661011982</v>
+        <v>3.5887978585343254</v>
       </c>
       <c r="B221">
-        <v>3.9701365577123777</v>
+        <v>4.0502510931931388</v>
       </c>
       <c r="C221">
-        <v>0.32135621939692383</v>
+        <v>0.28943886969135113</v>
       </c>
       <c r="D221">
-        <v>0.87060282893159979</v>
+        <v>0.87972571025923907</v>
       </c>
       <c r="E221">
-        <v>-0.42541354639232137</v>
+        <v>-0.44769143338274531</v>
       </c>
       <c r="F221">
-        <v>0.78778129141451658</v>
+        <v>0.80171123723103621</v>
       </c>
       <c r="G221">
-        <v>-0.48505660645774995</v>
+        <v>-0.49674321309723368</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>3.5854533239642152</v>
+        <v>3.5927243850320196</v>
       </c>
       <c r="B222">
-        <v>4.0500999373915594</v>
+        <v>4.0729296316311077</v>
       </c>
       <c r="C222">
-        <v>0.28899909579219502</v>
+        <v>0.28056279816596402</v>
       </c>
       <c r="D222">
-        <v>0.87907295187318413</v>
+        <v>0.8822163867068008</v>
       </c>
       <c r="E222">
-        <v>-0.44630247648804205</v>
+        <v>-0.45353225586819917</v>
       </c>
       <c r="F222">
-        <v>0.80140002169682145</v>
+        <v>0.80545023123885828</v>
       </c>
       <c r="G222">
-        <v>-0.4935198679740041</v>
+        <v>-0.4991644267443518</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>3.5893831326823702</v>
+        <v>3.5989190283410952</v>
       </c>
       <c r="B223">
-        <v>4.0727842301965564</v>
+        <v>4.1092468803912565</v>
       </c>
       <c r="C223">
-        <v>0.2801308994859521</v>
+        <v>0.26661926959124727</v>
       </c>
       <c r="D223">
-        <v>0.88156925967098476</v>
+        <v>0.88627776041771356</v>
       </c>
       <c r="E223">
-        <v>-0.45213418952841777</v>
+        <v>-0.46257960210156712</v>
       </c>
       <c r="F223">
-        <v>0.80512114110745914</v>
+        <v>0.81118235552316931</v>
       </c>
       <c r="G223">
-        <v>-0.49594783657450614</v>
+        <v>-0.50295631330684731</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>3.5988026712176304</v>
+        <v>3.6111811054508078</v>
       </c>
       <c r="B224">
-        <v>4.1282378907922626</v>
+        <v>4.1830941091589278</v>
       </c>
       <c r="C224">
-        <v>0.25899683908270571</v>
+        <v>0.23924630242060577</v>
       </c>
       <c r="D224">
-        <v>0.88781668067729935</v>
+        <v>0.89477190177448318</v>
       </c>
       <c r="E224">
-        <v>-0.46633083617280174</v>
+        <v>-0.48184616374857453</v>
       </c>
       <c r="F224">
-        <v>0.81404387765978159</v>
+        <v>0.82307623277526643</v>
       </c>
       <c r="G224">
-        <v>-0.50198641416658651</v>
+        <v>-0.51130656788592355</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>3.6155794947754325</v>
+        <v>3.6247772179967019</v>
       </c>
       <c r="B225">
-        <v>4.230816809046253</v>
+        <v>4.2680469121390461</v>
       </c>
       <c r="C225">
-        <v>0.22181539512991441</v>
+        <v>0.20927516612669969</v>
       </c>
       <c r="D225">
-        <v>0.89981070007779396</v>
+        <v>0.90485014984377898</v>
       </c>
       <c r="E225">
-        <v>-0.48726180406683517</v>
+        <v>-0.49555472337484069</v>
       </c>
       <c r="F225">
-        <v>0.82673717542920089</v>
+        <v>0.8313308647108768</v>
       </c>
       <c r="G225">
-        <v>-0.51096457692369202</v>
+        <v>-0.51718391082820014</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>3.6298138526384491</v>
+        <v>3.6345168066984233</v>
       </c>
       <c r="B226">
-        <v>4.3217126083978945</v>
+        <v>4.3309017383424813</v>
       </c>
       <c r="C226">
-        <v>0.19076218652868435</v>
+        <v>0.1880637600324922</v>
       </c>
       <c r="D226">
-        <v>0.91080177623913805</v>
+        <v>0.91247323616958775</v>
       </c>
       <c r="E226">
-        <v>-0.49285350202847333</v>
+        <v>-0.49563210683805686</v>
       </c>
       <c r="F226">
-        <v>0.83003529339148086</v>
+        <v>0.83142820162826903</v>
       </c>
       <c r="G226">
-        <v>-0.5131519313603633</v>
+        <v>-0.51689287565449515</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>3.6337436613566041</v>
+        <v>3.6370478632935468</v>
       </c>
       <c r="B227">
-        <v>4.3474340739472952</v>
+        <v>4.3475092584352879</v>
       </c>
       <c r="C227">
-        <v>0.18227163053752043</v>
+        <v>0.18258713396354992</v>
       </c>
       <c r="D227">
-        <v>0.91396300520187945</v>
+        <v>0.91450881953504182</v>
       </c>
       <c r="E227">
-        <v>-0.49176855033885158</v>
+        <v>-0.49548471334344368</v>
       </c>
       <c r="F227">
-        <v>0.82950772791481897</v>
+        <v>0.8313985259700174</v>
       </c>
       <c r="G227">
-        <v>-0.51259705543184675</v>
+        <v>-0.51676874470673406</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>3.6431631998918643</v>
+        <v>3.6464595345242308</v>
       </c>
       <c r="B228">
-        <v>4.4101892426019544</v>
+        <v>4.4102518194315472</v>
       </c>
       <c r="C228">
-        <v>0.16206440031429858</v>
+        <v>0.16235112943682267</v>
       </c>
       <c r="D228">
-        <v>0.92176557230396705</v>
+        <v>0.92227581625603583</v>
       </c>
       <c r="E228">
-        <v>-0.49115559322337676</v>
+        <v>-0.49471504993223292</v>
       </c>
       <c r="F228">
-        <v>0.82927409874226243</v>
+        <v>0.83112247281931106</v>
       </c>
       <c r="G228">
-        <v>-0.51213491872014993</v>
+        <v>-0.51619289363516396</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>3.6599400234496664</v>
+        <v>3.6632223458902193</v>
       </c>
       <c r="B229">
-        <v>4.5258098143845089</v>
+        <v>4.525852392670612</v>
       </c>
       <c r="C229">
-        <v>0.12657838498157717</v>
+        <v>0.1268109219589231</v>
       </c>
       <c r="D229">
-        <v>0.9364472174824362</v>
+        <v>0.9368812401115344</v>
       </c>
       <c r="E229">
-        <v>-0.49055354702383069</v>
+        <v>-0.49409467424417708</v>
       </c>
       <c r="F229">
-        <v>0.82907690871162032</v>
+        <v>0.8310158378311191</v>
       </c>
       <c r="G229">
-        <v>-0.51152332074232987</v>
+        <v>-0.5155209998828143</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>3.674174381312683</v>
+        <v>3.6774448150573797</v>
       </c>
       <c r="B230">
-        <v>4.6277691405215675</v>
+        <v>4.6277973799818479</v>
       </c>
       <c r="C230">
-        <v>0.096975966689064177</v>
+        <v>0.097159638433550244</v>
       </c>
       <c r="D230">
-        <v>0.94969158984552471</v>
+        <v>0.95004782733454318</v>
       </c>
       <c r="E230">
-        <v>-0.49010521241007032</v>
+        <v>-0.49382539260860903</v>
       </c>
       <c r="F230">
-        <v>0.82893191853035308</v>
+        <v>0.83103405062890867</v>
       </c>
       <c r="G230">
-        <v>-0.51106211158427584</v>
+        <v>-0.51508547333985621</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>3.6781041900308384</v>
+        <v>3.681371341555074</v>
       </c>
       <c r="B231">
-        <v>4.6565415144458964</v>
+        <v>4.6565662944425306</v>
       </c>
       <c r="C231">
-        <v>0.088885093253062791</v>
+        <v>0.089054860038508266</v>
       </c>
       <c r="D231">
-        <v>0.95347530412996984</v>
+        <v>0.95380784888542813</v>
       </c>
       <c r="E231">
-        <v>-0.48995113869835638</v>
+        <v>-0.49360920340944814</v>
       </c>
       <c r="F231">
-        <v>0.82887693315399935</v>
+        <v>0.83096030570713308</v>
       </c>
       <c r="G231">
-        <v>-0.51092636354653487</v>
+        <v>-0.51490628608945288</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>3.6875237285660987</v>
+        <v>3.6907830127857579</v>
       </c>
       <c r="B232">
-        <v>4.7266045879033483</v>
+        <v>4.7266219604764119</v>
       </c>
       <c r="C232">
-        <v>0.069635458844375706</v>
+        <v>0.069771196432789867</v>
       </c>
       <c r="D232">
-        <v>0.9627687107776659</v>
+        <v>0.96304056625353507</v>
       </c>
       <c r="E232">
-        <v>-0.48968017971305938</v>
+        <v>-0.49322613276966337</v>
       </c>
       <c r="F232">
-        <v>0.82879591315621515</v>
+        <v>0.83085913895072872</v>
       </c>
       <c r="G232">
-        <v>-0.51064540469473474</v>
+        <v>-0.51454244515710568</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>3.7043005521239003</v>
+        <v>3.7075458241517465</v>
       </c>
       <c r="B233">
-        <v>4.8552225982344428</v>
+        <v>4.855229667300466</v>
       </c>
       <c r="C233">
-        <v>0.035852615263499643</v>
+        <v>0.035925085994509796</v>
       </c>
       <c r="D233">
-        <v>0.98010328979570605</v>
+        <v>0.98025370764795816</v>
       </c>
       <c r="E233">
-        <v>-0.48912592666967075</v>
+        <v>-0.49254177422792844</v>
       </c>
       <c r="F233">
-        <v>0.8285758023112294</v>
+        <v>0.83063705136381727</v>
       </c>
       <c r="G233">
-        <v>-0.51010210136446166</v>
+        <v>-0.51388120230183143</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>3.7185349099869169</v>
+        <v>3.7217682933189069</v>
       </c>
       <c r="B234">
-        <v>4.9681912287930237</v>
+        <v>4.9681923859532295</v>
       </c>
       <c r="C234">
-        <v>0.0076929685733293151</v>
+        <v>0.0077089968177688458</v>
       </c>
       <c r="D234">
-        <v>0.9955959648282533</v>
+        <v>0.99563016188674858</v>
       </c>
       <c r="E234">
-        <v>-0.48872100666173329</v>
+        <v>-0.49208391654237499</v>
       </c>
       <c r="F234">
-        <v>0.82843668156712469</v>
+        <v>0.8305277615341965</v>
       </c>
       <c r="G234">
-        <v>-0.50969474680295146</v>
+        <v>-0.51340230080189264</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>3.7224647187050723</v>
+        <v>3.7256948198166011</v>
       </c>
       <c r="B235">
         <v>5</v>
@@ -5499,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="E235">
-        <v>-0.4886525702937855</v>
+        <v>-0.49199961290995592</v>
       </c>
       <c r="F235">
-        <v>0.82843753972708201</v>
+        <v>0.8305366799656988</v>
       </c>
       <c r="G235">
-        <v>-0.50961407150218141</v>
+        <v>-0.51330219974243152</v>
       </c>
     </row>
   </sheetData>

--- a/src/droneSolution.xlsx
+++ b/src/droneSolution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="7">
   <si>
     <t>time_tot</t>
   </si>
@@ -56,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -72,11 +72,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -86,6 +102,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,11 +127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G236"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.28515625" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="15.7109375" customWidth="true"/>
@@ -108,25 +140,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -155,1203 +187,1203 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.013473452945697805</v>
+        <v>0.013473466811378912</v>
       </c>
       <c r="B3">
-        <v>-8.3098937890316249e-06</v>
+        <v>-8.3070631896946863e-06</v>
       </c>
       <c r="C3">
-        <v>8.3889039830174277e-06</v>
+        <v>8.3860571369633386e-06</v>
       </c>
       <c r="D3">
-        <v>0.00020569352236558718</v>
+        <v>0.00020567806394592754</v>
       </c>
       <c r="E3">
-        <v>0.0084903112057853353</v>
+        <v>0.00849029876786251</v>
       </c>
       <c r="F3">
-        <v>0.0084802008233558178</v>
+        <v>0.0084802100225381937</v>
       </c>
       <c r="G3">
-        <v>7.5408142523391913e-05</v>
+        <v>7.5163197551749819e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.040143676025723385</v>
+        <v>0.040143717338029329</v>
       </c>
       <c r="B4">
-        <v>8.2603864943828225e-05</v>
+        <v>8.2603718694526765e-05</v>
       </c>
       <c r="C4">
-        <v>-8.2860780341615723e-05</v>
+        <v>-8.2860509606057578e-05</v>
       </c>
       <c r="D4">
-        <v>4.1764774307978437e-07</v>
+        <v>6.821613815460346e-07</v>
       </c>
       <c r="E4">
-        <v>0.038982271031056163</v>
+        <v>0.038982220125580183</v>
       </c>
       <c r="F4">
-        <v>0.039236580509498006</v>
+        <v>0.039236619358033548</v>
       </c>
       <c r="G4">
-        <v>-0.0037525938662214034</v>
+        <v>-0.0037532945223631262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.069715448521991796</v>
+        <v>0.069715520266939529</v>
       </c>
       <c r="B5">
-        <v>0.00052779582668736392</v>
+        <v>0.00052775961773720496</v>
       </c>
       <c r="C5">
-        <v>-0.00052874959530692584</v>
+        <v>-0.00052871282586719904</v>
       </c>
       <c r="D5">
-        <v>2.5052992455839218e-08</v>
+        <v>4.6721692017765888e-08</v>
       </c>
       <c r="E5">
-        <v>0.067408163778665875</v>
+        <v>0.067408063730208953</v>
       </c>
       <c r="F5">
-        <v>0.068968993241002058</v>
+        <v>0.068969071799506093</v>
       </c>
       <c r="G5">
-        <v>-0.015619770864296004</v>
+        <v>-0.015620607440518372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.090899217067766977</v>
+        <v>0.090899310613167833</v>
       </c>
       <c r="B6">
-        <v>0.001220225676460848</v>
+        <v>0.0012201686742198128</v>
       </c>
       <c r="C6">
-        <v>-0.0012258330513074034</v>
+        <v>-0.0012257749668047246</v>
       </c>
       <c r="D6">
-        <v>0.0013931297414291374</v>
+        <v>0.0013925755129451751</v>
       </c>
       <c r="E6">
-        <v>0.089884758442188448</v>
+        <v>0.089884536286365294</v>
       </c>
       <c r="F6">
-        <v>0.093516216690393075</v>
+        <v>0.093516327052378834</v>
       </c>
       <c r="G6">
-        <v>-0.02785704304003685</v>
+        <v>-0.02785818407005947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.09640430755253096</v>
+        <v>0.096404406763282005</v>
       </c>
       <c r="B7">
-        <v>0.0014925215613662477</v>
+        <v>0.0014924655620638049</v>
       </c>
       <c r="C7">
-        <v>-0.0015013651792167325</v>
+        <v>-0.0015013078626499212</v>
       </c>
       <c r="D7">
-        <v>0.0015951002292063181</v>
+        <v>0.0015946582024494542</v>
       </c>
       <c r="E7">
-        <v>0.094752204273935284</v>
+        <v>0.09475192593417367</v>
       </c>
       <c r="F7">
-        <v>0.099169462968835248</v>
+        <v>0.099169573811731498</v>
       </c>
       <c r="G7">
-        <v>-0.031956457484577656</v>
+        <v>-0.031957548423668818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.10344705952266636</v>
+        <v>0.10344716598119222</v>
       </c>
       <c r="B8">
-        <v>0.0019633553668738594</v>
+        <v>0.0019632952232906766</v>
       </c>
       <c r="C8">
-        <v>-0.00197893629416219</v>
+        <v>-0.0019788741956434461</v>
       </c>
       <c r="D8">
-        <v>0.00310375424765569</v>
+        <v>0.0031032431236217937</v>
       </c>
       <c r="E8">
-        <v>0.102197852640096</v>
+        <v>0.1021971787295628</v>
       </c>
       <c r="F8">
-        <v>0.1071044758749496</v>
+        <v>0.10710458026375327</v>
       </c>
       <c r="G8">
-        <v>-0.037290121549365091</v>
+        <v>-0.037291208361952141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.11865115729009539</v>
+        <v>0.1186512793953283</v>
       </c>
       <c r="B9">
-        <v>0.0033828709022368703</v>
+        <v>0.0033828012665988046</v>
       </c>
       <c r="C9">
-        <v>-0.0034230663225841961</v>
+        <v>-0.0034229913989773783</v>
       </c>
       <c r="D9">
-        <v>0.0084923106864267361</v>
+        <v>0.0084916412818003273</v>
       </c>
       <c r="E9">
-        <v>0.10613059546151275</v>
+        <v>0.10613042220466208</v>
       </c>
       <c r="F9">
-        <v>0.12450637007246146</v>
+        <v>0.12450644489073452</v>
       </c>
       <c r="G9">
-        <v>-0.050419976439393679</v>
+        <v>-0.050420748007169044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.13895027418856987</v>
+        <v>0.13895041718385098</v>
       </c>
       <c r="B10">
-        <v>0.0062563970386233575</v>
+        <v>0.0062563155666584148</v>
       </c>
       <c r="C10">
-        <v>-0.0062439958454783033</v>
+        <v>-0.0062439047675941781</v>
       </c>
       <c r="D10">
-        <v>0.020201354629238104</v>
+        <v>0.020200475164446438</v>
       </c>
       <c r="E10">
-        <v>0.08646305783214335</v>
+        <v>0.086463871371662768</v>
       </c>
       <c r="F10">
-        <v>0.14775182199639517</v>
+        <v>0.14775178443983383</v>
       </c>
       <c r="G10">
-        <v>-0.069890771096213389</v>
+        <v>-0.069890128246028957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.1603218393827032</v>
+        <v>0.16032200437170108</v>
       </c>
       <c r="B11">
-        <v>0.010698587107257919</v>
+        <v>0.010698493643715303</v>
       </c>
       <c r="C11">
-        <v>-0.01017974863869942</v>
+        <v>-0.010179647330040967</v>
       </c>
       <c r="D11">
-        <v>0.038074733287855496</v>
+        <v>0.038073627866356603</v>
       </c>
       <c r="E11">
-        <v>0.061491567109387205</v>
+        <v>0.061492633768535879</v>
       </c>
       <c r="F11">
-        <v>0.17151071964975279</v>
+        <v>0.17151058800352359</v>
       </c>
       <c r="G11">
-        <v>-0.087802407235458249</v>
+        <v>-0.087800044568777144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.17853320024067326</v>
+        <v>0.17853338397118626</v>
       </c>
       <c r="B12">
-        <v>0.015812435341264159</v>
+        <v>0.015812333271508584</v>
       </c>
       <c r="C12">
-        <v>-0.014156187857454979</v>
+        <v>-0.014156084832511091</v>
       </c>
       <c r="D12">
-        <v>0.05776355448950278</v>
+        <v>0.05776226460438863</v>
       </c>
       <c r="E12">
-        <v>0.039865522930023191</v>
+        <v>0.039867001208314851</v>
       </c>
       <c r="F12">
-        <v>0.19121160672861368</v>
+        <v>0.19121144134275039</v>
       </c>
       <c r="G12">
-        <v>-0.099784783030891097</v>
+        <v>-0.099781194596720413</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.18998238524480868</v>
+        <v>0.189982580757806</v>
       </c>
       <c r="B13">
-        <v>0.019726469420662224</v>
+        <v>0.019726361709480777</v>
       </c>
       <c r="C13">
-        <v>-0.016889255747774921</v>
+        <v>-0.016889154226447448</v>
       </c>
       <c r="D13">
-        <v>0.072226466889591251</v>
+        <v>0.072225056130332616</v>
       </c>
       <c r="E13">
-        <v>0.026943857514050006</v>
+        <v>0.026945529182479815</v>
       </c>
       <c r="F13">
-        <v>0.2034168403952577</v>
+        <v>0.2034166561007702</v>
       </c>
       <c r="G13">
-        <v>-0.10620688792543263</v>
+        <v>-0.10620241184146299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.19280861510506198</v>
+        <v>0.19280881352656407</v>
       </c>
       <c r="B14">
-        <v>0.02078131814021569</v>
+        <v>0.020781209180412902</v>
       </c>
       <c r="C14">
-        <v>-0.017585919125984031</v>
+        <v>-0.017585818559856067</v>
       </c>
       <c r="D14">
-        <v>0.076043168485083246</v>
+        <v>0.076041729613297665</v>
       </c>
       <c r="E14">
-        <v>0.023582926887517716</v>
+        <v>0.023584693543276945</v>
       </c>
       <c r="F14">
-        <v>0.20641112883395715</v>
+        <v>0.20641094122191636</v>
       </c>
       <c r="G14">
-        <v>-0.10752541324750556</v>
+        <v>-0.10752077871880712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.21327915765933925</v>
+        <v>0.2132793771473056</v>
       </c>
       <c r="B15">
-        <v>0.029538944320532931</v>
+        <v>0.029538824761525095</v>
       </c>
       <c r="C15">
-        <v>-0.022846911859087101</v>
+        <v>-0.022846821655531174</v>
       </c>
       <c r="D15">
-        <v>0.10658205766918581</v>
+        <v>0.10658040337422613</v>
       </c>
       <c r="E15">
-        <v>0.00041990339751303172</v>
+        <v>0.00042208903532881561</v>
       </c>
       <c r="F15">
-        <v>0.22795016386948419</v>
+        <v>0.22794997603713715</v>
       </c>
       <c r="G15">
-        <v>-0.11556657534505914</v>
+        <v>-0.11556060794199434</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.24973855312547785</v>
+        <v>0.24973881013421584</v>
       </c>
       <c r="B16">
-        <v>0.050524749405374395</v>
+        <v>0.050524612148098405</v>
       </c>
       <c r="C16">
-        <v>-0.032701172693316675</v>
+        <v>-0.032701119308739673</v>
       </c>
       <c r="D16">
-        <v>0.17341851112804246</v>
+        <v>0.17341648910024898</v>
       </c>
       <c r="E16">
-        <v>-0.039101231658067101</v>
+        <v>-0.039098485291155838</v>
       </c>
       <c r="F16">
-        <v>0.26606981832389648</v>
+        <v>0.26606971469582624</v>
       </c>
       <c r="G16">
-        <v>-0.12119135709219368</v>
+        <v>-0.12118308145141017</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.2806726617632791</v>
+        <v>0.2806729506066542</v>
       </c>
       <c r="B17">
-        <v>0.07450695057427785</v>
+        <v>0.074506798611417027</v>
       </c>
       <c r="C17">
-        <v>-0.040909450575584441</v>
+        <v>-0.040909441295691205</v>
       </c>
       <c r="D17">
-        <v>0.24236468444045189</v>
+        <v>0.2423623763551411</v>
       </c>
       <c r="E17">
-        <v>-0.07031558836471169</v>
+        <v>-0.070312229526475548</v>
       </c>
       <c r="F17">
-        <v>0.29875322095075824</v>
+        <v>0.29875319284026058</v>
       </c>
       <c r="G17">
-        <v>-0.11703732863717478</v>
+        <v>-0.11702711341389976</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.28921292265759302</v>
+        <v>0.28921322028984614</v>
       </c>
       <c r="B18">
-        <v>0.082232398139259991</v>
+        <v>0.082232241033907</v>
       </c>
       <c r="C18">
-        <v>-0.043062072929947653</v>
+        <v>-0.043062076627045059</v>
       </c>
       <c r="D18">
-        <v>0.26333702580109064</v>
+        <v>0.26333464008871982</v>
       </c>
       <c r="E18">
-        <v>-0.078476343895841683</v>
+        <v>-0.078472821479030286</v>
       </c>
       <c r="F18">
-        <v>0.30790840244743944</v>
+        <v>0.30790838946832955</v>
       </c>
       <c r="G18">
-        <v>-0.11441815744205162</v>
+        <v>-0.11440744204970311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.2987121293736581</v>
+        <v>0.2987124367816511</v>
       </c>
       <c r="B19">
-        <v>0.091415517687065906</v>
+        <v>0.091415353950741809</v>
       </c>
       <c r="C19">
-        <v>-0.045372062710429803</v>
+        <v>-0.04537208124611361</v>
       </c>
       <c r="D19">
-        <v>0.28761615476333346</v>
+        <v>0.28761368439883045</v>
       </c>
       <c r="E19">
-        <v>-0.087315976358448746</v>
+        <v>-0.087312175415921456</v>
       </c>
       <c r="F19">
-        <v>0.31916737053659072</v>
+        <v>0.31916728103390885</v>
       </c>
       <c r="G19">
-        <v>-0.1108222810507781</v>
+        <v>-0.11081105991266349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.31857147850994255</v>
+        <v>0.31857180635541382</v>
       </c>
       <c r="B20">
-        <v>0.11275118302776162</v>
+        <v>0.11275099933837326</v>
       </c>
       <c r="C20">
-        <v>-0.049812970979838098</v>
+        <v>-0.049813021875037701</v>
       </c>
       <c r="D20">
-        <v>0.34173310466597367</v>
+        <v>0.34173045590379786</v>
       </c>
       <c r="E20">
-        <v>-0.10431975070038818</v>
+        <v>-0.10431564293470709</v>
       </c>
       <c r="F20">
-        <v>0.32568697367679483</v>
+        <v>0.32568684592532143</v>
       </c>
       <c r="G20">
-        <v>-0.098970535985611535</v>
+        <v>-0.098958397680286789</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.34339457190277362</v>
+        <v>0.34339492529396787</v>
       </c>
       <c r="B21">
-        <v>0.14339062795584134</v>
+        <v>0.14339041250760498</v>
       </c>
       <c r="C21">
-        <v>-0.054445355740869554</v>
+        <v>-0.054445445823898868</v>
       </c>
       <c r="D21">
-        <v>0.41535445402992377</v>
+        <v>0.41535160579670238</v>
       </c>
       <c r="E21">
-        <v>-0.12294728112312291</v>
+        <v>-0.12294290747437478</v>
       </c>
       <c r="F21">
-        <v>0.30490380979933468</v>
+        <v>0.30490359538599876</v>
       </c>
       <c r="G21">
-        <v>-0.07524124954075688</v>
+        <v>-0.075228497261194349</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.36652788377390882</v>
+        <v>0.36652826097185304</v>
       </c>
       <c r="B22">
-        <v>0.17582295217308666</v>
+        <v>0.17582268544174048</v>
       </c>
       <c r="C22">
-        <v>-0.057465996116974845</v>
+        <v>-0.057466128896186484</v>
       </c>
       <c r="D22">
-        <v>0.49039562245578167</v>
+        <v>0.49039258048739515</v>
       </c>
       <c r="E22">
-        <v>-0.13925297474189124</v>
+        <v>-0.13924864573133489</v>
       </c>
       <c r="F22">
-        <v>0.28502059445729311</v>
+        <v>0.28502032376596165</v>
       </c>
       <c r="G22">
-        <v>-0.047938993036355189</v>
+        <v>-0.047926448005506675</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.38177938850731191</v>
+        <v>0.38177978140075025</v>
       </c>
       <c r="B23">
-        <v>0.19894779292409134</v>
+        <v>0.1989474870736048</v>
       </c>
       <c r="C23">
-        <v>-0.058705072900299304</v>
+        <v>-0.058705234937566068</v>
       </c>
       <c r="D23">
-        <v>0.54270277579864723</v>
+        <v>0.54269962586914533</v>
       </c>
       <c r="E23">
-        <v>-0.150043849177316</v>
+        <v>-0.15003952876028254</v>
       </c>
       <c r="F23">
-        <v>0.27061264256437817</v>
+        <v>0.27061225762456931</v>
       </c>
       <c r="G23">
-        <v>-0.029100715851408877</v>
+        <v>-0.029088449715483539</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.38561723021012395</v>
+        <v>0.38561762705312813</v>
       </c>
       <c r="B24">
-        <v>0.20486645197443001</v>
+        <v>0.20486614163595449</v>
       </c>
       <c r="C24">
-        <v>-0.058967849867939653</v>
+        <v>-0.058968016215369103</v>
       </c>
       <c r="D24">
-        <v>0.55583365317986555</v>
+        <v>0.55583049713916266</v>
       </c>
       <c r="E24">
-        <v>-0.15283569470743072</v>
+        <v>-0.15283138233019231</v>
       </c>
       <c r="F24">
-        <v>0.26759506254267951</v>
+        <v>0.26759466740570537</v>
       </c>
       <c r="G24">
-        <v>-0.024461064439056782</v>
+        <v>-0.024448893490344663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.40608777276440122</v>
+        <v>0.40608819067386964</v>
       </c>
       <c r="B25">
-        <v>0.23626380622000392</v>
+        <v>0.23626352244588153</v>
       </c>
       <c r="C25">
-        <v>-0.060432298254997581</v>
+        <v>-0.060432460674245458</v>
       </c>
       <c r="D25">
-        <v>0.62283000053189375</v>
+        <v>0.62282698395684388</v>
       </c>
       <c r="E25">
-        <v>-0.16776746553082045</v>
+        <v>-0.16776319995183447</v>
       </c>
       <c r="F25">
-        <v>0.24985417190459697</v>
+        <v>0.24985364365923726</v>
       </c>
       <c r="G25">
-        <v>0.00096731283390136128</v>
+        <v>0.00097897353966636775</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.44254716823053986</v>
+        <v>0.44254762366077988</v>
       </c>
       <c r="B26">
-        <v>0.29204011702138072</v>
+        <v>0.29203990572822591</v>
       </c>
       <c r="C26">
-        <v>-0.063033813940206254</v>
+        <v>-0.06303395445900567</v>
       </c>
       <c r="D26">
-        <v>0.73138706210603788</v>
+        <v>0.73138436468168999</v>
       </c>
       <c r="E26">
-        <v>-0.1953359837735078</v>
+        <v>-0.19533187530252283</v>
       </c>
       <c r="F26">
-        <v>0.2191914383888201</v>
+        <v>0.21919063389262478</v>
       </c>
       <c r="G26">
-        <v>0.046659578000736876</v>
+        <v>0.046670724492680893</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.47348127686834107</v>
+        <v>0.4734817641332183</v>
       </c>
       <c r="B27">
-        <v>0.33921894651977835</v>
+        <v>0.33921877502060366</v>
       </c>
       <c r="C27">
-        <v>-0.065234345007371575</v>
+        <v>-0.065234477495880738</v>
       </c>
       <c r="D27">
-        <v>0.81273463070287755</v>
+        <v>0.81273210713940014</v>
       </c>
       <c r="E27">
-        <v>-0.21968901195362561</v>
+        <v>-0.21968505335535063</v>
       </c>
       <c r="F27">
-        <v>0.19416398544603469</v>
+        <v>0.19416290004390435</v>
       </c>
       <c r="G27">
-        <v>0.085863384987825239</v>
+        <v>0.085873736065488815</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.48202153776265494</v>
+        <v>0.48202203381641012</v>
       </c>
       <c r="B28">
-        <v>0.35222070013942242</v>
+        <v>0.35222055105046884</v>
       </c>
       <c r="C28">
-        <v>-0.065840765797094525</v>
+        <v>-0.06584088954600234</v>
       </c>
       <c r="D28">
-        <v>0.83346140944921199</v>
+        <v>0.83345897205070696</v>
       </c>
       <c r="E28">
-        <v>-0.22656578352822915</v>
+        <v>-0.22656188872055891</v>
       </c>
       <c r="F28">
-        <v>0.18742120152334796</v>
+        <v>0.18742001097617586</v>
       </c>
       <c r="G28">
-        <v>0.09676122504081934</v>
+        <v>0.096771255155791297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.50249208031693227</v>
+        <v>0.50249259743715169</v>
       </c>
       <c r="B29">
-        <v>0.38334410828836218</v>
+        <v>0.38334399694117638</v>
       </c>
       <c r="C29">
-        <v>-0.067292420427061295</v>
+        <v>-0.067292530772691969</v>
       </c>
       <c r="D29">
-        <v>0.88010290360472099</v>
+        <v>0.88010061202750145</v>
       </c>
       <c r="E29">
-        <v>-0.2433159396920791</v>
+        <v>-0.24331226236682721</v>
       </c>
       <c r="F29">
-        <v>0.1715625247826513</v>
+        <v>0.17156096614592134</v>
       </c>
       <c r="G29">
-        <v>0.12301806200621863</v>
+        <v>0.12302666989483733</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.5389514757830709</v>
+        <v>0.53895203042406192</v>
       </c>
       <c r="B30">
-        <v>0.43863372476631207</v>
+        <v>0.43863368171779399</v>
       </c>
       <c r="C30">
-        <v>-0.069871228488519857</v>
+        <v>-0.069871312460862742</v>
       </c>
       <c r="D30">
-        <v>0.95259358151098072</v>
+        <v>0.95259153655596096</v>
       </c>
       <c r="E30">
-        <v>-0.27406773341679319</v>
+        <v>-0.27406425424646752</v>
       </c>
       <c r="F30">
-        <v>0.14441615086662338</v>
+        <v>0.14441423650011737</v>
       </c>
       <c r="G30">
-        <v>0.17027833297064854</v>
+        <v>0.1702862263035661</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.569885584420872</v>
+        <v>0.56988617089650029</v>
       </c>
       <c r="B31">
-        <v>0.4854009144362344</v>
+        <v>0.48540092904105242</v>
       </c>
       <c r="C31">
-        <v>-0.072052533434588034</v>
+        <v>-0.072052594064923745</v>
       </c>
       <c r="D31">
-        <v>1.0035275407724837</v>
+        <v>1.0035256852397165</v>
       </c>
       <c r="E31">
-        <v>-0.30106231853891741</v>
+        <v>-0.30105914897833852</v>
       </c>
       <c r="F31">
-        <v>0.12253691266867688</v>
+        <v>0.122534358381853</v>
       </c>
       <c r="G31">
-        <v>0.21088553142485239</v>
+        <v>0.21089152560955149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.57842584531518593</v>
+        <v>0.57842644057969217</v>
       </c>
       <c r="B32">
-        <v>0.4982892086133478</v>
+        <v>0.4982892394100768</v>
       </c>
       <c r="C32">
-        <v>-0.072653665146899804</v>
+        <v>-0.072653718578291254</v>
       </c>
       <c r="D32">
-        <v>1.0158877821189727</v>
+        <v>1.0158859779413858</v>
       </c>
       <c r="E32">
-        <v>-0.30865793064635516</v>
+        <v>-0.30865486638338513</v>
       </c>
       <c r="F32">
-        <v>0.11669000394279122</v>
+        <v>0.1166871940003454</v>
       </c>
       <c r="G32">
-        <v>0.22218043107655291</v>
+        <v>0.22218570381698133</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.5988963878694632</v>
+        <v>0.59889700420043368</v>
       </c>
       <c r="B33">
-        <v>0.52914104438160148</v>
+        <v>0.52914111370801409</v>
       </c>
       <c r="C33">
-        <v>-0.074092644943666158</v>
+        <v>-0.074092680079413692</v>
       </c>
       <c r="D33">
-        <v>1.0425280416524929</v>
+        <v>1.0425263566870988</v>
       </c>
       <c r="E33">
-        <v>-0.32709251703388403</v>
+        <v>-0.32708984044388001</v>
       </c>
       <c r="F33">
-        <v>0.10308530882303332</v>
+        <v>0.10308149325944099</v>
       </c>
       <c r="G33">
-        <v>0.24957869181330797</v>
+        <v>0.2495808360428248</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.63535578333560183</v>
+        <v>0.63535643718734391</v>
       </c>
       <c r="B34">
-        <v>0.5839482202807954</v>
+        <v>0.58394835805742173</v>
       </c>
       <c r="C34">
-        <v>-0.076648936686007904</v>
+        <v>-0.076648936797567027</v>
       </c>
       <c r="D34">
-        <v>1.0795790357826414</v>
+        <v>1.0795775480463139</v>
       </c>
       <c r="E34">
-        <v>-0.36108206089688483</v>
+        <v>-0.36108018347324222</v>
       </c>
       <c r="F34">
-        <v>0.078867060836850467</v>
+        <v>0.078860628492185503</v>
       </c>
       <c r="G34">
-        <v>0.29546430652844086</v>
+        <v>0.29545967239510634</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.66628989197340305</v>
+        <v>0.66629057765978228</v>
       </c>
       <c r="B35">
-        <v>0.63030733298104558</v>
+        <v>0.63030752821421454</v>
       </c>
       <c r="C35">
-        <v>-0.078811195484774291</v>
+        <v>-0.078811164609923504</v>
       </c>
       <c r="D35">
-        <v>1.1006277401788085</v>
+        <v>1.1006264008367221</v>
       </c>
       <c r="E35">
-        <v>-0.39133487807067779</v>
+        <v>-0.39133377608828146</v>
       </c>
       <c r="F35">
-        <v>0.056398108337262005</v>
+        <v>0.056388963838245383</v>
       </c>
       <c r="G35">
-        <v>0.32687709302405121</v>
+        <v>0.32686527852131536</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.67483015286771686</v>
+        <v>0.67483084734297416</v>
       </c>
       <c r="B36">
-        <v>0.64308316704485735</v>
+        <v>0.64308337805058746</v>
       </c>
       <c r="C36">
-        <v>-0.079407078289196145</v>
+        <v>-0.079407038051395609</v>
       </c>
       <c r="D36">
-        <v>1.1047668516521998</v>
+        <v>1.1047655519135378</v>
       </c>
       <c r="E36">
-        <v>-0.39989703281334893</v>
+        <v>-0.39989592473211727</v>
       </c>
       <c r="F36">
-        <v>0.049678919842175324</v>
+        <v>0.049670029155942159</v>
       </c>
       <c r="G36">
-        <v>0.33401730309093514</v>
+        <v>0.33400620792560709</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.69530069542199413</v>
+        <v>0.69530141096371567</v>
       </c>
       <c r="B37">
-        <v>0.6736657966092644</v>
+        <v>0.67366604476836844</v>
       </c>
       <c r="C37">
-        <v>-0.080833492411092681</v>
+        <v>-0.080833428137740485</v>
       </c>
       <c r="D37">
-        <v>1.1117534027719795</v>
+        <v>1.1117521952748628</v>
       </c>
       <c r="E37">
-        <v>-0.42070690695503465</v>
+        <v>-0.42070587048158253</v>
       </c>
       <c r="F37">
-        <v>0.032833519037543987</v>
+        <v>0.032824833195417381</v>
       </c>
       <c r="G37">
-        <v>0.34906206534400946</v>
+        <v>0.34905129705189064</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.73176009088813276</v>
+        <v>0.73176084395062591</v>
       </c>
       <c r="B38">
-        <v>0.7279947356316232</v>
+        <v>0.72799504871701137</v>
       </c>
       <c r="C38">
-        <v>-0.083367460180509126</v>
+        <v>-0.083367349756292064</v>
       </c>
       <c r="D38">
-        <v>1.1139804914060387</v>
+        <v>1.1139794344475864</v>
       </c>
       <c r="E38">
-        <v>-0.4585476688474931</v>
+        <v>-0.45854673396388307</v>
       </c>
       <c r="F38">
-        <v>-0.00053448050055887933</v>
+        <v>-0.00054173525411912093</v>
       </c>
       <c r="G38">
-        <v>0.36791616885381029</v>
+        <v>0.36790854138862911</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.76269419952593398</v>
+        <v>0.76269498442306427</v>
       </c>
       <c r="B39">
-        <v>0.77394932611300671</v>
+        <v>0.77394969273963632</v>
       </c>
       <c r="C39">
-        <v>-0.085510833908493011</v>
+        <v>-0.085510681757197504</v>
       </c>
       <c r="D39">
-        <v>1.1056632119172116</v>
+        <v>1.1056622664858655</v>
       </c>
       <c r="E39">
-        <v>-0.4910581295812913</v>
+        <v>-0.49105730886963195</v>
       </c>
       <c r="F39">
-        <v>-0.032722995379594444</v>
+        <v>-0.032728382804054247</v>
       </c>
       <c r="G39">
-        <v>0.37620410789142844</v>
+        <v>0.37619996983417392</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.77123446042024779</v>
+        <v>0.77123525410625615</v>
       </c>
       <c r="B40">
-        <v>0.78661367946933658</v>
+        <v>0.78661406028406711</v>
       </c>
       <c r="C40">
-        <v>-0.086101511309118875</v>
+        <v>-0.086101346229873921</v>
       </c>
       <c r="D40">
-        <v>1.1017240419515422</v>
+        <v>1.1017231269246468</v>
       </c>
       <c r="E40">
-        <v>-0.50004162466103363</v>
+        <v>-0.50004085654369534</v>
       </c>
       <c r="F40">
-        <v>-0.042306131840498917</v>
+        <v>-0.042310595969266195</v>
       </c>
       <c r="G40">
-        <v>0.37728513411909825</v>
+        <v>0.37728272027434623</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.7847079133659457</v>
+        <v>0.78470872091763499</v>
       </c>
       <c r="B41">
-        <v>0.80653079943040762</v>
+        <v>0.80653120083271346</v>
       </c>
       <c r="C41">
-        <v>-0.086964197764194853</v>
+        <v>-0.086964009979414461</v>
       </c>
       <c r="D41">
-        <v>1.0941929335315075</v>
+        <v>1.0941920686703848</v>
       </c>
       <c r="E41">
-        <v>-0.51418332072561646</v>
+        <v>-0.51418265562705567</v>
       </c>
       <c r="F41">
-        <v>-0.058067772325894461</v>
+        <v>-0.058070375023519957</v>
       </c>
       <c r="G41">
-        <v>0.37797195534482292</v>
+        <v>0.3779727693890888</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.81137813644597123</v>
+        <v>0.8113789714442855</v>
       </c>
       <c r="B42">
-        <v>0.84612682508768078</v>
+        <v>0.84612726387057391</v>
       </c>
       <c r="C42">
-        <v>-0.089055924972167341</v>
+        <v>-0.089055680706501827</v>
       </c>
       <c r="D42">
-        <v>1.0733947807306088</v>
+        <v>1.0733940229921322</v>
       </c>
       <c r="E42">
-        <v>-0.54191668208816945</v>
+        <v>-0.54191673726226586</v>
       </c>
       <c r="F42">
-        <v>-0.091840457322067401</v>
+        <v>-0.09183754912391312</v>
       </c>
       <c r="G42">
-        <v>0.37552678810290568</v>
+        <v>0.37553705615109739</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.84094990894223953</v>
+        <v>0.84095077437319565</v>
       </c>
       <c r="B43">
-        <v>0.88906719019956393</v>
+        <v>0.88906765394396225</v>
       </c>
       <c r="C43">
-        <v>-0.090027220145914133</v>
+        <v>-0.090026904959091103</v>
       </c>
       <c r="D43">
-        <v>1.0447380388410308</v>
+        <v>1.044737411782632</v>
       </c>
       <c r="E43">
-        <v>-0.57200221208216973</v>
+        <v>-0.57200339992148719</v>
       </c>
       <c r="F43">
-        <v>-0.1331306474538401</v>
+        <v>-0.13312151350651916</v>
       </c>
       <c r="G43">
-        <v>0.36778340617577376</v>
+        <v>0.36780376683990879</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.86213367748801484</v>
+        <v>0.86213456471942407</v>
       </c>
       <c r="B44">
-        <v>0.91687099636800296</v>
+        <v>0.91687144850717628</v>
       </c>
       <c r="C44">
-        <v>-0.086261071074683907</v>
+        <v>-0.086260722247800736</v>
       </c>
       <c r="D44">
-        <v>1.0269939569814606</v>
+        <v>1.0269934285239095</v>
       </c>
       <c r="E44">
-        <v>-0.5932075007441836</v>
+        <v>-0.59320921025552231</v>
       </c>
       <c r="F44">
-        <v>-0.1640150953290713</v>
+        <v>-0.16400368354143507</v>
       </c>
       <c r="G44">
-        <v>0.36115568494291855</v>
+        <v>0.36117957375843074</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.86763876797277883</v>
+        <v>0.86763966086953814</v>
       </c>
       <c r="B45">
-        <v>0.92342030048717239</v>
+        <v>0.92342074416628384</v>
       </c>
       <c r="C45">
-        <v>-0.084273089403400031</v>
+        <v>-0.084272738747461981</v>
       </c>
       <c r="D45">
-        <v>1.0234518570674178</v>
+        <v>1.0234513514896282</v>
       </c>
       <c r="E45">
-        <v>-0.5987223231262786</v>
+        <v>-0.59872403450243183</v>
       </c>
       <c r="F45">
-        <v>-0.1719789571722751</v>
+        <v>-0.17196735962821175</v>
       </c>
       <c r="G45">
-        <v>0.35966303645271674</v>
+        <v>0.35968718397901739</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.87113417731715381</v>
+        <v>0.87113507381107802</v>
       </c>
       <c r="B46">
-        <v>0.92751083830879821</v>
+        <v>0.92751127606238615</v>
       </c>
       <c r="C46">
-        <v>-0.082924263831102407</v>
+        <v>-0.082923912812732536</v>
       </c>
       <c r="D46">
-        <v>1.021188272190767</v>
+        <v>1.0211877811675232</v>
       </c>
       <c r="E46">
-        <v>-0.60176766225589151</v>
+        <v>-0.60176925284079186</v>
       </c>
       <c r="F46">
-        <v>-0.17696128625130605</v>
+        <v>-0.17694919287878277</v>
       </c>
       <c r="G46">
-        <v>0.35868018941930208</v>
+        <v>0.35870489594507682</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.87902209015953858</v>
+        <v>0.8790229947710021</v>
       </c>
       <c r="B47">
-        <v>0.93639369949642282</v>
+        <v>0.93639412112779452</v>
       </c>
       <c r="C47">
-        <v>-0.079392426692688381</v>
+        <v>-0.079392078937312482</v>
       </c>
       <c r="D47">
-        <v>1.0164714221993787</v>
+        <v>1.0164709633302806</v>
       </c>
       <c r="E47">
-        <v>-0.61115162971882753</v>
+        <v>-0.6111530920848679</v>
       </c>
       <c r="F47">
-        <v>-0.18874362850266935</v>
+        <v>-0.18873091290109675</v>
       </c>
       <c r="G47">
-        <v>0.35680450726251012</v>
+        <v>0.35683004964290704</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.89050365096126227</v>
+        <v>0.89050456738852835</v>
       </c>
       <c r="B48">
-        <v>0.94843988513183586</v>
+        <v>0.9484402749005173</v>
       </c>
       <c r="C48">
-        <v>-0.073034411553965978</v>
+        <v>-0.073034077896756866</v>
       </c>
       <c r="D48">
-        <v>1.0105585586347994</v>
+        <v>1.0105581488783602</v>
       </c>
       <c r="E48">
-        <v>-0.60999057767351339</v>
+        <v>-0.60999228550202367</v>
       </c>
       <c r="F48">
-        <v>-0.20474784370369575</v>
+        <v>-0.20473412516627265</v>
       </c>
       <c r="G48">
-        <v>0.35330008566804671</v>
+        <v>0.35332704136860466</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.90445391152822474</v>
+        <v>0.90445484231186002</v>
       </c>
       <c r="B49">
-        <v>0.96162717664036412</v>
+        <v>0.96162751507323763</v>
       </c>
       <c r="C49">
-        <v>-0.063394257620383046</v>
+        <v>-0.063393956613844629</v>
       </c>
       <c r="D49">
-        <v>1.0048882232903693</v>
+        <v>1.0048878776902079</v>
       </c>
       <c r="E49">
-        <v>-0.59206751138044977</v>
+        <v>-0.5920699504762551</v>
       </c>
       <c r="F49">
-        <v>-0.22693519744276042</v>
+        <v>-0.2269207412749876</v>
       </c>
       <c r="G49">
-        <v>0.35072243553917654</v>
+        <v>0.35075008221236614</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.91950713889933</v>
+        <v>0.91950808517440996</v>
       </c>
       <c r="B50">
-        <v>0.97402365779984645</v>
+        <v>0.97402392731363419</v>
       </c>
       <c r="C50">
-        <v>-0.050721686875371742</v>
+        <v>-0.050721438330802088</v>
       </c>
       <c r="D50">
-        <v>1.0006532110886568</v>
+        <v>1.0006529431526663</v>
       </c>
       <c r="E50">
-        <v>-0.57500011879195723</v>
+        <v>-0.57500319712405845</v>
       </c>
       <c r="F50">
-        <v>-0.23591365860513394</v>
+        <v>-0.23589800272764386</v>
       </c>
       <c r="G50">
-        <v>0.33747728855797782</v>
+        <v>0.33750726831411715</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.93418978691091792</v>
+        <v>0.93419074829607507</v>
       </c>
       <c r="B51">
-        <v>0.9842962749560612</v>
+        <v>0.98429646591662079</v>
       </c>
       <c r="C51">
-        <v>-0.036154925073299475</v>
+        <v>-0.036154745252508294</v>
       </c>
       <c r="D51">
-        <v>0.99844082294411873</v>
+        <v>0.99844063756709334</v>
       </c>
       <c r="E51">
-        <v>-0.55282416903063258</v>
+        <v>-0.55282780182724234</v>
       </c>
       <c r="F51">
-        <v>-0.22835797622018528</v>
+        <v>-0.22834285653256284</v>
       </c>
       <c r="G51">
-        <v>0.31383413040833202</v>
+        <v>0.31386413071575003</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.94706467123944904</v>
+        <v>0.94706564587429376</v>
       </c>
       <c r="B52">
-        <v>0.99189539451937647</v>
+        <v>0.99189550717525965</v>
       </c>
       <c r="C52">
-        <v>-0.021622636962163131</v>
+        <v>-0.021622528600791075</v>
       </c>
       <c r="D52">
-        <v>0.99810172540288455</v>
+        <v>0.99810161847712597</v>
       </c>
       <c r="E52">
-        <v>-0.53638077103174797</v>
+        <v>-0.53638736402221232</v>
       </c>
       <c r="F52">
-        <v>-0.22544884631254158</v>
+        <v>-0.22542675574183479</v>
       </c>
       <c r="G52">
-        <v>0.29586671979638574</v>
+        <v>0.29590888481082372</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.95687181072975458</v>
+        <v>0.95687279545723614</v>
       </c>
       <c r="B53">
-        <v>0.99683562066957676</v>
+        <v>0.99683566940557855</v>
       </c>
       <c r="C53">
-        <v>-0.0094704023468685766</v>
+        <v>-0.0094703551280927237</v>
       </c>
       <c r="D53">
-        <v>0.99886881671742733</v>
+        <v>0.99886877095495841</v>
       </c>
       <c r="E53">
-        <v>-0.52201435452227973</v>
+        <v>-0.52202459726639361</v>
       </c>
       <c r="F53">
-        <v>-0.22040818683743782</v>
+        <v>-0.22037817963149009</v>
       </c>
       <c r="G53">
-        <v>0.28118224642374468</v>
+        <v>0.28123862157851282</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.9626536571529466</v>
+        <v>0.96265464783059096</v>
       </c>
       <c r="B54">
-        <v>0.9994158512126472</v>
+        <v>0.99941586062295429</v>
       </c>
       <c r="C54">
-        <v>-0.0018729134483123878</v>
+        <v>-0.0018729040070248398</v>
       </c>
       <c r="D54">
-        <v>0.99974275190753792</v>
+        <v>0.99974274334230107</v>
       </c>
       <c r="E54">
-        <v>-0.5150130485181158</v>
+        <v>-0.51502387661618765</v>
       </c>
       <c r="F54">
-        <v>-0.21842691949654877</v>
+        <v>-0.21839601914611881</v>
       </c>
       <c r="G54">
-        <v>0.27403979492915359</v>
+        <v>0.27409804776438268</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.96404307552530988</v>
+        <v>0.96404406763282025</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1363,18 +1395,18 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>-0.51287675582335246</v>
+        <v>-0.51288813803881517</v>
       </c>
       <c r="F55">
-        <v>-0.21749380800224591</v>
+        <v>-0.21746180059246878</v>
       </c>
       <c r="G55">
-        <v>0.27199757689537374</v>
+        <v>0.27205791425879394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.96404307552530988</v>
+        <v>0.96404406763282025</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1386,915 +1418,915 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>-0.51287675582335246</v>
+        <v>-0.51288813803881517</v>
       </c>
       <c r="F56">
-        <v>-0.21749380800224591</v>
+        <v>-0.21746180059246878</v>
       </c>
       <c r="G56">
-        <v>0.27199757689537374</v>
+        <v>0.27205791425879394</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.97418810691104363</v>
+        <v>0.97418913591712109</v>
       </c>
       <c r="B57">
-        <v>1.0038508692790191</v>
+        <v>1.0038508085507927</v>
       </c>
       <c r="C57">
-        <v>0.014227863764633584</v>
+        <v>0.014227831578798979</v>
       </c>
       <c r="D57">
-        <v>1.0024354026032618</v>
+        <v>1.0024354728981464</v>
       </c>
       <c r="E57">
-        <v>-0.49954307959700267</v>
+        <v>-0.49955596732025559</v>
       </c>
       <c r="F57">
-        <v>-0.2122295840443589</v>
+        <v>-0.21219524969490039</v>
       </c>
       <c r="G57">
-        <v>0.25929218302275731</v>
+        <v>0.25935732151143864</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.99225708140588753</v>
+        <v>0.99225817613076295</v>
       </c>
       <c r="B58">
-        <v>1.0089722750698826</v>
+        <v>1.0089720952478065</v>
       </c>
       <c r="C58">
-        <v>0.041931912929785382</v>
+        <v>0.041931834881562116</v>
       </c>
       <c r="D58">
-        <v>1.0092397070597443</v>
+        <v>1.0092399167952315</v>
       </c>
       <c r="E58">
-        <v>-0.47645615284079451</v>
+        <v>-0.4764708226584336</v>
       </c>
       <c r="F58">
-        <v>-0.20133706369924864</v>
+        <v>-0.20129999150171107</v>
       </c>
       <c r="G58">
-        <v>0.23903397264389134</v>
+        <v>0.23910474899658746</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1.0075877695001616</v>
+        <v>1.0075889199843937</v>
       </c>
       <c r="B59">
-        <v>1.0116697891411901</v>
+        <v>1.0116695032498648</v>
       </c>
       <c r="C59">
-        <v>0.067751456383418535</v>
+        <v>0.067751358361950481</v>
       </c>
       <c r="D59">
-        <v>1.0175423194803743</v>
+        <v>1.0175426613561775</v>
       </c>
       <c r="E59">
-        <v>-0.45752295793383724</v>
+        <v>-0.4575389308636868</v>
       </c>
       <c r="F59">
-        <v>-0.1906632049548859</v>
+        <v>-0.19062439557499142</v>
       </c>
       <c r="G59">
-        <v>0.22426827505883595</v>
+        <v>0.2243429047680793</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1.0118202520826551</v>
+        <v>1.0118214179608802</v>
       </c>
       <c r="B60">
-        <v>1.0121616278609569</v>
+        <v>1.0121613133499126</v>
       </c>
       <c r="C60">
-        <v>0.075245297277417078</v>
+        <v>0.075245197135270364</v>
       </c>
       <c r="D60">
-        <v>1.0202505307467344</v>
+        <v>1.0202509097535859</v>
       </c>
       <c r="E60">
-        <v>-0.45239864924100048</v>
+        <v>-0.45241476936814745</v>
       </c>
       <c r="F60">
-        <v>-0.1874980193201882</v>
+        <v>-0.1874591800480461</v>
       </c>
       <c r="G60">
-        <v>0.22058669174042453</v>
+        <v>0.22066146051952526</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1.0219652834683888</v>
+        <v>1.0219664862451809</v>
       </c>
       <c r="B61">
-        <v>1.0129225021757817</v>
+        <v>1.0129221235621648</v>
       </c>
       <c r="C61">
-        <v>0.093824904842137458</v>
+        <v>0.093824802853541112</v>
       </c>
       <c r="D61">
-        <v>1.0274471111544008</v>
+        <v>1.0274475697366083</v>
       </c>
       <c r="E61">
-        <v>-0.44029149069310614</v>
+        <v>-0.44030773583901933</v>
       </c>
       <c r="F61">
-        <v>-0.17954340375909303</v>
+        <v>-0.17950513774315177</v>
       </c>
       <c r="G61">
-        <v>0.21246361593995189</v>
+        <v>0.21253734897340329</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1.0400342579632327</v>
+        <v>1.0400355264588228</v>
       </c>
       <c r="B62">
-        <v>1.0128161996416076</v>
+        <v>1.0128157135745657</v>
       </c>
       <c r="C62">
-        <v>0.12914993933419616</v>
+        <v>0.12914988042592079</v>
       </c>
       <c r="D62">
-        <v>1.0430776721437838</v>
+        <v>1.0430783073674803</v>
       </c>
       <c r="E62">
-        <v>-0.41931266387431321</v>
+        <v>-0.41932836009990337</v>
       </c>
       <c r="F62">
-        <v>-0.16415216432961555</v>
+        <v>-0.1641163850940332</v>
       </c>
       <c r="G62">
-        <v>0.20046664421807933</v>
+        <v>0.20053500454583939</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1.0553649460575067</v>
+        <v>1.0553662703124536</v>
       </c>
       <c r="B63">
-        <v>1.011488977498713</v>
+        <v>1.0114884376244946</v>
       </c>
       <c r="C63">
-        <v>0.161072492201986</v>
+        <v>0.16107247219272683</v>
       </c>
       <c r="D63">
-        <v>1.0586307532710253</v>
+        <v>1.0586314522028772</v>
       </c>
       <c r="E63">
-        <v>-0.4020542609410811</v>
+        <v>-0.40206887891866805</v>
       </c>
       <c r="F63">
-        <v>-0.14994756771997328</v>
+        <v>-0.14991541232762282</v>
       </c>
       <c r="G63">
-        <v>0.19278837170363183</v>
+        <v>0.1928482291261612</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.0595974286400003</v>
+        <v>1.0595987682889401</v>
       </c>
       <c r="B64">
-        <v>1.0109954785840396</v>
+        <v>1.0109949422962141</v>
       </c>
       <c r="C64">
-        <v>0.17009080542219204</v>
+        <v>0.17009077347998439</v>
       </c>
       <c r="D64">
-        <v>1.063044044163475</v>
+        <v>1.0630446908111011</v>
       </c>
       <c r="E64">
-        <v>-0.39736915702731657</v>
+        <v>-0.39738317607628254</v>
       </c>
       <c r="F64">
-        <v>-0.14585287039222589</v>
+        <v>-0.14582251359625917</v>
       </c>
       <c r="G64">
-        <v>0.19107304092885935</v>
+        <v>0.19112859829492543</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1.0697424600257339</v>
+        <v>1.0697438365732408</v>
       </c>
       <c r="B65">
-        <v>1.0098291494063818</v>
+        <v>1.0098286290412697</v>
       </c>
       <c r="C65">
-        <v>0.19166783010903946</v>
+        <v>0.19166775648023165</v>
       </c>
       <c r="D65">
-        <v>1.0728329708219819</v>
+        <v>1.0728334553052821</v>
       </c>
       <c r="E65">
-        <v>-0.38626270219544923</v>
+        <v>-0.38627486565028163</v>
       </c>
       <c r="F65">
-        <v>-0.13576449438232255</v>
+        <v>-0.13573969875909528</v>
       </c>
       <c r="G65">
-        <v>0.18763495310082456</v>
+        <v>0.18767701595261307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.0878114345205778</v>
+        <v>1.0878128767868829</v>
       </c>
       <c r="B66">
-        <v>1.0077544762574682</v>
+        <v>1.0077539683893029</v>
       </c>
       <c r="C66">
-        <v>0.23004873840266116</v>
+        <v>0.23004861826315853</v>
       </c>
       <c r="D66">
-        <v>1.0877261041693926</v>
+        <v>1.0877263546933407</v>
       </c>
       <c r="E66">
-        <v>-0.36689571638329677</v>
+        <v>-0.36689868873976378</v>
       </c>
       <c r="F66">
-        <v>-0.11678702273910552</v>
+        <v>-0.11679130860407133</v>
       </c>
       <c r="G66">
-        <v>0.18416349689783665</v>
+        <v>0.1841303766845255</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1.1031421226148521</v>
+        <v>1.1031436206405134</v>
       </c>
       <c r="B67">
-        <v>1.0059968959504961</v>
+        <v>1.0059964069429581</v>
       </c>
       <c r="C67">
-        <v>0.26256373788989085</v>
+        <v>0.26256356453794988</v>
       </c>
       <c r="D67">
-        <v>1.097816022577796</v>
+        <v>1.0978160231187142</v>
       </c>
       <c r="E67">
-        <v>-0.35074555590441298</v>
+        <v>-0.35073838196686907</v>
       </c>
       <c r="F67">
-        <v>-0.099975279573754489</v>
+        <v>-0.10001368120142938</v>
       </c>
       <c r="G67">
-        <v>0.18326166313279718</v>
+        <v>0.18313768084447701</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.1073746051973454</v>
+        <v>1.1073761186169999</v>
       </c>
       <c r="B68">
-        <v>1.0055120867089262</v>
+        <v>1.0055115971110646</v>
       </c>
       <c r="C68">
-        <v>0.2715324865977104</v>
+        <v>0.27153230868249317</v>
       </c>
       <c r="D68">
-        <v>1.100190885237404</v>
+        <v>1.1001908402830587</v>
       </c>
       <c r="E68">
-        <v>-0.346293747523157</v>
+        <v>-0.34628540209322306</v>
       </c>
       <c r="F68">
-        <v>-0.095328121480729638</v>
+        <v>-0.095371088447684285</v>
       </c>
       <c r="G68">
-        <v>0.18307601700569165</v>
+        <v>0.18293912262835393</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1.1175196365830791</v>
+        <v>1.1175211869013009</v>
       </c>
       <c r="B69">
-        <v>1.004350794976244</v>
+        <v>1.0043503105106981</v>
       </c>
       <c r="C69">
-        <v>0.29301603002575205</v>
+        <v>0.29301583048802488</v>
       </c>
       <c r="D69">
-        <v>1.1051609119320194</v>
+        <v>1.1051607268299994</v>
       </c>
       <c r="E69">
-        <v>-0.33558222699222684</v>
+        <v>-0.33557833043344387</v>
       </c>
       <c r="F69">
-        <v>-0.084401253241468979</v>
+        <v>-0.084426498429371041</v>
       </c>
       <c r="G69">
-        <v>0.18209695679556473</v>
+        <v>0.18201026737009937</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.1355886110779232</v>
+        <v>1.1355902271149427</v>
       </c>
       <c r="B70">
-        <v>1.0022851045815557</v>
+        <v>1.0022846271516614</v>
       </c>
       <c r="C70">
-        <v>0.33123061788539004</v>
+        <v>0.33123038436998736</v>
       </c>
       <c r="D70">
-        <v>1.1114931532295012</v>
+        <v>1.1114927149958367</v>
       </c>
       <c r="E70">
-        <v>-0.31645399644282324</v>
+        <v>-0.31646353343515982</v>
       </c>
       <c r="F70">
-        <v>-0.065366666229585771</v>
+        <v>-0.065330497030708271</v>
       </c>
       <c r="G70">
-        <v>0.17930110559146362</v>
+        <v>0.17939697784493214</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.1509192991721973</v>
+        <v>1.1509209709685735</v>
       </c>
       <c r="B71">
-        <v>1.0005351201796482</v>
+        <v>1.0005346483471731</v>
       </c>
       <c r="C71">
-        <v>0.36360474037674029</v>
+        <v>0.36360447916065475</v>
       </c>
       <c r="D71">
-        <v>1.114341634956642</v>
+        <v>1.1143409687995314</v>
       </c>
       <c r="E71">
-        <v>-0.30024287266667671</v>
+        <v>-0.30025580576499555</v>
       </c>
       <c r="F71">
-        <v>-0.049380913594647406</v>
+        <v>-0.049328551637814307</v>
       </c>
       <c r="G71">
-        <v>0.17659147846051912</v>
+        <v>0.17673636165937293</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1.1551517817546906</v>
+        <v>1.15515346894506</v>
       </c>
       <c r="B72">
-        <v>1.0000524146390943</v>
+        <v>1.0000519438049302</v>
       </c>
       <c r="C72">
-        <v>0.37253461613254035</v>
+        <v>0.3725343485373786</v>
       </c>
       <c r="D72">
-        <v>1.1147208050816992</v>
+        <v>1.1147200771728631</v>
       </c>
       <c r="E72">
-        <v>-0.29578153624301418</v>
+        <v>-0.29579240015592467</v>
       </c>
       <c r="F72">
-        <v>-0.044936448870720631</v>
+        <v>-0.044897280750653745</v>
       </c>
       <c r="G72">
-        <v>0.17596332401546</v>
+        <v>0.17606540639920476</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.1652968131404244</v>
+        <v>1.1652985372293607</v>
       </c>
       <c r="B73">
-        <v>0.99889615116837871</v>
+        <v>0.99889568253887873</v>
       </c>
       <c r="C73">
-        <v>0.39392506301441826</v>
+        <v>0.39392478114894414</v>
       </c>
       <c r="D73">
-        <v>1.1149135615127541</v>
+        <v>1.1149126847630497</v>
       </c>
       <c r="E73">
-        <v>-0.28508234556999373</v>
+        <v>-0.28509007392179647</v>
       </c>
       <c r="F73">
-        <v>-0.034415325454654908</v>
+        <v>-0.034400325636098579</v>
       </c>
       <c r="G73">
-        <v>0.174064819429078</v>
+        <v>0.17408577496627475</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1.1833657876352683</v>
+        <v>1.1833675774430026</v>
       </c>
       <c r="B74">
-        <v>0.99683940678371086</v>
+        <v>0.99683894110637949</v>
       </c>
       <c r="C74">
-        <v>0.4319740498789616</v>
+        <v>0.43197374565507107</v>
       </c>
       <c r="D74">
-        <v>1.1127589560021869</v>
+        <v>1.1127578079271723</v>
       </c>
       <c r="E74">
-        <v>-0.266037380946062</v>
+        <v>-0.26604262791723643</v>
       </c>
       <c r="F74">
-        <v>-0.016186186330576665</v>
+        <v>-0.016195446982325556</v>
       </c>
       <c r="G74">
-        <v>0.16896713280104209</v>
+        <v>0.16890313257910586</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1.1986964757295424</v>
+        <v>1.1986983212966333</v>
       </c>
       <c r="B75">
-        <v>0.99509700142278956</v>
+        <v>0.99509653805701326</v>
       </c>
       <c r="C75">
-        <v>0.46420788085028775</v>
+        <v>0.46420755883355913</v>
       </c>
       <c r="D75">
-        <v>1.1084285740915858</v>
+        <v>1.108427183647446</v>
       </c>
       <c r="E75">
-        <v>-0.24992774230436915</v>
+        <v>-0.24993282800324007</v>
       </c>
       <c r="F75">
-        <v>-0.0012769235832496243</v>
+        <v>-0.0012921424693237793</v>
       </c>
       <c r="G75">
-        <v>0.16254259693307391</v>
+        <v>0.16245522777974816</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.2029289583120357</v>
+        <v>1.2029308192731198</v>
       </c>
       <c r="B76">
-        <v>0.99461638692561416</v>
+        <v>0.99461592395373244</v>
       </c>
       <c r="C76">
-        <v>0.47309905893904125</v>
+        <v>0.47309873294284682</v>
       </c>
       <c r="D76">
-        <v>1.1068293314679505</v>
+        <v>1.1068278748084064</v>
       </c>
       <c r="E76">
-        <v>-0.24549792028014161</v>
+        <v>-0.24550289329633615</v>
       </c>
       <c r="F76">
-        <v>0.0027783878970751475</v>
+        <v>0.0027601947181149218</v>
       </c>
       <c r="G76">
-        <v>0.16049634673996424</v>
+        <v>0.16039755443907971</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1.2130739896977696</v>
+        <v>1.2130758875574206</v>
       </c>
       <c r="B77">
-        <v>0.99346513250109592</v>
+        <v>0.99346467041145259</v>
       </c>
       <c r="C77">
-        <v>0.49439681072085434</v>
+        <v>0.49439647652047847</v>
       </c>
       <c r="D77">
-        <v>1.102286136369286</v>
+        <v>1.1022845220652639</v>
       </c>
       <c r="E77">
-        <v>-0.23491689151524284</v>
+        <v>-0.23492175430938778</v>
       </c>
       <c r="F77">
-        <v>0.012354855845219342</v>
+        <v>0.012335570650797888</v>
       </c>
       <c r="G77">
-        <v>0.15493492739496778</v>
+        <v>0.15483184626292959</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.2311429641926135</v>
+        <v>1.2311449277710627</v>
       </c>
       <c r="B78">
-        <v>0.99141729912041943</v>
+        <v>0.99141683824462878</v>
       </c>
       <c r="C78">
-        <v>0.53228091306129799</v>
+        <v>0.53228056730773665</v>
       </c>
       <c r="D78">
-        <v>1.0917180949950378</v>
+        <v>1.0917161959344779</v>
       </c>
       <c r="E78">
-        <v>-0.21624690066979377</v>
+        <v>-0.21625141739240625</v>
       </c>
       <c r="F78">
-        <v>0.029028594916990679</v>
+        <v>0.029010622378516319</v>
       </c>
       <c r="G78">
-        <v>0.14297162386697423</v>
+        <v>0.14287391119400461</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1.2464736522868876</v>
+        <v>1.2464756716246932</v>
       </c>
       <c r="B79">
-        <v>0.98968244340395428</v>
+        <v>0.98968198370070104</v>
       </c>
       <c r="C79">
-        <v>0.56437506040144481</v>
+        <v>0.56437470664013001</v>
       </c>
       <c r="D79">
-        <v>1.0802709514921067</v>
+        <v>1.0802688027930745</v>
       </c>
       <c r="E79">
-        <v>-0.20063547214405883</v>
+        <v>-0.2006394219036545</v>
       </c>
       <c r="F79">
-        <v>0.042849971402677545</v>
+        <v>0.042833347745034021</v>
       </c>
       <c r="G79">
-        <v>0.13071464024667676</v>
+        <v>0.13062375969516088</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1.2507061348693809</v>
+        <v>1.2507081696011797</v>
       </c>
       <c r="B80">
-        <v>0.9892039117130681</v>
+        <v>0.98920345231196993</v>
       </c>
       <c r="C80">
-        <v>0.57322770935625911</v>
+        <v>0.57322735451042373</v>
       </c>
       <c r="D80">
-        <v>1.0767104142005892</v>
+        <v>1.0767081989453569</v>
       </c>
       <c r="E80">
-        <v>-0.19636976261235253</v>
+        <v>-0.19637342956721041</v>
       </c>
       <c r="F80">
-        <v>0.046623311969665966</v>
+        <v>0.046607808089164433</v>
       </c>
       <c r="G80">
-        <v>0.12699326304134217</v>
+        <v>0.12690778123619248</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1.2608511662551147</v>
+        <v>1.2608532378854804</v>
       </c>
       <c r="B81">
-        <v>0.98806200988222836</v>
+        <v>0.98806155088566539</v>
       </c>
       <c r="C81">
-        <v>0.59444295866151087</v>
+        <v>0.59444260130474902</v>
       </c>
       <c r="D81">
-        <v>1.0675326269722349</v>
+        <v>1.0675302473278081</v>
       </c>
       <c r="E81">
-        <v>-0.18623128734643021</v>
+        <v>-0.18623416621727537</v>
       </c>
       <c r="F81">
-        <v>0.055608127803850368</v>
+        <v>0.055595146209383363</v>
       </c>
       <c r="G81">
-        <v>0.11749761626532312</v>
+        <v>0.11742514265662626</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1.2789201407499586</v>
+        <v>1.2789222780991225</v>
       </c>
       <c r="B82">
-        <v>0.986009127508226</v>
+        <v>0.98600867651960011</v>
       </c>
       <c r="C82">
-        <v>0.63213166195616421</v>
+        <v>0.63213132706540054</v>
       </c>
       <c r="D82">
-        <v>1.0484311899004226</v>
+        <v>1.0484286462705872</v>
       </c>
       <c r="E82">
-        <v>-0.16853263048945799</v>
+        <v>-0.16853220627880866</v>
       </c>
       <c r="F82">
-        <v>0.071406803993370044</v>
+        <v>0.071402080009244209</v>
       </c>
       <c r="G82">
-        <v>0.098314958627075386</v>
+        <v>0.098289155338016437</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1.2942508288442327</v>
+        <v>1.2942530219527533</v>
       </c>
       <c r="B83">
-        <v>0.98431620979121137</v>
+        <v>0.98431578115557217</v>
       </c>
       <c r="C83">
-        <v>0.66416398936927046</v>
+        <v>0.66416372193836615</v>
       </c>
       <c r="D83">
-        <v>1.0304057330246723</v>
+        <v>1.0304033165959414</v>
       </c>
       <c r="E83">
-        <v>-0.15388725788867527</v>
+        <v>-0.15388425103798967</v>
       </c>
       <c r="F83">
-        <v>0.084740929189214081</v>
+        <v>0.084741963444535995</v>
       </c>
       <c r="G83">
-        <v>0.080239585897956045</v>
+        <v>0.080247913751271119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.2984833114267262</v>
+        <v>1.2984855199292396</v>
       </c>
       <c r="B84">
-        <v>0.98388696169757428</v>
+        <v>0.98388654186690017</v>
       </c>
       <c r="C84">
-        <v>0.67308421203060664</v>
+        <v>0.67308397104569306</v>
       </c>
       <c r="D84">
-        <v>1.0255546522324621</v>
+        <v>1.0255523189697022</v>
       </c>
       <c r="E84">
-        <v>-0.14989375686331322</v>
+        <v>-0.14989094617443638</v>
       </c>
       <c r="F84">
-        <v>0.088453839110147647</v>
+        <v>0.08845442321895973</v>
       </c>
       <c r="G84">
-        <v>0.075177052612419221</v>
+        <v>0.075182581994753084</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1.3086283428124599</v>
+        <v>1.3086305882135405</v>
       </c>
       <c r="B85">
-        <v>0.98301136675837908</v>
+        <v>0.98301096412279243</v>
       </c>
       <c r="C85">
-        <v>0.69476286367914786</v>
+        <v>0.69476266935900688</v>
       </c>
       <c r="D85">
-        <v>1.0152012377237203</v>
+        <v>1.0151990312846435</v>
       </c>
       <c r="E85">
-        <v>-0.14038414201021479</v>
+        <v>-0.14038253737009698</v>
       </c>
       <c r="F85">
-        <v>0.097444440271830121</v>
+        <v>0.097442946296487351</v>
       </c>
       <c r="G85">
-        <v>0.063175704687489093</v>
+        <v>0.063167290346226812</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1.3266973173073038</v>
+        <v>1.3266996284271824</v>
       </c>
       <c r="B86">
-        <v>0.98197628990284336</v>
+        <v>0.98197591923035843</v>
       </c>
       <c r="C86">
-        <v>0.73415312762830398</v>
+        <v>0.73415300478867906</v>
       </c>
       <c r="D86">
-        <v>1.0000126614116971</v>
+        <v>1.0000106825392434</v>
       </c>
       <c r="E86">
-        <v>-0.12371649721174084</v>
+        <v>-0.12371386509620803</v>
       </c>
       <c r="F86">
-        <v>0.11370442013943866</v>
+        <v>0.11370452232452247</v>
       </c>
       <c r="G86">
-        <v>0.041768918647959626</v>
+        <v>0.041770764368201749</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1.3420280054015779</v>
+        <v>1.3420303722808131</v>
       </c>
       <c r="B87">
-        <v>0.98171753944047513</v>
+        <v>0.98171719995455953</v>
       </c>
       <c r="C87">
-        <v>0.76827252219344622</v>
+        <v>0.7682724514775825</v>
       </c>
       <c r="D87">
-        <v>0.99038518037253565</v>
+        <v>0.99038342081825059</v>
       </c>
       <c r="E87">
-        <v>-0.10982030780968426</v>
+        <v>-0.10981784586062725</v>
       </c>
       <c r="F87">
-        <v>0.12778381658033011</v>
+        <v>0.12778348761935371</v>
       </c>
       <c r="G87">
-        <v>0.023855073688957916</v>
+        <v>0.023853968675865492</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.3462604879840714</v>
+        <v>1.3462628702572994</v>
       </c>
       <c r="B88">
-        <v>0.98175904760127974</v>
+        <v>0.9817587170003762</v>
       </c>
       <c r="C88">
-        <v>0.77779320934562313</v>
+        <v>0.77779315049786901</v>
       </c>
       <c r="D88">
-        <v>0.98825309837141151</v>
+        <v>0.98825139704010867</v>
       </c>
       <c r="E88">
-        <v>-0.10602613596588774</v>
+        <v>-0.10602339556248469</v>
       </c>
       <c r="F88">
-        <v>0.13171136424866556</v>
+        <v>0.13171141961442998</v>
       </c>
       <c r="G88">
-        <v>0.018920158885627775</v>
+        <v>0.018921693461404307</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1.356405519369805</v>
+        <v>1.3564079385416004</v>
       </c>
       <c r="B89">
-        <v>0.9820749834996132</v>
+        <v>0.98207467546304539</v>
       </c>
       <c r="C89">
-        <v>0.8007749337105019</v>
+        <v>0.80077490084653336</v>
       </c>
       <c r="D89">
-        <v>0.98406697435648449</v>
+        <v>0.98406542196448488</v>
       </c>
       <c r="E89">
-        <v>-0.097000652231444162</v>
+        <v>-0.096997541178773433</v>
       </c>
       <c r="F89">
-        <v>0.14120440183091648</v>
+        <v>0.14120478523238653</v>
       </c>
       <c r="G89">
-        <v>0.0071697742731989551</v>
+        <v>0.0071740896481308691</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1.3744744938646489</v>
+        <v>1.3744769787552422</v>
       </c>
       <c r="B90">
-        <v>0.98345985904210609</v>
+        <v>0.98345959641294034</v>
       </c>
       <c r="C90">
-        <v>0.8422049305881163</v>
+        <v>0.84220493262444218</v>
       </c>
       <c r="D90">
-        <v>0.97983283684930556</v>
+        <v>0.97983156701956009</v>
       </c>
       <c r="E90">
-        <v>-0.081176096061046366</v>
+        <v>-0.081172845790722481</v>
       </c>
       <c r="F90">
-        <v>0.15836807559809807</v>
+        <v>0.15836861348478043</v>
       </c>
       <c r="G90">
-        <v>-0.013591510516473445</v>
+        <v>-0.013586670422982762</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1.389805181958923</v>
+        <v>1.389807722608873</v>
       </c>
       <c r="B91">
-        <v>0.98554767404646393</v>
+        <v>0.9855474570351207</v>
       </c>
       <c r="C91">
-        <v>0.87776747169066183</v>
+        <v>0.87776749205932514</v>
       </c>
       <c r="D91">
-        <v>0.97946202511275204</v>
+        <v>0.97946101729604462</v>
       </c>
       <c r="E91">
-        <v>-0.067999591847164934</v>
+        <v>-0.067996059247541193</v>
       </c>
       <c r="F91">
-        <v>0.17318176357904863</v>
+        <v>0.17318252818193638</v>
       </c>
       <c r="G91">
-        <v>-0.031033516510827121</v>
+        <v>-0.031026982691008127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1.3940376645414165</v>
+        <v>1.3940402205853593</v>
       </c>
       <c r="B92">
-        <v>0.98628363501198169</v>
+        <v>0.98628343171654043</v>
       </c>
       <c r="C92">
-        <v>0.88763940608636016</v>
+        <v>0.88763942946663998</v>
       </c>
       <c r="D92">
-        <v>0.97987837596504124</v>
+        <v>0.97987744246510933</v>
       </c>
       <c r="E92">
-        <v>-0.064402234289058252</v>
+        <v>-0.064398639059289969</v>
       </c>
       <c r="F92">
-        <v>0.17731110796642902</v>
+        <v>0.17731190931830024</v>
       </c>
       <c r="G92">
-        <v>-0.035822138496891261</v>
+        <v>-0.035815318606428899</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.4041826959271502</v>
+        <v>1.4041852888696602</v>
       </c>
       <c r="B93">
-        <v>0.98834507688733575</v>
+        <v>0.98834490888717996</v>
       </c>
       <c r="C93">
-        <v>0.91137901700261537</v>
+        <v>0.91137904434219219</v>
       </c>
       <c r="D93">
-        <v>0.98178664666057724</v>
+        <v>0.98178589692129592</v>
       </c>
       <c r="E93">
-        <v>-0.055850291266352492</v>
+        <v>-0.055846377043665602</v>
       </c>
       <c r="F93">
-        <v>0.18727756715718719</v>
+        <v>0.18727852638436576</v>
       </c>
       <c r="G93">
-        <v>-0.047251503506683876</v>
+        <v>-0.047242833390858767</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1.4222516704219941</v>
+        <v>1.4222543290833021</v>
       </c>
       <c r="B94">
-        <v>0.99311711398689295</v>
+        <v>0.99311701854566214</v>
       </c>
       <c r="C94">
-        <v>0.95386174830897652</v>
+        <v>0.95386177079936352</v>
       </c>
       <c r="D94">
-        <v>0.98835233616314766</v>
+        <v>0.9883519324919342</v>
       </c>
       <c r="E94">
-        <v>-0.040867102953522874</v>
+        <v>-0.040863057113973478</v>
       </c>
       <c r="F94">
-        <v>0.20526291514820838</v>
+        <v>0.20526402116952372</v>
       </c>
       <c r="G94">
-        <v>-0.067452424550113327</v>
+        <v>-0.067443307840942254</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1.4375823585162681</v>
+        <v>1.4375850729369328</v>
       </c>
       <c r="B95">
-        <v>0.99835194832246532</v>
+        <v>0.99835192613343071</v>
       </c>
       <c r="C95">
-        <v>0.99001464543346651</v>
+        <v>0.99001465186562476</v>
       </c>
       <c r="D95">
-        <v>0.99708225919199633</v>
+        <v>0.99708216992741039</v>
       </c>
       <c r="E95">
-        <v>-0.028402401229950525</v>
+        <v>-0.028398081972049991</v>
       </c>
       <c r="F95">
-        <v>0.22075187082943085</v>
+        <v>0.22075312374824738</v>
       </c>
       <c r="G95">
-        <v>-0.08443436192275601</v>
+        <v>-0.084423930666931379</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1.4418148410987617</v>
+        <v>1.4418175709134193</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2306,18 +2338,18 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>-0.025001191079016664</v>
+        <v>-0.0249968015209662</v>
       </c>
       <c r="F96">
-        <v>0.22506419664800217</v>
+        <v>0.22506547936016957</v>
       </c>
       <c r="G96">
-        <v>-0.089098297609288626</v>
+        <v>-0.089087580139477721</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.4418148410987617</v>
+        <v>1.4418175709134193</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2329,1283 +2361,1283 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>-0.025001191079016664</v>
+        <v>-0.0249968015209662</v>
       </c>
       <c r="F97">
-        <v>0.22506419664800217</v>
+        <v>0.22506547936016957</v>
       </c>
       <c r="G97">
-        <v>-0.089098297609288626</v>
+        <v>-0.089087580139477721</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.4643102681416438</v>
+        <v>1.4643129030372004</v>
       </c>
       <c r="B98">
-        <v>1.0103192704894364</v>
+        <v>1.0103193134835715</v>
       </c>
       <c r="C98">
-        <v>1.0529943745220909</v>
+        <v>1.0529939112215723</v>
       </c>
       <c r="D98">
-        <v>1.0191642752889336</v>
+        <v>1.0191645974833063</v>
       </c>
       <c r="E98">
-        <v>-0.0072495421210418774</v>
+        <v>-0.0072447430719189002</v>
       </c>
       <c r="F98">
-        <v>0.24823643229765499</v>
+        <v>0.24823769687691746</v>
       </c>
       <c r="G98">
-        <v>-0.11386801611242402</v>
+        <v>-0.11385458912198494</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1.5043761173276851</v>
+        <v>1.5043785831660199</v>
       </c>
       <c r="B99">
-        <v>1.0357553993678017</v>
+        <v>1.0357554868379162</v>
       </c>
       <c r="C99">
-        <v>1.146328149786493</v>
+        <v>1.1463268278989316</v>
       </c>
       <c r="D99">
-        <v>1.0683243079992075</v>
+        <v>1.0683250591738425</v>
       </c>
       <c r="E99">
-        <v>0.024117842505607529</v>
+        <v>0.024122459883353799</v>
       </c>
       <c r="F99">
-        <v>0.29049559550566378</v>
+        <v>0.2904968506301675</v>
       </c>
       <c r="G99">
-        <v>-0.15379014182850886</v>
+        <v>-0.15377660325438902</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1.5383701349338694</v>
+        <v>1.5383724573349808</v>
       </c>
       <c r="B100">
-        <v>1.0651882577302103</v>
+        <v>1.0651883535015054</v>
       </c>
       <c r="C100">
-        <v>1.2233845059338271</v>
+        <v>1.2233824473134791</v>
       </c>
       <c r="D100">
-        <v>1.1247711157922435</v>
+        <v>1.1247720876096858</v>
       </c>
       <c r="E100">
-        <v>0.052784729220089005</v>
+        <v>0.052788780648405698</v>
       </c>
       <c r="F100">
-        <v>0.32692220123230448</v>
+        <v>0.32692338755089589</v>
       </c>
       <c r="G100">
-        <v>-0.17673867661642428</v>
+        <v>-0.17672614247066845</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1.5477551727444609</v>
+        <v>1.5477574555455527</v>
       </c>
       <c r="B101">
-        <v>1.0746845614004417</v>
+        <v>1.0746846549224982</v>
       </c>
       <c r="C101">
-        <v>1.244160760711285</v>
+        <v>1.2441585008189271</v>
       </c>
       <c r="D101">
-        <v>1.1426820349242279</v>
+        <v>1.1426830432256723</v>
       </c>
       <c r="E101">
-        <v>0.061435267874507239</v>
+        <v>0.061439028650372679</v>
       </c>
       <c r="F101">
-        <v>0.33696213221615801</v>
+        <v>0.33696329840701716</v>
       </c>
       <c r="G101">
-        <v>-0.18035451029257893</v>
+        <v>-0.18034274730475588</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1.5524837087705399</v>
+        <v>1.552485971619648</v>
       </c>
       <c r="B102">
-        <v>1.079702914834366</v>
+        <v>1.079703006267237</v>
       </c>
       <c r="C102">
-        <v>1.2545327167411977</v>
+        <v>1.2545303563135854</v>
       </c>
       <c r="D102">
-        <v>1.1520819640074944</v>
+        <v>1.1520829863706918</v>
       </c>
       <c r="E102">
-        <v>0.065837984668274604</v>
+        <v>0.065841515331331271</v>
       </c>
       <c r="F102">
-        <v>0.34190578667149923</v>
+        <v>0.34190682161168945</v>
       </c>
       <c r="G102">
-        <v>-0.1820011201099648</v>
+        <v>-0.1819898080247444</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1.5630493818939541</v>
+        <v>1.5630516001613706</v>
       </c>
       <c r="B103">
-        <v>1.0914936501549344</v>
+        <v>1.0914937345746201</v>
       </c>
       <c r="C103">
-        <v>1.2774579123970122</v>
+        <v>1.2774553297149112</v>
       </c>
       <c r="D103">
-        <v>1.1739876488115299</v>
+        <v>1.1739886923315899</v>
       </c>
       <c r="E103">
-        <v>0.075983309642077196</v>
+        <v>0.075986342755817921</v>
       </c>
       <c r="F103">
-        <v>0.35363059287353538</v>
+        <v>0.35363158496659058</v>
       </c>
       <c r="G103">
-        <v>-0.18470913831080754</v>
+        <v>-0.18469909246350305</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.5781414826405391</v>
+        <v>1.5781436372270734</v>
       </c>
       <c r="B104">
-        <v>1.1097508054913963</v>
+        <v>1.1097508745973188</v>
       </c>
       <c r="C104">
-        <v>1.309551571329552</v>
+        <v>1.3095486778852872</v>
       </c>
       <c r="D104">
-        <v>1.2074166338322239</v>
+        <v>1.2074176849021352</v>
       </c>
       <c r="E104">
-        <v>0.091089834388745253</v>
+        <v>0.09109201100248035</v>
       </c>
       <c r="F104">
-        <v>0.3685311064227535</v>
+        <v>0.36853210144514104</v>
       </c>
       <c r="G104">
-        <v>-0.18667583377560529</v>
+        <v>-0.18666789035341491</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1.5959382461932661</v>
+        <v>1.595940325686636</v>
       </c>
       <c r="B105">
-        <v>1.1334865816451212</v>
+        <v>1.1334866236800896</v>
       </c>
       <c r="C105">
-        <v>1.3462957161314133</v>
+        <v>1.3462924689617075</v>
       </c>
       <c r="D105">
-        <v>1.2500169745730505</v>
+        <v>1.2500180007942279</v>
       </c>
       <c r="E105">
-        <v>0.11029911527622066</v>
+        <v>0.11029998028665622</v>
       </c>
       <c r="F105">
-        <v>0.38988628975553069</v>
+        <v>0.38988689662309389</v>
       </c>
       <c r="G105">
-        <v>-0.18517028059696494</v>
+        <v>-0.18516559809336813</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1.6142928875245057</v>
+        <v>1.6142948895707547</v>
       </c>
       <c r="B106">
-        <v>1.1605586124175207</v>
+        <v>1.1605586127002581</v>
       </c>
       <c r="C106">
-        <v>1.3827911881784689</v>
+        <v>1.3827875940242011</v>
       </c>
       <c r="D106">
-        <v>1.2974843414683648</v>
+        <v>1.2974853071377968</v>
       </c>
       <c r="E106">
-        <v>0.13034911475720914</v>
+        <v>0.13034840370703854</v>
       </c>
       <c r="F106">
-        <v>0.39049421149645053</v>
+        <v>0.3904948778589083</v>
       </c>
       <c r="G106">
-        <v>-0.18299486297901185</v>
+        <v>-0.18299397928089359</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1.6309915930085019</v>
+        <v>1.6309935245948251</v>
       </c>
       <c r="B107">
-        <v>1.1874490824960782</v>
+        <v>1.1874490311484787</v>
       </c>
       <c r="C107">
-        <v>1.4146408510189972</v>
+        <v>1.4146369592809716</v>
       </c>
       <c r="D107">
-        <v>1.3437588184468272</v>
+        <v>1.3437596979951609</v>
       </c>
       <c r="E107">
-        <v>0.14767428138163913</v>
+        <v>0.147672530782958</v>
       </c>
       <c r="F107">
-        <v>0.36883758704276237</v>
+        <v>0.36883913046825206</v>
       </c>
       <c r="G107">
-        <v>-0.18342885205706036</v>
+        <v>-0.1834304796394855</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.6440206510821744</v>
+        <v>1.6440225276925919</v>
       </c>
       <c r="B108">
-        <v>1.2098359544655399</v>
+        <v>1.2098358563418563</v>
       </c>
       <c r="C108">
-        <v>1.4385391928909155</v>
+        <v>1.438535081624789</v>
       </c>
       <c r="D108">
-        <v>1.381921975262467</v>
+        <v>1.3819227669737002</v>
       </c>
       <c r="E108">
-        <v>0.16080993545074918</v>
+        <v>0.16080774380166263</v>
       </c>
       <c r="F108">
-        <v>0.35753076303288195</v>
+        <v>0.35753249907294038</v>
       </c>
       <c r="G108">
-        <v>-0.18488134232562101</v>
+        <v>-0.18488393460634053</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1.6518118942828164</v>
+        <v>1.6518137380182054</v>
       </c>
       <c r="B109">
-        <v>1.2237847841126612</v>
+        <v>1.2237846554571949</v>
       </c>
       <c r="C109">
-        <v>1.4524124603314232</v>
+        <v>1.4524082236171381</v>
       </c>
       <c r="D109">
-        <v>1.405607706272255</v>
+        <v>1.4056084355837666</v>
       </c>
       <c r="E109">
-        <v>0.16822009660679563</v>
+        <v>0.16821772980979172</v>
       </c>
       <c r="F109">
-        <v>0.34816696130258495</v>
+        <v>0.34816897643797085</v>
       </c>
       <c r="G109">
-        <v>-0.18703137295950847</v>
+        <v>-0.1870342563393782</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.6536955043901604</v>
+        <v>1.6536973401776862</v>
       </c>
       <c r="B110">
-        <v>1.2272181418614463</v>
+        <v>1.2272180055811093</v>
       </c>
       <c r="C110">
-        <v>1.4557182936629469</v>
+        <v>1.4557140273143445</v>
       </c>
       <c r="D110">
-        <v>1.4114313077484266</v>
+        <v>1.411432020912146</v>
       </c>
       <c r="E110">
-        <v>0.17002672854489706</v>
+        <v>0.17002434609765693</v>
       </c>
       <c r="F110">
-        <v>0.34678221214877375</v>
+        <v>0.3467842402559953</v>
       </c>
       <c r="G110">
-        <v>-0.18752681924463552</v>
+        <v>-0.18752967044743091</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1.6761909314330428</v>
+        <v>1.6761926723014673</v>
       </c>
       <c r="B111">
-        <v>1.2699767345369304</v>
+        <v>1.2699765015765136</v>
       </c>
       <c r="C111">
-        <v>1.4936962860422462</v>
+        <v>1.4936916875917325</v>
       </c>
       <c r="D111">
-        <v>1.4839169128350942</v>
+        <v>1.4839173983970968</v>
       </c>
       <c r="E111">
-        <v>0.19040435291657526</v>
+        <v>0.19040215080793091</v>
       </c>
       <c r="F111">
-        <v>0.32451140438299553</v>
+        <v>0.32451348220272902</v>
       </c>
       <c r="G111">
-        <v>-0.19720623222153943</v>
+        <v>-0.19720796114655323</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1.7162567806190838</v>
+        <v>1.7162583524302868</v>
       </c>
       <c r="B112">
-        <v>1.3533846168038817</v>
+        <v>1.3533842048820746</v>
       </c>
       <c r="C112">
-        <v>1.5539917085452022</v>
+        <v>1.5539866202764172</v>
       </c>
       <c r="D112">
-        <v>1.6264758391850591</v>
+        <v>1.6264757874248845</v>
       </c>
       <c r="E112">
-        <v>0.22326095379864053</v>
+        <v>0.22325971391452765</v>
       </c>
       <c r="F112">
-        <v>0.28778168911454011</v>
+        <v>0.28778312026971797</v>
       </c>
       <c r="G112">
-        <v>-0.22760874025776653</v>
+        <v>-0.22760646189526393</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1.7502507982252682</v>
+        <v>1.7502522265992477</v>
       </c>
       <c r="B113">
-        <v>1.4302589441367877</v>
+        <v>1.4302583912596138</v>
       </c>
       <c r="C113">
-        <v>1.5970816728796018</v>
+        <v>1.5970762805722567</v>
       </c>
       <c r="D113">
-        <v>1.7609648896520023</v>
+        <v>1.7609642495226852</v>
       </c>
       <c r="E113">
-        <v>0.24860654709620955</v>
+        <v>0.24860621727004875</v>
       </c>
       <c r="F113">
-        <v>0.25999180122638432</v>
+        <v>0.25999242914257642</v>
       </c>
       <c r="G113">
-        <v>-0.26562040147921206</v>
+        <v>-0.26561381731554257</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1.7596358360358599</v>
+        <v>1.7596372248098198</v>
       </c>
       <c r="B114">
-        <v>1.4523026096674754</v>
+        <v>1.4523020209547144</v>
       </c>
       <c r="C114">
-        <v>1.607581331211404</v>
+        <v>1.6075758750421609</v>
       </c>
       <c r="D114">
-        <v>1.8002796082722377</v>
+        <v>1.8002787799921083</v>
       </c>
       <c r="E114">
-        <v>0.2553517971886074</v>
+        <v>0.25535179418507081</v>
       </c>
       <c r="F114">
-        <v>0.25287468193901058</v>
+        <v>0.25287498470821013</v>
       </c>
       <c r="G114">
-        <v>-0.27778486082311005</v>
+        <v>-0.27777676558048814</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1.782131263078742</v>
+        <v>1.7821325569336006</v>
       </c>
       <c r="B115">
-        <v>1.5064218478658922</v>
+        <v>1.5064211788417101</v>
       </c>
       <c r="C115">
-        <v>1.6299139314291069</v>
+        <v>1.6299083784353572</v>
       </c>
       <c r="D115">
-        <v>1.8990558910829138</v>
+        <v>1.8990545097021765</v>
       </c>
       <c r="E115">
-        <v>0.27170378157353337</v>
+        <v>0.27170414367166168</v>
       </c>
       <c r="F115">
-        <v>0.23626549749335518</v>
+        <v>0.23626538950480838</v>
       </c>
       <c r="G115">
-        <v>-0.30754657911049155</v>
+        <v>-0.30753625397313933</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1.8221971122647833</v>
+        <v>1.8221982370624203</v>
       </c>
       <c r="B116">
-        <v>1.6055219621733419</v>
+        <v>1.6055211643929914</v>
       </c>
       <c r="C116">
-        <v>1.6625188510011935</v>
+        <v>1.6625132796081996</v>
       </c>
       <c r="D116">
-        <v>2.0821793005912572</v>
+        <v>2.082176671576943</v>
       </c>
       <c r="E116">
-        <v>0.30190424466491517</v>
+        <v>0.30190499794895875</v>
       </c>
       <c r="F116">
-        <v>0.20788563058754339</v>
+        <v>0.20788502269549114</v>
       </c>
       <c r="G116">
-        <v>-0.36096132422752103</v>
+        <v>-0.360948430023248</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1.8561911298709677</v>
+        <v>1.8561921112313811</v>
       </c>
       <c r="B117">
-        <v>1.689993764739391</v>
+        <v>1.689992866313774</v>
       </c>
       <c r="C117">
-        <v>1.688230478250679</v>
+        <v>1.6882249243680714</v>
       </c>
       <c r="D117">
-        <v>2.2294472161166272</v>
+        <v>2.2294435654318887</v>
       </c>
       <c r="E117">
-        <v>0.32857810038063634</v>
+        <v>0.32858071250526832</v>
       </c>
       <c r="F117">
-        <v>0.18507078905348101</v>
+        <v>0.18506705905024803</v>
       </c>
       <c r="G117">
-        <v>-0.40670458905278262</v>
+        <v>-0.4066813014866329</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.8655761676815592</v>
+        <v>1.8655771094419531</v>
       </c>
       <c r="B118">
-        <v>1.7131123531118506</v>
+        <v>1.7131114259108984</v>
       </c>
       <c r="C118">
-        <v>1.6957988245604079</v>
+        <v>1.6957932620574943</v>
       </c>
       <c r="D118">
-        <v>2.2666047932566911</v>
+        <v>2.2666009127395976</v>
       </c>
       <c r="E118">
-        <v>0.33610769192898426</v>
+        <v>0.3361114835638232</v>
       </c>
       <c r="F118">
-        <v>0.17898388749091171</v>
+        <v>0.17897807002869379</v>
       </c>
       <c r="G118">
-        <v>-0.41940187646629173</v>
+        <v>-0.41937213319460959</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1.8880715947244415</v>
+        <v>1.8880724415657342</v>
       </c>
       <c r="B119">
-        <v>1.7686733503064267</v>
+        <v>1.768672357012296</v>
       </c>
       <c r="C119">
-        <v>1.7132022221859542</v>
+        <v>1.7131966509029517</v>
       </c>
       <c r="D119">
-        <v>2.3538748348922898</v>
+        <v>2.3538704068623115</v>
       </c>
       <c r="E119">
-        <v>0.35525447804286125</v>
+        <v>0.35526059009169619</v>
       </c>
       <c r="F119">
-        <v>0.16311895689989397</v>
+        <v>0.16310939053434284</v>
       </c>
       <c r="G119">
-        <v>-0.44527282217864161</v>
+        <v>-0.44523088663690835</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1.9281374439104826</v>
+        <v>1.9281381216945537</v>
       </c>
       <c r="B120">
-        <v>1.8673502064967367</v>
+        <v>1.8673490969059379</v>
       </c>
       <c r="C120">
-        <v>1.7441108089171664</v>
+        <v>1.7441052149933367</v>
       </c>
       <c r="D120">
-        <v>2.4961707555269741</v>
+        <v>2.4961654830307891</v>
       </c>
       <c r="E120">
-        <v>0.39190099767298003</v>
+        <v>0.39190444456321993</v>
       </c>
       <c r="F120">
-        <v>0.13187281823086325</v>
+        <v>0.13186913046896903</v>
       </c>
       <c r="G120">
-        <v>-0.48107174374156475</v>
+        <v>-0.48104562759838132</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1.962131461516667</v>
+        <v>1.9621319958635146</v>
       </c>
       <c r="B121">
-        <v>1.9507915680723837</v>
+        <v>1.9507903604143231</v>
       </c>
       <c r="C121">
-        <v>1.7702471738934262</v>
+        <v>1.7702415594468179</v>
       </c>
       <c r="D121">
-        <v>2.6037836235912373</v>
+        <v>2.6037777500526631</v>
       </c>
       <c r="E121">
-        <v>0.42511723528747858</v>
+        <v>0.42511429230446035</v>
       </c>
       <c r="F121">
-        <v>0.10175443771877664</v>
+        <v>0.10177782099475273</v>
       </c>
       <c r="G121">
-        <v>-0.50130443921805712</v>
+        <v>-0.50133793034051166</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1.9715164993272587</v>
+        <v>1.9715169940740864</v>
       </c>
       <c r="B122">
-        <v>1.9737825975603263</v>
+        <v>1.9737813629216039</v>
       </c>
       <c r="C122">
-        <v>1.777448658319406</v>
+        <v>1.7774430362160825</v>
       </c>
       <c r="D122">
-        <v>2.631382617132815</v>
+        <v>2.631376600585424</v>
       </c>
       <c r="E122">
-        <v>0.43454214220860621</v>
+        <v>0.43453412997514418</v>
       </c>
       <c r="F122">
-        <v>0.092821449121166369</v>
+        <v>0.092866046192119245</v>
       </c>
       <c r="G122">
-        <v>-0.50542974609790747</v>
+        <v>-0.50551050376653384</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.994011926370141</v>
+        <v>1.9940123261978675</v>
       </c>
       <c r="B123">
-        <v>2.0288110551158933</v>
+        <v>2.0288097550418831</v>
       </c>
       <c r="C123">
-        <v>1.7946852304988836</v>
+        <v>1.7946795887020621</v>
       </c>
       <c r="D123">
-        <v>2.6938325985245046</v>
+        <v>2.6938262732479159</v>
       </c>
       <c r="E123">
-        <v>0.45743438916274548</v>
+        <v>0.45741208525031857</v>
       </c>
       <c r="F123">
-        <v>0.07048589176062392</v>
+        <v>0.070622422657333511</v>
       </c>
       <c r="G123">
-        <v>-0.51339551082340518</v>
+        <v>-0.5136633714090536</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2.0340777755561819</v>
+        <v>2.0340780063266872</v>
       </c>
       <c r="B124">
-        <v>2.1265421130552395</v>
+        <v>2.1265406960997026</v>
       </c>
       <c r="C124">
-        <v>1.8252975377531846</v>
+        <v>1.8252918564572966</v>
       </c>
       <c r="D124">
-        <v>2.7921729691029231</v>
+        <v>2.7921662135600589</v>
       </c>
       <c r="E124">
-        <v>0.49861814079689631</v>
+        <v>0.49859266181365203</v>
       </c>
       <c r="F124">
-        <v>0.031751099057911805</v>
+        <v>0.031806204441823624</v>
       </c>
       <c r="G124">
-        <v>-0.52971592123253153</v>
+        <v>-0.52984764725786804</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>2.0680717931623667</v>
+        <v>2.0680718804956482</v>
       </c>
       <c r="B125">
-        <v>2.2091837048827241</v>
+        <v>2.209182188919395</v>
       </c>
       <c r="C125">
-        <v>1.8511833676902136</v>
+        <v>1.8511776513213134</v>
       </c>
       <c r="D125">
-        <v>2.8627418603038737</v>
+        <v>2.8627348521533458</v>
       </c>
       <c r="E125">
-        <v>0.5338718946319515</v>
+        <v>0.53386051095342213</v>
       </c>
       <c r="F125">
-        <v>0.0014155892167394793</v>
+        <v>0.001271402711671912</v>
       </c>
       <c r="G125">
-        <v>-0.54848687676877539</v>
+        <v>-0.54824706993795536</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>2.0774568309729582</v>
+        <v>2.07745687870622</v>
       </c>
       <c r="B126">
-        <v>2.2319543688420822</v>
+        <v>2.2319528251207781</v>
       </c>
       <c r="C126">
-        <v>1.8583158218702613</v>
+        <v>1.858310094433254</v>
       </c>
       <c r="D126">
-        <v>2.8801540494749016</v>
+        <v>2.8801469920664311</v>
       </c>
       <c r="E126">
-        <v>0.54373265166273865</v>
+        <v>0.543719523360918</v>
       </c>
       <c r="F126">
-        <v>-0.0070108803995523527</v>
+        <v>-0.0071040327554641137</v>
       </c>
       <c r="G126">
-        <v>-0.55349564741618673</v>
+        <v>-0.55334859890826471</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>2.0999522580158403</v>
+        <v>2.0999522108300011</v>
       </c>
       <c r="B127">
-        <v>2.2864553861556547</v>
+        <v>2.2864537746351137</v>
       </c>
       <c r="C127">
-        <v>1.8753871708586876</v>
+        <v>1.8753814149400507</v>
       </c>
       <c r="D127">
-        <v>2.9182574648133039</v>
+        <v>2.9182503236067219</v>
       </c>
       <c r="E127">
-        <v>0.56751313634472467</v>
+        <v>0.56750441816155872</v>
       </c>
       <c r="F127">
-        <v>-0.027054256430226589</v>
+        <v>-0.026961419994091785</v>
       </c>
       <c r="G127">
-        <v>-0.56584265568551462</v>
+        <v>-0.56599532853610701</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>2.1400181072018816</v>
+        <v>2.1400178909588208</v>
       </c>
       <c r="B128">
-        <v>2.3832497028044566</v>
+        <v>2.3832479686875407</v>
       </c>
       <c r="C128">
-        <v>1.9057060401802699</v>
+        <v>1.9057002291615794</v>
       </c>
       <c r="D128">
-        <v>2.9734808388738729</v>
+        <v>2.9734736634986443</v>
       </c>
       <c r="E128">
-        <v>0.61048459833484714</v>
+        <v>0.61046853845998983</v>
       </c>
       <c r="F128">
-        <v>-0.061932531510923122</v>
+        <v>-0.061880869308871808</v>
       </c>
       <c r="G128">
-        <v>-0.58926749362132036</v>
+        <v>-0.58936465534996252</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>2.1740121248080659</v>
+        <v>2.1740117651277813</v>
       </c>
       <c r="B129">
-        <v>2.4650991824762136</v>
+        <v>2.4650973434598327</v>
       </c>
       <c r="C129">
-        <v>1.9313437373933484</v>
+        <v>1.9313378775042256</v>
       </c>
       <c r="D129">
-        <v>3.0077124529315888</v>
+        <v>3.0077053583803623</v>
       </c>
       <c r="E129">
-        <v>0.64763090868552931</v>
+        <v>0.64760249005350556</v>
       </c>
       <c r="F129">
-        <v>-0.091588587662085108</v>
+        <v>-0.091667215977308023</v>
       </c>
       <c r="G129">
-        <v>-0.60898701508736319</v>
+        <v>-0.60890004944937248</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>2.1833971626186575</v>
+        <v>2.1833967633383535</v>
       </c>
       <c r="B130">
-        <v>2.487651590744357</v>
+        <v>2.487649721767514</v>
       </c>
       <c r="C130">
-        <v>1.9384078220511318</v>
+        <v>1.9384019471495557</v>
       </c>
       <c r="D130">
-        <v>3.0151321774751496</v>
+        <v>3.0151251250837734</v>
       </c>
       <c r="E130">
-        <v>0.65804336466701918</v>
+        <v>0.65801736419331824</v>
       </c>
       <c r="F130">
-        <v>-0.099215299826439812</v>
+        <v>-0.099275767236082571</v>
       </c>
       <c r="G130">
-        <v>-0.61525660281046468</v>
+        <v>-0.61519469170906349</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>2.1982033689979956</v>
+        <v>2.1938355589600986</v>
       </c>
       <c r="B131">
-        <v>2.5231920572487083</v>
+        <v>2.5127118037840535</v>
       </c>
       <c r="C131">
-        <v>1.9495401503258574</v>
+        <v>1.9462521272345745</v>
       </c>
       <c r="D131">
-        <v>3.0250573197604007</v>
+        <v>3.0223490763812784</v>
       </c>
       <c r="E131">
-        <v>0.67459810892769967</v>
+        <v>0.66970577806429454</v>
       </c>
       <c r="F131">
-        <v>-0.11112088842324565</v>
+        <v>-0.10745281435527491</v>
       </c>
       <c r="G131">
-        <v>-0.62525007615927763</v>
+        <v>-0.62251724030157474</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2.2275117303139367</v>
+        <v>2.2156592430856321</v>
       </c>
       <c r="B132">
-        <v>2.5934022327452406</v>
+        <v>2.5650306217702452</v>
       </c>
       <c r="C132">
-        <v>1.9715320541055568</v>
+        <v>1.9626399113349053</v>
       </c>
       <c r="D132">
-        <v>3.0382974729012555</v>
+        <v>3.033959605934359</v>
       </c>
       <c r="E132">
-        <v>0.70781201146524686</v>
+        <v>0.69424245413596208</v>
       </c>
       <c r="F132">
-        <v>-0.13406075996768557</v>
+        <v>-0.12516543280831263</v>
       </c>
       <c r="G132">
-        <v>-0.64583202133597639</v>
+        <v>-0.63707713345389216</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2.2600086535857393</v>
+        <v>2.2429376471010984</v>
       </c>
       <c r="B133">
-        <v>2.6710324277287616</v>
+        <v>2.6302804654259373</v>
       </c>
       <c r="C133">
-        <v>1.9958481227128979</v>
+        <v>1.983078063907203</v>
       </c>
       <c r="D133">
-        <v>3.0430723270845554</v>
+        <v>3.0418528088635184</v>
       </c>
       <c r="E133">
-        <v>0.74579803774241693</v>
+        <v>0.72564521949503713</v>
       </c>
       <c r="F133">
-        <v>-0.15557471764052422</v>
+        <v>-0.1450091859895892</v>
       </c>
       <c r="G133">
-        <v>-0.67308438820889804</v>
+        <v>-0.65795180373287487</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2.2832878567896238</v>
+        <v>2.2683591293253422</v>
       </c>
       <c r="B134">
-        <v>2.7265020623728762</v>
+        <v>2.6909430515339525</v>
       </c>
       <c r="C134">
-        <v>2.013222841624152</v>
+        <v>2.0020793428085772</v>
       </c>
       <c r="D134">
-        <v>3.0401219816320251</v>
+        <v>3.0426178248618809</v>
       </c>
       <c r="E134">
-        <v>0.7734475764831259</v>
+        <v>0.755734685782535</v>
       </c>
       <c r="F134">
-        <v>-0.1702635567916263</v>
+        <v>-0.16046721817712623</v>
       </c>
       <c r="G134">
-        <v>-0.69332447085364191</v>
+        <v>-0.68079785818493432</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>2.2893374942643567</v>
+        <v>2.2851191963072326</v>
       </c>
       <c r="B135">
-        <v>2.7408979160505149</v>
+        <v>2.7308605131999215</v>
       </c>
       <c r="C135">
-        <v>2.0177320446917153</v>
+        <v>2.0145826411503789</v>
       </c>
       <c r="D135">
-        <v>3.0384879553106425</v>
+        <v>3.0396587967803925</v>
       </c>
       <c r="E135">
-        <v>0.78053631303591409</v>
+        <v>0.77554716963549752</v>
       </c>
       <c r="F135">
-        <v>-0.17489559332132376</v>
+        <v>-0.17184562045697122</v>
       </c>
       <c r="G135">
-        <v>-0.69770380666495802</v>
+        <v>-0.69445007392238578</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>2.2952979685868744</v>
+        <v>2.2893366479704866</v>
       </c>
       <c r="B136">
-        <v>2.7550553985119621</v>
+        <v>2.7408956413187489</v>
       </c>
       <c r="C136">
-        <v>2.0221577528655748</v>
+        <v>2.0177259293924044</v>
       </c>
       <c r="D136">
-        <v>3.0365502451694817</v>
+        <v>3.0384819994944832</v>
       </c>
       <c r="E136">
-        <v>0.78755356589125058</v>
+        <v>0.78052045255996139</v>
       </c>
       <c r="F136">
-        <v>-0.17938971149779001</v>
+        <v>-0.17490828734313205</v>
       </c>
       <c r="G136">
-        <v>-0.70210557892854486</v>
+        <v>-0.6976961048696847</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>2.3084322529230135</v>
+        <v>2.2952970971428766</v>
       </c>
       <c r="B137">
-        <v>2.7863486782052758</v>
+        <v>2.7550530914698701</v>
       </c>
       <c r="C137">
-        <v>2.031999166544864</v>
+        <v>2.0221516157747295</v>
       </c>
       <c r="D137">
-        <v>3.0309160615466357</v>
+        <v>3.0365443918458421</v>
       </c>
       <c r="E137">
-        <v>0.80296193827071849</v>
+        <v>0.78753647898753176</v>
       </c>
       <c r="F137">
-        <v>-0.1899985600259281</v>
+        <v>-0.17940906312302232</v>
       </c>
       <c r="G137">
-        <v>-0.71112229568469176</v>
+        <v>-0.70209093295056468</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2.3266946737417968</v>
+        <v>2.3084313260591092</v>
       </c>
       <c r="B138">
-        <v>2.8290952861484988</v>
+        <v>2.7863462837564703</v>
       </c>
       <c r="C138">
-        <v>2.0451127946719092</v>
+        <v>2.0319929666638497</v>
       </c>
       <c r="D138">
-        <v>3.0210977388707163</v>
+        <v>3.0309104609240332</v>
       </c>
       <c r="E138">
-        <v>0.82424420744234561</v>
+        <v>0.80294506371096186</v>
       </c>
       <c r="F138">
-        <v>-0.20645843651492829</v>
+        <v>-0.19001712338588886</v>
       </c>
       <c r="G138">
-        <v>-0.72210082363826034</v>
+        <v>-0.71110840860235702</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>2.3473031308989629</v>
+        <v>2.3266936698198943</v>
       </c>
       <c r="B139">
-        <v>2.872488004219492</v>
+        <v>2.8290927837316207</v>
       </c>
       <c r="C139">
-        <v>2.0562023293484524</v>
+        <v>2.0451065267953794</v>
       </c>
       <c r="D139">
-        <v>3.0114440818548238</v>
+        <v>3.0210925138433615</v>
       </c>
       <c r="E139">
-        <v>0.84803871704219647</v>
+        <v>0.82422990166571275</v>
       </c>
       <c r="F139">
-        <v>-0.22751773903065145</v>
+        <v>-0.20646345155975909</v>
       </c>
       <c r="G139">
-        <v>-0.73241120498091961</v>
+        <v>-0.72209951094876978</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>2.3671199639362053</v>
+        <v>2.3473020400199993</v>
       </c>
       <c r="B140">
-        <v>2.9083177201135952</v>
+        <v>2.8724855291216951</v>
       </c>
       <c r="C140">
-        <v>2.0624805235275474</v>
+        <v>2.0561961641191311</v>
       </c>
       <c r="D140">
-        <v>3.0044260554407334</v>
+        <v>3.0114392491496416</v>
       </c>
       <c r="E140">
-        <v>0.87066070048071786</v>
+        <v>0.8480297520484873</v>
       </c>
       <c r="F140">
-        <v>-0.2503808243032285</v>
+        <v>-0.2274943060580909</v>
       </c>
       <c r="G140">
-        <v>-0.74033273546820366</v>
+        <v>-0.73243610021791783</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>2.3831286889853751</v>
+        <v>2.3671187894404255</v>
       </c>
       <c r="B141">
-        <v>2.9333083794221895</v>
+        <v>2.908315386221505</v>
       </c>
       <c r="C141">
-        <v>2.0647360171608393</v>
+        <v>2.0624746254853141</v>
       </c>
       <c r="D141">
-        <v>2.9997901572769332</v>
+        <v>3.0044216308521183</v>
       </c>
       <c r="E141">
-        <v>0.88872685024741627</v>
+        <v>0.87065782598019104</v>
       </c>
       <c r="F141">
-        <v>-0.27077123081028848</v>
+        <v>-0.25032596204727209</v>
       </c>
       <c r="G141">
-        <v>-0.74539790328184852</v>
+        <v>-0.74038482753202517</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>2.3928963522555473</v>
+        <v>2.3831274469410317</v>
       </c>
       <c r="B142">
-        <v>2.9465240789781726</v>
+        <v>2.9333062000327006</v>
       </c>
       <c r="C142">
-        <v>2.0646785101214316</v>
+        <v>2.0647304250153837</v>
       </c>
       <c r="D142">
-        <v>2.9976643423463329</v>
+        <v>2.9997861285984517</v>
       </c>
       <c r="E142">
-        <v>0.89964519089844774</v>
+        <v>0.88873110436511538</v>
       </c>
       <c r="F142">
-        <v>-0.28408662584742667</v>
+        <v>-0.27068112802785227</v>
       </c>
       <c r="G142">
-        <v>-0.74791991287796777</v>
+        <v>-0.74548012053254176</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>2.395277825910056</v>
+        <v>2.3928950689967019</v>
       </c>
       <c r="B143">
-        <v>2.9495886665993973</v>
+        <v>2.9465220295429937</v>
       </c>
       <c r="C143">
-        <v>2.064562743161876</v>
+        <v>2.0646731678933143</v>
       </c>
       <c r="D143">
-        <v>2.9971312522530913</v>
+        <v>2.997660570799288</v>
       </c>
       <c r="E143">
-        <v>0.90229557635504509</v>
+        <v>0.89965429886056192</v>
       </c>
       <c r="F143">
-        <v>-0.28742820232612309</v>
+        <v>-0.28397184541081716</v>
       </c>
       <c r="G143">
-        <v>-0.74847737151753002</v>
+        <v>-0.74802223497847486</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>2.4000063619361347</v>
+        <v>2.3952765326026202</v>
       </c>
       <c r="B144">
-        <v>2.9553419882462131</v>
+        <v>2.9495866470562206</v>
       </c>
       <c r="C144">
-        <v>2.0640986775021268</v>
+        <v>2.0645574640155777</v>
       </c>
       <c r="D144">
-        <v>2.9962244819775665</v>
+        <v>2.9971275505426718</v>
       </c>
       <c r="E144">
-        <v>0.90297183920095547</v>
+        <v>0.90230650218893116</v>
       </c>
       <c r="F144">
-        <v>-0.29427543534881573</v>
+        <v>-0.28730371277103506</v>
       </c>
       <c r="G144">
-        <v>-0.749775996367266</v>
+        <v>-0.74858767459633047</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>2.4105720350595492</v>
+        <v>2.4000050486767153</v>
       </c>
       <c r="B145">
-        <v>2.9669677020898817</v>
+        <v>2.9553400386423161</v>
       </c>
       <c r="C145">
-        <v>2.0622371480693458</v>
+        <v>2.064093538324137</v>
       </c>
       <c r="D145">
-        <v>2.9944942411622759</v>
+        <v>2.9962209161856155</v>
       </c>
       <c r="E145">
-        <v>0.89333306553726821</v>
+        <v>0.90298885415628627</v>
       </c>
       <c r="F145">
-        <v>-0.30232753893040737</v>
+        <v>-0.29413135199177548</v>
       </c>
       <c r="G145">
-        <v>-0.74401861560809746</v>
+        <v>-0.74990286111214377</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>2.4256641358061346</v>
+        <v>2.4105706772184381</v>
       </c>
       <c r="B146">
-        <v>2.9806337050164378</v>
+        <v>2.9669659183539574</v>
       </c>
       <c r="C146">
-        <v>2.0576098087183992</v>
+        <v>2.0622323569041394</v>
       </c>
       <c r="D146">
-        <v>2.9927778880469442</v>
+        <v>2.9944910017230146</v>
       </c>
       <c r="E146">
-        <v>0.8707506716695852</v>
+        <v>0.89335734579647696</v>
       </c>
       <c r="F146">
-        <v>-0.30179192955457923</v>
+        <v>-0.30217447678924958</v>
       </c>
       <c r="G146">
-        <v>-0.72330422757466006</v>
+        <v>-0.74416117486440148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>2.4434608993588611</v>
+        <v>2.4256627142841407</v>
       </c>
       <c r="B147">
-        <v>2.9924197797456831</v>
+        <v>2.9806321808369307</v>
       </c>
       <c r="C147">
-        <v>2.0492015037281837</v>
+        <v>2.0576056175088864</v>
       </c>
       <c r="D147">
-        <v>2.9919725830256185</v>
+        <v>2.9927751396904183</v>
       </c>
       <c r="E147">
-        <v>0.84598192530109884</v>
+        <v>0.8707791364369506</v>
       </c>
       <c r="F147">
-        <v>-0.29897895956389964</v>
+        <v>-0.30164433195766033</v>
       </c>
       <c r="G147">
-        <v>-0.70138970040694915</v>
+        <v>-0.72345175775003778</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>2.4618155406901012</v>
+        <v>2.4434594027437031</v>
       </c>
       <c r="B148">
-        <v>2.9997842091810782</v>
+        <v>2.9924185625611908</v>
       </c>
       <c r="C148">
-        <v>2.0371744499344269</v>
+        <v>2.0491981512705961</v>
       </c>
       <c r="D148">
-        <v>2.9926818366339214</v>
+        <v>2.9919704604684769</v>
       </c>
       <c r="E148">
-        <v>0.82015980736177541</v>
+        <v>0.84601457647980949</v>
       </c>
       <c r="F148">
-        <v>-0.29207901767122391</v>
+        <v>-0.29882820674038257</v>
       </c>
       <c r="G148">
-        <v>-0.67964073527734015</v>
+        <v>-0.70153904586830962</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>2.4785142461740968</v>
+        <v>2.461813966627822</v>
       </c>
       <c r="B149">
-        <v>3.002411596643157</v>
+        <v>2.9997833501876525</v>
       </c>
       <c r="C149">
-        <v>2.0233021224604264</v>
+        <v>2.037172095108561</v>
       </c>
       <c r="D149">
-        <v>2.9947745897857261</v>
+        <v>2.9926803653038738</v>
       </c>
       <c r="E149">
-        <v>0.79819103955141457</v>
+        <v>0.82019244792439661</v>
       </c>
       <c r="F149">
-        <v>-0.28430209496233222</v>
+        <v>-0.29194252137162974</v>
       </c>
       <c r="G149">
-        <v>-0.66316413192047774</v>
+        <v>-0.67978032181386761</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>2.4915433042477697</v>
+        <v>2.4785126016518926</v>
       </c>
       <c r="B150">
-        <v>3.001820942215244</v>
+        <v>3.0024110815986189</v>
       </c>
       <c r="C150">
-        <v>2.0105270040701684</v>
+        <v>2.0233007422608327</v>
       </c>
       <c r="D150">
-        <v>2.9974656289159531</v>
+        <v>2.994773735598065</v>
       </c>
       <c r="E150">
-        <v>0.78100101683797485</v>
+        <v>0.79822488715456996</v>
       </c>
       <c r="F150">
-        <v>-0.27600297432790721</v>
+        <v>-0.28416930087585057</v>
       </c>
       <c r="G150">
-        <v>-0.6509331602763393</v>
+        <v>-0.66329915229528336</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>2.4993345474484117</v>
+        <v>2.4915416047496595</v>
       </c>
       <c r="B151">
-        <v>3.0004225029677207</v>
+        <v>3.00182075088293</v>
       </c>
       <c r="C151">
-        <v>2.0021015362849464</v>
+        <v>2.0105264392453788</v>
       </c>
       <c r="D151">
-        <v>2.9994969633978155</v>
+        <v>2.9974652206133015</v>
       </c>
       <c r="E151">
-        <v>0.77131068390393198</v>
+        <v>0.78103143167858469</v>
       </c>
       <c r="F151">
-        <v>-0.2708950794278519</v>
+        <v>-0.27588914561294275</v>
       </c>
       <c r="G151">
-        <v>-0.64482968881528702</v>
+        <v>-0.65105093029265737</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>2.5012181575557557</v>
+        <v>2.4993328150752729</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>3.0004224970976314</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>2.0021014504158967</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>2.9994968454901803</v>
       </c>
       <c r="E152">
-        <v>0.76886378894739926</v>
+        <v>0.77134014621991875</v>
       </c>
       <c r="F152">
-        <v>-0.26942725166550163</v>
+        <v>-0.27078677552410868</v>
       </c>
       <c r="G152">
-        <v>-0.64322634499295828</v>
+        <v>-0.64494067761160634</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>2.5012181575557557</v>
+        <v>2.5012164172347537</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3617,938 +3649,938 @@
         <v>3</v>
       </c>
       <c r="E153">
-        <v>0.76886378894739926</v>
+        <v>0.76889192423336783</v>
       </c>
       <c r="F153">
-        <v>-0.26942725166550163</v>
+        <v>-0.26932456713725572</v>
       </c>
       <c r="G153">
-        <v>-0.64322634499295828</v>
+        <v>-0.64333190572417664</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>2.5178070896776465</v>
+        <v>2.5012164172347537</v>
       </c>
       <c r="B154">
-        <v>2.9962270683273271</v>
+        <v>3</v>
       </c>
       <c r="C154">
-        <v>1.9814672126566097</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>3.0029855739521105</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0.74845629838703587</v>
+        <v>0.76889192423336783</v>
       </c>
       <c r="F154">
-        <v>-0.25618144152015859</v>
+        <v>-0.26932456713725572</v>
       </c>
       <c r="G154">
-        <v>-0.63155277555354306</v>
+        <v>-0.64333190572417664</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>2.5473530792374874</v>
+        <v>2.5178056071482922</v>
       </c>
       <c r="B155">
-        <v>2.9895211468202363</v>
+        <v>2.9962267491764876</v>
       </c>
       <c r="C155">
-        <v>1.9485281070258278</v>
+        <v>1.9814673696736818</v>
       </c>
       <c r="D155">
-        <v>3.0016103123321436</v>
+        <v>3.0029870174925346</v>
       </c>
       <c r="E155">
-        <v>0.71354638423526184</v>
+        <v>0.74847226087561625</v>
       </c>
       <c r="F155">
-        <v>-0.22896738294851782</v>
+        <v>-0.25612414406122513</v>
       </c>
       <c r="G155">
-        <v>-0.61509278050418614</v>
+        <v>-0.63160867247966468</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>2.5724214831199461</v>
+        <v>2.5473520558521732</v>
       </c>
       <c r="B156">
-        <v>2.9838457412787616</v>
+        <v>2.9895201646449943</v>
       </c>
       <c r="C156">
-        <v>1.9206502120620845</v>
+        <v>1.9485284694201128</v>
       </c>
       <c r="D156">
-        <v>2.9937498409868919</v>
+        <v>3.0016142264503851</v>
       </c>
       <c r="E156">
-        <v>0.68443489699290672</v>
+        <v>0.71353192891405737</v>
       </c>
       <c r="F156">
-        <v>-0.20558678602052957</v>
+        <v>-0.22901841690858599</v>
       </c>
       <c r="G156">
-        <v>-0.60178177930741483</v>
+        <v>-0.61502328504108972</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>2.5793423455203133</v>
+        <v>2.5724208492970875</v>
       </c>
       <c r="B157">
-        <v>2.9822810805350737</v>
+        <v>2.983844291442975</v>
       </c>
       <c r="C157">
-        <v>1.9129648327852624</v>
+        <v>1.9206508210783517</v>
       </c>
       <c r="D157">
-        <v>2.9905014720388889</v>
+        <v>2.9937555214012943</v>
       </c>
       <c r="E157">
-        <v>0.67633537414131861</v>
+        <v>0.68440768060769519</v>
       </c>
       <c r="F157">
-        <v>-0.199615977206966</v>
+        <v>-0.20567989437810361</v>
       </c>
       <c r="G157">
-        <v>-0.59755464125557745</v>
+        <v>-0.60166118134654534</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>2.5959312776422041</v>
+        <v>2.5793418192475071</v>
       </c>
       <c r="B158">
-        <v>2.9785347878138562</v>
+        <v>2.9822794543145181</v>
       </c>
       <c r="C158">
-        <v>1.8945631524192423</v>
+        <v>1.9129654730839223</v>
       </c>
       <c r="D158">
-        <v>2.9808211593145892</v>
+        <v>2.9905076630897574</v>
       </c>
       <c r="E158">
-        <v>0.65699504571918776</v>
+        <v>0.67631036522662769</v>
       </c>
       <c r="F158">
-        <v>-0.18545866615958934</v>
+        <v>-0.19969838878578253</v>
       </c>
       <c r="G158">
-        <v>-0.58726179002122048</v>
+        <v>-0.59744719137195212</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>2.6254772672020446</v>
+        <v>2.5959310091610455</v>
       </c>
       <c r="B159">
-        <v>2.9718763601177787</v>
+        <v>2.9785328066506702</v>
       </c>
       <c r="C159">
-        <v>1.8618571816013354</v>
+        <v>1.8945639195872772</v>
       </c>
       <c r="D159">
-        <v>2.9569813320232354</v>
+        <v>2.9808284323275029</v>
       </c>
       <c r="E159">
-        <v>0.62278345201188534</v>
+        <v>0.65698265601069583</v>
       </c>
       <c r="F159">
-        <v>-0.16081012550613755</v>
+        <v>-0.18548650324638913</v>
       </c>
       <c r="G159">
-        <v>-0.56827000822332385</v>
+        <v>-0.58722482943794196</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>2.6505456710845037</v>
+        <v>2.6254774578649265</v>
       </c>
       <c r="B160">
-        <v>2.9662409985128537</v>
+        <v>2.9718737434471607</v>
       </c>
       <c r="C160">
-        <v>1.8341764824187323</v>
+        <v>1.8618581708310129</v>
       </c>
       <c r="D160">
-        <v>2.9301553058009699</v>
+        <v>2.9569903261744503</v>
       </c>
       <c r="E160">
-        <v>0.59421997708266072</v>
+        <v>0.62278717082367407</v>
       </c>
       <c r="F160">
-        <v>-0.13944932921202885</v>
+        <v>-0.1607686858616004</v>
       </c>
       <c r="G160">
-        <v>-0.55283737967141433</v>
+        <v>-0.56832554528019819</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>2.6574665334848704</v>
+        <v>2.6505462513098408</v>
       </c>
       <c r="B161">
-        <v>2.9646874517573552</v>
+        <v>2.9662378432485852</v>
       </c>
       <c r="C161">
-        <v>1.8265455233426964</v>
+        <v>1.834177659538857</v>
       </c>
       <c r="D161">
-        <v>2.9216860622640111</v>
+        <v>2.9301655489402223</v>
       </c>
       <c r="E161">
-        <v>0.58643425781518332</v>
+        <v>0.59422200243932333</v>
       </c>
       <c r="F161">
-        <v>-0.13335313807148463</v>
+        <v>-0.13941640417501527</v>
       </c>
       <c r="G161">
-        <v>-0.54887912766216285</v>
+        <v>-0.5528805131300405</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>2.6740554656067617</v>
+        <v>2.6574672212602604</v>
       </c>
       <c r="B162">
-        <v>2.9609676603163324</v>
+        <v>2.9646841467586218</v>
       </c>
       <c r="C162">
-        <v>1.8082740609302166</v>
+        <v>1.8265467512037414</v>
       </c>
       <c r="D162">
-        <v>2.8995184426960683</v>
+        <v>2.9216966181358446</v>
       </c>
       <c r="E162">
-        <v>0.56786006231441322</v>
+        <v>0.58643476824363083</v>
       </c>
       <c r="F162">
-        <v>-0.11879787270591514</v>
+        <v>-0.13332781388763962</v>
       </c>
       <c r="G162">
-        <v>-0.53932081788004194</v>
+        <v>-0.5489102077693927</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>2.7036014551666021</v>
+        <v>2.6740564111737988</v>
       </c>
       <c r="B163">
-        <v>2.9543563380632221</v>
+        <v>2.9609639962642884</v>
       </c>
       <c r="C163">
-        <v>1.7757995337827335</v>
+        <v>1.8082754097087952</v>
       </c>
       <c r="D163">
-        <v>2.8535309549039236</v>
+        <v>2.8995296898958114</v>
       </c>
       <c r="E163">
-        <v>0.53519885898001052</v>
+        <v>0.56785786235741031</v>
       </c>
       <c r="F163">
-        <v>-0.092442416676985037</v>
+        <v>-0.11878600796845928</v>
       </c>
       <c r="G163">
-        <v>-0.52302367308499886</v>
+        <v>-0.53933064742988879</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.7286698590490608</v>
+        <v>2.7036028598776798</v>
       </c>
       <c r="B164">
-        <v>2.948760844503413</v>
+        <v>2.9543520335275586</v>
       </c>
       <c r="C164">
-        <v>1.748314717058133</v>
+        <v>1.77580109567622</v>
       </c>
       <c r="D164">
-        <v>2.8080067371121213</v>
+        <v>2.8535432295166898</v>
       </c>
       <c r="E164">
-        <v>0.50788295689047713</v>
+        <v>0.53519462426812103</v>
       </c>
       <c r="F164">
-        <v>-0.069683506294626149</v>
+        <v>-0.092439145627640301</v>
       </c>
       <c r="G164">
-        <v>-0.50989852737397112</v>
+        <v>-0.52301891136989875</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>2.7355907214494279</v>
+        <v>2.7286716533225941</v>
       </c>
       <c r="B165">
-        <v>2.9472182894628354</v>
+        <v>2.9487559973807693</v>
       </c>
       <c r="C165">
-        <v>1.7407377591119015</v>
+        <v>1.7483164593334846</v>
       </c>
       <c r="D165">
-        <v>2.7943903072705267</v>
+        <v>2.8080196765120791</v>
       </c>
       <c r="E165">
-        <v>0.50040203362208091</v>
+        <v>0.5078791106665187</v>
       </c>
       <c r="F165">
-        <v>-0.063339432726333508</v>
+        <v>-0.069675205351467151</v>
       </c>
       <c r="G165">
-        <v>-0.50638658922102509</v>
+        <v>-0.50990166213530874</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>2.7521796535713188</v>
+        <v>2.7355926232730137</v>
       </c>
       <c r="B166">
-        <v>2.9435248165007977</v>
+        <v>2.9472132921078185</v>
       </c>
       <c r="C166">
-        <v>1.7225955961052752</v>
+        <v>1.7407395504678229</v>
       </c>
       <c r="D166">
-        <v>2.7599114979865855</v>
+        <v>2.7944033982543686</v>
       </c>
       <c r="E166">
-        <v>0.48257270746438202</v>
+        <v>0.50039821437713405</v>
       </c>
       <c r="F166">
-        <v>-0.048024910142382859</v>
+        <v>-0.063329992596945786</v>
       </c>
       <c r="G166">
-        <v>-0.49817393169737445</v>
+        <v>-0.50639167271023522</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>2.7817256431311597</v>
+        <v>2.7521818131865521</v>
       </c>
       <c r="B167">
-        <v>2.9369602725125175</v>
+        <v>2.943519458944182</v>
       </c>
       <c r="C167">
-        <v>1.6903508781601793</v>
+        <v>1.72259750431512</v>
       </c>
       <c r="D167">
-        <v>2.6920887166078886</v>
+        <v>2.7599248955799087</v>
       </c>
       <c r="E167">
-        <v>0.45115316904668551</v>
+        <v>0.48256892082789216</v>
       </c>
       <c r="F167">
-        <v>-0.020395829211926664</v>
+        <v>-0.048013634588583071</v>
       </c>
       <c r="G167">
-        <v>-0.48424164720991514</v>
+        <v>-0.49818197848484402</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>2.8067940470136183</v>
+        <v>2.7817282618904331</v>
       </c>
       <c r="B168">
-        <v>2.9314043701128369</v>
+        <v>2.9369542733527045</v>
       </c>
       <c r="C168">
-        <v>1.6630605604675857</v>
+        <v>1.69035299271982</v>
       </c>
       <c r="D168">
-        <v>2.6281300237368019</v>
+        <v>2.6921024603315495</v>
       </c>
       <c r="E168">
-        <v>0.424805435574858</v>
+        <v>0.45114907478759814</v>
       </c>
       <c r="F168">
-        <v>0.0033780687128041522</v>
+        <v>-0.020384293204068565</v>
       </c>
       <c r="G168">
-        <v>-0.47310974754500473</v>
+        <v>-0.4842491341918731</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>2.8137149094139855</v>
+        <v>2.8067970553353478</v>
       </c>
       <c r="B169">
-        <v>2.9298727298847727</v>
+        <v>2.9313978276504957</v>
       </c>
       <c r="C169">
-        <v>1.6555372217749464</v>
+        <v>1.6630628496889521</v>
       </c>
       <c r="D169">
-        <v>2.6094390035824668</v>
+        <v>2.6281438587228561</v>
       </c>
       <c r="E169">
-        <v>0.41757771523192577</v>
+        <v>0.42480107278541962</v>
       </c>
       <c r="F169">
-        <v>0.0099920806338111585</v>
+        <v>0.0033892025891518037</v>
       </c>
       <c r="G169">
-        <v>-0.47014643707815601</v>
+        <v>-0.47311553034026732</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>2.8303038415358763</v>
+        <v>2.813718025285767</v>
       </c>
       <c r="B170">
-        <v>2.9262053914879891</v>
+        <v>2.9298660372426566</v>
       </c>
       <c r="C170">
-        <v>1.6375234438288728</v>
+        <v>1.6555395586029014</v>
       </c>
       <c r="D170">
-        <v>2.562822642000012</v>
+        <v>2.6094528324713298</v>
       </c>
       <c r="E170">
-        <v>0.4003295571840686</v>
+        <v>0.41757328312583669</v>
       </c>
       <c r="F170">
-        <v>0.025931372313458472</v>
+        <v>0.010003420562726633</v>
       </c>
       <c r="G170">
-        <v>-0.46323791898139971</v>
+        <v>-0.47015241994848478</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>2.8598498310957168</v>
+        <v>2.8303072151993054</v>
       </c>
       <c r="B171">
-        <v>2.91968729833888</v>
+        <v>2.9261983389502935</v>
       </c>
       <c r="C171">
-        <v>1.6055069092496945</v>
+        <v>1.6375258939019335</v>
       </c>
       <c r="D171">
-        <v>2.4734725343328585</v>
+        <v>2.5628364011966056</v>
       </c>
       <c r="E171">
-        <v>0.36985488320940269</v>
+        <v>0.40032498966619806</v>
       </c>
       <c r="F171">
-        <v>0.054605359425716794</v>
+        <v>0.02594276599675973</v>
       </c>
       <c r="G171">
-        <v>-0.45160749509593062</v>
+        <v>-0.46324347189803161</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2.8849182349781759</v>
+        <v>2.8598536639031864</v>
       </c>
       <c r="B172">
-        <v>2.914170709980398</v>
+        <v>2.9196796053238012</v>
       </c>
       <c r="C172">
-        <v>1.5784097142758535</v>
+        <v>1.6055095592598672</v>
       </c>
       <c r="D172">
-        <v>2.3913393690500993</v>
+        <v>2.4734859742859641</v>
       </c>
       <c r="E172">
-        <v>0.34421670712657337</v>
+        <v>0.36985000421843933</v>
       </c>
       <c r="F172">
-        <v>0.079200482515694615</v>
+        <v>0.054617046962713509</v>
       </c>
       <c r="G172">
-        <v>-0.4424115669354356</v>
+        <v>-0.45161252297401061</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>2.8918390973785426</v>
+        <v>2.8849224573481012</v>
       </c>
       <c r="B173">
-        <v>2.9126499080474568</v>
+        <v>2.9141624748462833</v>
       </c>
       <c r="C173">
-        <v>1.5709396151863089</v>
+        <v>1.5784125333489476</v>
       </c>
       <c r="D173">
-        <v>2.3676453319493636</v>
+        <v>2.3913523406887593</v>
       </c>
       <c r="E173">
-        <v>0.33716979362178146</v>
+        <v>0.34421146364489719</v>
       </c>
       <c r="F173">
-        <v>0.086031011715862443</v>
+        <v>0.079213087693841611</v>
       </c>
       <c r="G173">
-        <v>-0.43998050413015882</v>
+        <v>-0.44241802394058422</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>2.9084280295004339</v>
+        <v>2.8918434272985207</v>
       </c>
       <c r="B174">
-        <v>2.9090085211184791</v>
+        <v>2.9126415232344036</v>
       </c>
       <c r="C174">
-        <v>1.5530533128994335</v>
+        <v>1.5709424802825469</v>
       </c>
       <c r="D174">
-        <v>2.3090626105937027</v>
+        <v>2.3676581439956825</v>
       </c>
       <c r="E174">
-        <v>0.32032800118334692</v>
+        <v>0.33716439076118682</v>
       </c>
       <c r="F174">
-        <v>0.10247138956171988</v>
+        <v>0.086044107868518196</v>
       </c>
       <c r="G174">
-        <v>-0.43434419675690195</v>
+        <v>-0.4399880320151679</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>2.9379740190602743</v>
+        <v>2.9084326172120587</v>
       </c>
       <c r="B175">
-        <v>2.9025365534073546</v>
+        <v>2.9089997778600227</v>
       </c>
       <c r="C175">
-        <v>1.5212633444817683</v>
+        <v>1.5530562871404943</v>
       </c>
       <c r="D175">
-        <v>2.1984888087674794</v>
+        <v>2.3090749874313028</v>
       </c>
       <c r="E175">
-        <v>0.29048119567213793</v>
+        <v>0.32032221167984287</v>
       </c>
       <c r="F175">
-        <v>0.13197784064472226</v>
+        <v>0.10248557018336239</v>
       </c>
       <c r="G175">
-        <v>-0.42497327854064498</v>
+        <v>-0.43435424374302123</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>2.963042422942733</v>
+        <v>2.9379790659159397</v>
       </c>
       <c r="B176">
-        <v>2.8970590040190016</v>
+        <v>2.9025271728460171</v>
       </c>
       <c r="C176">
-        <v>1.4943579025690239</v>
+        <v>1.5212665108224213</v>
       </c>
       <c r="D176">
-        <v>2.0984375161284987</v>
+        <v>2.1985002217922571</v>
       </c>
       <c r="E176">
-        <v>0.26527596977761386</v>
+        <v>0.29047555161422539</v>
       </c>
       <c r="F176">
-        <v>0.15722319958982856</v>
+        <v>0.13199145334231302</v>
       </c>
       <c r="G176">
-        <v>-0.41770201530008783</v>
+        <v>-0.42497971843747223</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>2.9699632853431002</v>
+        <v>2.9630478593608545</v>
       </c>
       <c r="B177">
-        <v>2.8955489646613173</v>
+        <v>2.8970490844612624</v>
       </c>
       <c r="C177">
-        <v>1.4869406650266488</v>
+        <v>1.4943612305898526</v>
       </c>
       <c r="D177">
-        <v>2.0698110295878345</v>
+        <v>2.0984479207993587</v>
       </c>
       <c r="E177">
-        <v>0.25833172838073803</v>
+        <v>0.26527266837468277</v>
       </c>
       <c r="F177">
-        <v>0.16422512445415596</v>
+        <v>0.15723207367600225</v>
       </c>
       <c r="G177">
-        <v>-0.41580696087766722</v>
+        <v>-0.41769026703085976</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>2.986552217464991</v>
+        <v>2.9699688293112736</v>
       </c>
       <c r="B178">
-        <v>2.8919563580613667</v>
+        <v>2.8955388965287012</v>
       </c>
       <c r="C178">
-        <v>1.4691381144611777</v>
+        <v>1.4869440367043465</v>
       </c>
       <c r="D178">
-        <v>1.9995872058902588</v>
+        <v>2.0698211275110121</v>
       </c>
       <c r="E178">
-        <v>0.24171469380916669</v>
+        <v>0.25832954894429061</v>
       </c>
       <c r="F178">
-        <v>0.1810463851966998</v>
+        <v>0.1642321384218004</v>
       </c>
       <c r="G178">
-        <v>-0.41140645738897069</v>
+        <v>-0.41578772018000537</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>3.0160982070248319</v>
+        <v>2.986558019224812</v>
       </c>
       <c r="B179">
-        <v>2.8854567002681515</v>
+        <v>2.8919459377139844</v>
       </c>
       <c r="C179">
-        <v>1.4377098603837533</v>
+        <v>1.4691415872876217</v>
       </c>
       <c r="D179">
-        <v>1.8675889415190385</v>
+        <v>1.9995965243500433</v>
       </c>
       <c r="E179">
-        <v>0.21215715988144998</v>
+        <v>0.24171219618524112</v>
       </c>
       <c r="F179">
-        <v>0.21119209807555697</v>
+        <v>0.18105389023084456</v>
       </c>
       <c r="G179">
-        <v>-0.40430296384719122</v>
+        <v>-0.41138813124619061</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>3.0411666109072906</v>
+        <v>3.0161044679286935</v>
       </c>
       <c r="B180">
-        <v>2.8801993212169594</v>
+        <v>2.8854456418899406</v>
       </c>
       <c r="C180">
-        <v>1.4106572390144725</v>
+        <v>1.4377135104892189</v>
       </c>
       <c r="D180">
-        <v>1.7511075094161903</v>
+        <v>1.8675966944820845</v>
       </c>
       <c r="E180">
-        <v>0.18676521412677632</v>
+        <v>0.2121426245219972</v>
       </c>
       <c r="F180">
-        <v>0.23719418444364002</v>
+        <v>0.21121294998797135</v>
       </c>
       <c r="G180">
-        <v>-0.40039176131133558</v>
+        <v>-0.40434289699643255</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>3.0480874733076577</v>
+        <v>3.0411732613736078</v>
       </c>
       <c r="B181">
-        <v>2.8789489110911974</v>
+        <v>2.8801877601883832</v>
       </c>
       <c r="C181">
-        <v>1.4028292425627993</v>
+        <v>1.410661014010018</v>
       </c>
       <c r="D181">
-        <v>1.7193125461470304</v>
+        <v>1.7511138225865746</v>
       </c>
       <c r="E181">
-        <v>0.17961826672453579</v>
+        <v>0.18674618557115411</v>
       </c>
       <c r="F181">
-        <v>0.24449170823653493</v>
+        <v>0.23722005578441516</v>
       </c>
       <c r="G181">
-        <v>-0.39997605916964241</v>
+        <v>-0.40045280941638356</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>3.0646764054295486</v>
+        <v>3.0480942313240273</v>
       </c>
       <c r="B182">
-        <v>2.8767604091646746</v>
+        <v>2.878937238807147</v>
       </c>
       <c r="C182">
-        <v>1.382707839904157</v>
+        <v>1.4028330378333003</v>
       </c>
       <c r="D182">
-        <v>1.6464669324264778</v>
+        <v>1.7193184721861112</v>
       </c>
       <c r="E182">
-        <v>0.16246232826416376</v>
+        <v>0.17960401773623835</v>
       </c>
       <c r="F182">
-        <v>0.26197522877043689</v>
+        <v>0.24451378020464834</v>
       </c>
       <c r="G182">
-        <v>-0.39911053361820936</v>
+        <v>-0.4000161826963089</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>3.094222394989389</v>
+        <v>3.0646834212375653</v>
       </c>
       <c r="B183">
-        <v>2.8756333932125857</v>
+        <v>2.8767485717001664</v>
       </c>
       <c r="C183">
-        <v>1.3431393858125162</v>
+        <v>1.3827116425934087</v>
       </c>
       <c r="D183">
-        <v>1.5253176660137564</v>
+        <v>1.6464719832113379</v>
       </c>
       <c r="E183">
-        <v>0.13177999632557075</v>
+        <v>0.16245818152889535</v>
       </c>
       <c r="F183">
-        <v>0.29312073925155335</v>
+        <v>0.26199068866053216</v>
       </c>
       <c r="G183">
-        <v>-0.39816869761719459</v>
+        <v>-0.39910966644190687</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>3.1192907988718481</v>
+        <v>3.0942298699414463</v>
       </c>
       <c r="B184">
-        <v>2.8779587096034995</v>
+        <v>2.8756215845122406</v>
       </c>
       <c r="C184">
-        <v>1.306030332009418</v>
+        <v>1.3431430661298009</v>
       </c>
       <c r="D184">
-        <v>1.4310694364815173</v>
+        <v>1.5253213481317396</v>
       </c>
       <c r="E184">
-        <v>0.10570123808917947</v>
+        <v>0.13178219461873233</v>
       </c>
       <c r="F184">
-        <v>0.31949138156002549</v>
+        <v>0.2931326217064088</v>
       </c>
       <c r="G184">
-        <v>-0.39758975107624006</v>
+        <v>-0.39814182757930261</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>3.1262116612722153</v>
+        <v>3.1192986633863611</v>
       </c>
       <c r="B185">
-        <v>2.8792004968361691</v>
+        <v>2.8779472717480972</v>
       </c>
       <c r="C185">
-        <v>1.295243031860027</v>
+        <v>1.306033783626682</v>
       </c>
       <c r="D185">
-        <v>1.4064159498596871</v>
+        <v>1.4310721657420586</v>
       </c>
       <c r="E185">
-        <v>0.098492164518969361</v>
+        <v>0.10569677638440737</v>
       </c>
       <c r="F185">
-        <v>0.32676603042586155</v>
+        <v>0.31950622138594426</v>
       </c>
       <c r="G185">
-        <v>-0.39747096725669367</v>
+        <v>-0.39758426898836674</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>3.1428005933941057</v>
+        <v>3.1262196333367807</v>
       </c>
       <c r="B186">
-        <v>2.8833289009930101</v>
+        <v>2.8791892184447061</v>
       </c>
       <c r="C186">
-        <v>1.268472928114075</v>
+        <v>1.2952464055327306</v>
       </c>
       <c r="D186">
-        <v>1.3497067541479586</v>
+        <v>1.406418441618533</v>
       </c>
       <c r="E186">
-        <v>0.081129681110802571</v>
+        <v>0.098485900934080509</v>
       </c>
       <c r="F186">
-        <v>0.3442050904951659</v>
+        <v>0.32678137204899055</v>
       </c>
       <c r="G186">
-        <v>-0.39744066652914678</v>
+        <v>-0.39747057095226224</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>3.1723465829539466</v>
+        <v>3.1428088232503186</v>
       </c>
       <c r="B187">
-        <v>2.8950684860504472</v>
+        <v>2.8833181116356985</v>
       </c>
       <c r="C187">
-        <v>1.2177615225215033</v>
+        <v>1.268476084949582</v>
       </c>
       <c r="D187">
-        <v>1.2569357510889927</v>
+        <v>1.3497087335909013</v>
       </c>
       <c r="E187">
-        <v>0.050042197744907473</v>
+        <v>0.081118374243863964</v>
       </c>
       <c r="F187">
-        <v>0.37523887714139476</v>
+        <v>0.34422179729860841</v>
       </c>
       <c r="G187">
-        <v>-0.39785758034068969</v>
+        <v>-0.39745475363788146</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>3.1974149868364052</v>
+        <v>3.1723552719542001</v>
       </c>
       <c r="B188">
-        <v>2.9099155407294517</v>
+        <v>2.8950589537338556</v>
       </c>
       <c r="C188">
-        <v>1.1719085406727545</v>
+        <v>1.2177642012268188</v>
       </c>
       <c r="D188">
-        <v>1.1863425762992814</v>
+        <v>1.2569369883473918</v>
       </c>
       <c r="E188">
-        <v>0.023510815115684813</v>
+        <v>0.050028669939019749</v>
       </c>
       <c r="F188">
-        <v>0.40153193622019562</v>
+        <v>0.37525665561814037</v>
       </c>
       <c r="G188">
-        <v>-0.39859157416123997</v>
+        <v>-0.39787743529259351</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>3.2043358492367724</v>
+        <v>3.1974240653991144</v>
       </c>
       <c r="B189">
-        <v>2.9148711201329669</v>
+        <v>2.9099074858924303</v>
       </c>
       <c r="C189">
-        <v>1.1588232257277686</v>
+        <v>1.1719107225282794</v>
       </c>
       <c r="D189">
-        <v>1.1681432433960264</v>
+        <v>1.1863433420313783</v>
       </c>
       <c r="E189">
-        <v>0.016147346802493332</v>
+        <v>0.02350639851786469</v>
       </c>
       <c r="F189">
-        <v>0.40878675792711905</v>
+        <v>0.4015489934416398</v>
       </c>
       <c r="G189">
-        <v>-0.3988870670358271</v>
+        <v>-0.39858590849097553</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>3.2209247813586632</v>
+        <v>3.204345035349534</v>
       </c>
       <c r="B190">
-        <v>2.928349505781668</v>
+        <v>2.9148635422571596</v>
       </c>
       <c r="C190">
-        <v>1.1267507618194783</v>
+        <v>1.1588252564000134</v>
       </c>
       <c r="D190">
-        <v>1.1267582572052321</v>
+        <v>1.1681439005753791</v>
       </c>
       <c r="E190">
-        <v>-0.0016032794655709759</v>
+        <v>0.016144891176304004</v>
       </c>
       <c r="F190">
-        <v>0.42616436500971855</v>
+        <v>0.40880392070962424</v>
       </c>
       <c r="G190">
-        <v>-0.39981894333940149</v>
+        <v>-0.39887641168481208</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>3.2504707709185041</v>
+        <v>3.2209342252630719</v>
       </c>
       <c r="B191">
-        <v>2.9582914933916964</v>
+        <v>2.9283431949553811</v>
       </c>
       <c r="C191">
-        <v>1.0673204155015716</v>
+        <v>1.1267524104170588</v>
       </c>
       <c r="D191">
-        <v>1.0607278380199838</v>
+        <v>1.1267586923892263</v>
       </c>
       <c r="E191">
-        <v>-0.03336186668598734</v>
+        <v>-0.0016111452069698955</v>
       </c>
       <c r="F191">
-        <v>0.45708251992693427</v>
+        <v>0.42618156913313199</v>
       </c>
       <c r="G191">
-        <v>-0.40173762299737276</v>
+        <v>-0.39982056581049524</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>3.2755391748009628</v>
+        <v>3.2504806739669534</v>
       </c>
       <c r="B192">
-        <v>2.9901139259736431</v>
+        <v>2.9582878875413878</v>
       </c>
       <c r="C192">
-        <v>1.0148049008762163</v>
+        <v>1.0673213158939931</v>
       </c>
       <c r="D192">
-        <v>1.0122111495930091</v>
+        <v>1.0607279959696823</v>
       </c>
       <c r="E192">
-        <v>-0.06034745301133719</v>
+        <v>-0.033374491089737779</v>
       </c>
       <c r="F192">
-        <v>0.48329353019485499</v>
+        <v>0.45710068971444601</v>
       </c>
       <c r="G192">
-        <v>-0.40335239791881927</v>
+        <v>-0.40175087170656326</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>3.2824600372013299</v>
+        <v>3.2755494674118677</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>2.9901130846773034</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>1.0148051028761511</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>1.012211173657799</v>
       </c>
       <c r="E193">
-        <v>-0.067830119934628716</v>
+        <v>-0.060346001577772486</v>
       </c>
       <c r="F193">
-        <v>0.49052840121319186</v>
+        <v>0.48331274653954143</v>
       </c>
       <c r="G193">
-        <v>-0.40385740757801003</v>
+        <v>-0.40333231467959285</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>3.2824600372013299</v>
+        <v>3.2824704373622873</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -4560,956 +4592,979 @@
         <v>1</v>
       </c>
       <c r="E194">
-        <v>-0.067830119934628716</v>
+        <v>-0.06783132439483501</v>
       </c>
       <c r="F194">
-        <v>0.49052840121319186</v>
+        <v>0.49054765975810272</v>
       </c>
       <c r="G194">
-        <v>-0.40385740757801003</v>
+        <v>-0.40384342239075399</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>3.2918717084320139</v>
+        <v>3.2824704373622873</v>
       </c>
       <c r="B195">
-        <v>3.0142370034063286</v>
+        <v>3</v>
       </c>
       <c r="C195">
-        <v>0.97966899548993835</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>0.98420056518926902</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>-0.078053619817460368</v>
+        <v>-0.06783132439483501</v>
       </c>
       <c r="F195">
-        <v>0.50036042022657223</v>
+        <v>0.49054765975810272</v>
       </c>
       <c r="G195">
-        <v>-0.4046311794270423</v>
+        <v>-0.40384342239075399</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>3.3086345197980025</v>
+        <v>3.291881957412909</v>
       </c>
       <c r="B196">
-        <v>3.0419223256412469</v>
+        <v>3.0142377367269937</v>
       </c>
       <c r="C196">
-        <v>0.94292766212135826</v>
+        <v>0.97966936382308578</v>
       </c>
       <c r="D196">
-        <v>0.9583267772784918</v>
+        <v>0.98420102617322069</v>
       </c>
       <c r="E196">
-        <v>-0.096380628884770198</v>
+        <v>-0.078059851374413736</v>
       </c>
       <c r="F196">
-        <v>0.51786033917977159</v>
+        <v>0.50037857869133806</v>
       </c>
       <c r="G196">
-        <v>-0.4062167369259852</v>
+        <v>-0.40462851773407382</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>3.3228569889651629</v>
+        <v>3.3086444995171691</v>
       </c>
       <c r="B197">
-        <v>3.0678291957655084</v>
+        <v>3.0419243727500853</v>
       </c>
       <c r="C197">
-        <v>0.91126369846072675</v>
+        <v>0.94292870749535651</v>
       </c>
       <c r="D197">
-        <v>0.93860463425911089</v>
+        <v>0.95832793880238631</v>
       </c>
       <c r="E197">
-        <v>-0.1120645277651038</v>
+        <v>-0.096394178456197271</v>
       </c>
       <c r="F197">
-        <v>0.53269230736261985</v>
+        <v>0.51787704319632788</v>
       </c>
       <c r="G197">
-        <v>-0.40779219881716533</v>
+        <v>-0.40622965163420188</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>3.3267835154628571</v>
+        <v>3.3228667402282221</v>
       </c>
       <c r="B198">
-        <v>3.0753832824850793</v>
+        <v>3.0678323606560287</v>
       </c>
       <c r="C198">
-        <v>0.90244851073532606</v>
+        <v>0.91126533691717426</v>
       </c>
       <c r="D198">
-        <v>0.93351392445305104</v>
+        <v>0.9386062706180921</v>
       </c>
       <c r="E198">
-        <v>-0.11642306225108077</v>
+        <v>-0.11208131832155135</v>
       </c>
       <c r="F198">
-        <v>0.53678334366546177</v>
+        <v>0.53270798077865222</v>
       </c>
       <c r="G198">
-        <v>-0.40827642942495035</v>
+        <v>-0.40781228915388862</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>3.3361951866935411</v>
+        <v>3.3267932036539598</v>
       </c>
       <c r="B199">
-        <v>3.0942126532432188</v>
+        <v>3.075386755724141</v>
       </c>
       <c r="C199">
-        <v>0.88119787801974991</v>
+        <v>0.90245031557325195</v>
       </c>
       <c r="D199">
-        <v>0.92192631069541597</v>
+        <v>0.93351567235966637</v>
       </c>
       <c r="E199">
-        <v>-0.12691928667494973</v>
+        <v>-0.11644045988491117</v>
       </c>
       <c r="F199">
-        <v>0.5465821412300863</v>
+        <v>0.53679879735602076</v>
       </c>
       <c r="G199">
-        <v>-0.40951879818391096</v>
+        <v>-0.40829788076779833</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>3.3529579980595297</v>
+        <v>3.336204723704582</v>
       </c>
       <c r="B200">
-        <v>3.1303310408139429</v>
+        <v>3.0942168638642591</v>
       </c>
       <c r="C200">
-        <v>0.84295738810274567</v>
+        <v>0.88120008547606155</v>
       </c>
       <c r="D200">
-        <v>0.90339925757234496</v>
+        <v>0.92192829196449921</v>
       </c>
       <c r="E200">
-        <v>-0.14580265665601125</v>
+        <v>-0.12693767623951197</v>
       </c>
       <c r="F200">
-        <v>0.5640063634775887</v>
+        <v>0.54659699745729129</v>
       </c>
       <c r="G200">
-        <v>-0.41203974541726091</v>
+        <v>-0.40954278496642266</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>3.3671804672266896</v>
+        <v>3.3529672658088416</v>
       </c>
       <c r="B201">
-        <v>3.1636441855194497</v>
+        <v>3.1303365561428067</v>
       </c>
       <c r="C201">
-        <v>0.8101613486293594</v>
+        <v>0.84296032307265445</v>
       </c>
       <c r="D201">
-        <v>0.88974979746536453</v>
+        <v>0.90340153690090874</v>
       </c>
       <c r="E201">
-        <v>-0.16202684273472015</v>
+        <v>-0.14582056038572117</v>
       </c>
       <c r="F201">
-        <v>0.57875680986026035</v>
+        <v>0.56402092554301519</v>
       </c>
       <c r="G201">
-        <v>-0.41449984373274595</v>
+        <v>-0.41206343501558701</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>3.3711069937243843</v>
+        <v>3.3671895065198947</v>
       </c>
       <c r="B202">
-        <v>3.1732830888237369</v>
+        <v>3.163650795048921</v>
       </c>
       <c r="C202">
-        <v>0.80105630614338275</v>
+        <v>0.81016490742009828</v>
       </c>
       <c r="D202">
-        <v>0.88630892618321766</v>
+        <v>0.88975221327172749</v>
       </c>
       <c r="E202">
-        <v>-0.16654122164107374</v>
+        <v>-0.16204132019918371</v>
       </c>
       <c r="F202">
-        <v>0.58282299618833511</v>
+        <v>0.57877169663513794</v>
       </c>
       <c r="G202">
-        <v>-0.41523362397614039</v>
+        <v>-0.41451789752640167</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>3.3805186649550683</v>
+        <v>3.3711159699456323</v>
       </c>
       <c r="B203">
-        <v>3.197179546297813</v>
+        <v>3.1732899975887863</v>
       </c>
       <c r="C203">
-        <v>0.77915095684451474</v>
+        <v>0.80106003773906242</v>
       </c>
       <c r="D203">
-        <v>0.87862785944837629</v>
+        <v>0.88631136068883964</v>
       </c>
       <c r="E203">
-        <v>-0.1774248066615477</v>
+        <v>-0.16655447335142623</v>
       </c>
       <c r="F203">
-        <v>0.5925579384803078</v>
+        <v>0.58283804898291369</v>
       </c>
       <c r="G203">
-        <v>-0.41708782242535325</v>
+        <v>-0.41524964802212283</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>3.3972814763210568</v>
+        <v>3.3805274899962545</v>
       </c>
       <c r="B204">
-        <v>3.2425641411157264</v>
+        <v>3.1971871660319846</v>
       </c>
       <c r="C204">
-        <v>0.73988463897439571</v>
+        <v>0.77915510284281719</v>
       </c>
       <c r="D204">
-        <v>0.86688704082624579</v>
+        <v>0.87863030590748525</v>
       </c>
       <c r="E204">
-        <v>-0.19703525247901654</v>
+        <v>-0.17743459445237866</v>
       </c>
       <c r="F204">
-        <v>0.60985590459166394</v>
+        <v>0.59257336305002684</v>
       </c>
       <c r="G204">
-        <v>-0.42072293739380867</v>
+        <v>-0.41709832206647052</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>3.4115039454882168</v>
+        <v>3.3972900321005142</v>
       </c>
       <c r="B205">
-        <v>3.2839776985760718</v>
+        <v>3.2425730020798436</v>
       </c>
       <c r="C205">
-        <v>0.70635945718849735</v>
+        <v>0.73988952136328467</v>
       </c>
       <c r="D205">
-        <v>0.85881808475019017</v>
+        <v>0.86688939593220082</v>
       </c>
       <c r="E205">
-        <v>-0.21390828629087763</v>
+        <v>-0.19703812394990125</v>
       </c>
       <c r="F205">
-        <v>0.62448776133677419</v>
+        <v>0.60987276509463473</v>
       </c>
       <c r="G205">
-        <v>-0.4241432166298198</v>
+        <v>-0.42072181396392672</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>3.4154304719859114</v>
+        <v>3.4115122728115672</v>
       </c>
       <c r="B206">
-        <v>3.2958909500753655</v>
+        <v>3.283987582853618</v>
       </c>
       <c r="C206">
-        <v>0.69707599264423914</v>
+        <v>0.70636496015968486</v>
       </c>
       <c r="D206">
-        <v>0.85688851820071688</v>
+        <v>0.85882025211138513</v>
       </c>
       <c r="E206">
-        <v>-0.21860652552794993</v>
+        <v>-0.21390466868092989</v>
       </c>
       <c r="F206">
-        <v>0.62851949670835805</v>
+        <v>0.62450587021522541</v>
       </c>
       <c r="G206">
-        <v>-0.42514358703524507</v>
+        <v>-0.42413167833441784</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>3.4248421432165954</v>
+        <v>3.4154387362373049</v>
       </c>
       <c r="B207">
-        <v>3.32530502038763</v>
+        <v>3.2959011111309109</v>
       </c>
       <c r="C207">
-        <v>0.67478332783364237</v>
+        <v>0.6970816660483119</v>
       </c>
       <c r="D207">
-        <v>0.85277731530854595</v>
+        <v>0.85689061591393267</v>
       </c>
       <c r="E207">
-        <v>-0.22994114766715021</v>
+        <v>-0.21860126967032487</v>
       </c>
       <c r="F207">
-        <v>0.63816817604774334</v>
+        <v>0.62853790686819377</v>
       </c>
       <c r="G207">
-        <v>-0.42764315671587499</v>
+        <v>-0.42512949279691958</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>3.441604954582584</v>
+        <v>3.4248502562879271</v>
       </c>
       <c r="B208">
-        <v>3.3807448286482269</v>
+        <v>3.3253158331601611</v>
       </c>
       <c r="C208">
-        <v>0.63496836895880682</v>
+        <v>0.67478940759828898</v>
       </c>
       <c r="D208">
-        <v>0.84720710055029413</v>
+        <v>0.85277921569265691</v>
       </c>
       <c r="E208">
-        <v>-0.25038025154296578</v>
+        <v>-0.22993184457888519</v>
       </c>
       <c r="F208">
-        <v>0.65530480057460672</v>
+        <v>0.63818705949189913</v>
       </c>
       <c r="G208">
-        <v>-0.43243086292823329</v>
+        <v>-0.42762317480266054</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>3.4558274237497439</v>
+        <v>3.4416127983921871</v>
       </c>
       <c r="B209">
-        <v>3.4309144549671138</v>
+        <v>3.380756757481723</v>
       </c>
       <c r="C209">
-        <v>0.6011196761054125</v>
+        <v>0.63497516406982479</v>
       </c>
       <c r="D209">
-        <v>0.84418053181692221</v>
+        <v>0.84720854686981129</v>
       </c>
       <c r="E209">
-        <v>-0.26797890767075117</v>
+        <v>-0.25036735389546633</v>
       </c>
       <c r="F209">
-        <v>0.66979283387499722</v>
+        <v>0.65532424480137275</v>
       </c>
       <c r="G209">
-        <v>-0.43682890476393044</v>
+        <v>-0.43240554090939037</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>3.4597539502474386</v>
+        <v>3.4558350391032397</v>
       </c>
       <c r="B210">
-        <v>3.4452807966052594</v>
+        <v>3.4309272803744446</v>
       </c>
       <c r="C210">
-        <v>0.59176987523528057</v>
+        <v>0.60112706885321399</v>
       </c>
       <c r="D210">
-        <v>0.84361119271503004</v>
+        <v>0.84418149435947931</v>
       </c>
       <c r="E210">
-        <v>-0.27288275595684242</v>
+        <v>-0.26796678765452125</v>
       </c>
       <c r="F210">
-        <v>0.6737832973405965</v>
+        <v>0.66981104759847498</v>
       </c>
       <c r="G210">
-        <v>-0.43810187697132252</v>
+        <v>-0.436805917613939</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>3.4691656214781226</v>
+        <v>3.4597615025289774</v>
       </c>
       <c r="B211">
-        <v>3.4806368546167095</v>
+        <v>3.4452938603423315</v>
       </c>
       <c r="C211">
-        <v>0.56935870166987135</v>
+        <v>0.591777431433954</v>
       </c>
       <c r="D211">
-        <v>0.84270335413975839</v>
+        <v>0.84361200594492047</v>
       </c>
       <c r="E211">
-        <v>-0.28472062429596795</v>
+        <v>-0.27287141456747194</v>
       </c>
       <c r="F211">
-        <v>0.68332950301607054</v>
+        <v>0.67380092992481966</v>
       </c>
       <c r="G211">
-        <v>-0.44126150998513874</v>
+        <v>-0.43808047537658718</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>3.4859284328441111</v>
+        <v>3.4691730225795996</v>
       </c>
       <c r="B212">
-        <v>3.5468733031116688</v>
+        <v>3.480650471377003</v>
       </c>
       <c r="C212">
-        <v>0.52947424709766466</v>
+        <v>0.56936664612402266</v>
       </c>
       <c r="D212">
-        <v>0.84263590085801121</v>
+        <v>0.84270378330828732</v>
       </c>
       <c r="E212">
-        <v>-0.30609536555031519</v>
+        <v>-0.28471131042854625</v>
       </c>
       <c r="F212">
-        <v>0.70027398484511394</v>
+        <v>0.68334507400882405</v>
       </c>
       <c r="G212">
-        <v>-0.44725113493930979</v>
+        <v>-0.44124483142661886</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>3.5001509020112711</v>
+        <v>3.4859355646838597</v>
       </c>
       <c r="B213">
-        <v>3.6064132905386983</v>
+        <v>3.5468878369451815</v>
       </c>
       <c r="C213">
-        <v>0.49570880465294204</v>
+        <v>0.52948286924588994</v>
       </c>
       <c r="D213">
-        <v>0.84407022715585911</v>
+        <v>0.84263555946289692</v>
       </c>
       <c r="E213">
-        <v>-0.32453408558211233</v>
+        <v>-0.30609515129061332</v>
       </c>
       <c r="F213">
-        <v>0.71458538268250382</v>
+        <v>0.70028532143766209</v>
       </c>
       <c r="G213">
-        <v>-0.45270784243047202</v>
+        <v>-0.44724961653279838</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>3.5040774285089658</v>
+        <v>3.5001578053949123</v>
       </c>
       <c r="B214">
-        <v>3.6233998853603686</v>
+        <v>3.6064285286424087</v>
       </c>
       <c r="C214">
-        <v>0.48640498156937001</v>
+        <v>0.49571798514186582</v>
       </c>
       <c r="D214">
-        <v>0.84469821613381224</v>
+        <v>0.84406915097225654</v>
       </c>
       <c r="E214">
-        <v>-0.32967992307181165</v>
+        <v>-0.3245448197852428</v>
       </c>
       <c r="F214">
-        <v>0.71852385225022586</v>
+        <v>0.71459078970067302</v>
       </c>
       <c r="G214">
-        <v>-0.45428308061152112</v>
+        <v>-0.45272503403102143</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>3.5134890997396497</v>
+        <v>3.5040842688206499</v>
       </c>
       <c r="B215">
-        <v>3.6650942737305581</v>
+        <v>3.6234153048776134</v>
       </c>
       <c r="C215">
-        <v>0.4641445077361685</v>
+        <v>0.48641431306502936</v>
       </c>
       <c r="D215">
-        <v>0.84659918039429916</v>
+        <v>0.84469692426708343</v>
       </c>
       <c r="E215">
-        <v>-0.34211364619676227</v>
+        <v>-0.32969382246963652</v>
       </c>
       <c r="F215">
-        <v>0.72793934488113943</v>
+        <v>0.71852741090141625</v>
       </c>
       <c r="G215">
-        <v>-0.45818253640294182</v>
+        <v>-0.45430573042126371</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>3.5302519111056383</v>
+        <v>3.5134957888712721</v>
       </c>
       <c r="B216">
-        <v>3.7428179001122883</v>
+        <v>3.6651101022814458</v>
       </c>
       <c r="C216">
-        <v>0.42466991516861002</v>
+        <v>0.46415419346492376</v>
       </c>
       <c r="D216">
-        <v>0.85131764557493916</v>
+        <v>0.84659735168039285</v>
       </c>
       <c r="E216">
-        <v>-0.3646356456312505</v>
+        <v>-0.34213431462183408</v>
       </c>
       <c r="F216">
-        <v>0.74462532914639479</v>
+        <v>0.72793734553247413</v>
       </c>
       <c r="G216">
-        <v>-0.46558192418126015</v>
+        <v>-0.45821841123755153</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>3.5444743802727983</v>
+        <v>3.5302583309755322</v>
       </c>
       <c r="B217">
-        <v>3.8122984141781115</v>
+        <v>3.7428343623260356</v>
       </c>
       <c r="C217">
-        <v>0.39139416025878693</v>
+        <v>0.42468019896424986</v>
       </c>
       <c r="D217">
-        <v>0.85659080681850863</v>
+        <v>0.85131479842169122</v>
       </c>
       <c r="E217">
-        <v>-0.38414559890277222</v>
+        <v>-0.36467167609376955</v>
       </c>
       <c r="F217">
-        <v>0.75868031533513525</v>
+        <v>0.7446152731344442</v>
       </c>
       <c r="G217">
-        <v>-0.47234808646586068</v>
+        <v>-0.46564254601475552</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>3.5484009067704925</v>
+        <v>3.5444805716865853</v>
       </c>
       <c r="B218">
-        <v>3.8320600917937533</v>
+        <v>3.8123153122567723</v>
       </c>
       <c r="C218">
-        <v>0.38224845706448435</v>
+        <v>0.39140490918032095</v>
       </c>
       <c r="D218">
-        <v>0.85824219041712002</v>
+        <v>0.85658704207330572</v>
       </c>
       <c r="E218">
-        <v>-0.38960306230811542</v>
+        <v>-0.38419152632908171</v>
       </c>
       <c r="F218">
-        <v>0.76254147718420151</v>
+        <v>0.75866160422315854</v>
       </c>
       <c r="G218">
-        <v>-0.47430271446760891</v>
+        <v>-0.47242767939300545</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>3.5578125780011769</v>
+        <v>3.5484070351123229</v>
       </c>
       <c r="B219">
-        <v>3.8804593260543268</v>
+        <v>3.8320770924413736</v>
       </c>
       <c r="C219">
-        <v>0.36040732846306278</v>
+        <v>0.38225932610057639</v>
       </c>
       <c r="D219">
-        <v>0.86253124747306276</v>
+        <v>0.85823816439185585</v>
       </c>
       <c r="E219">
-        <v>-0.40280403310604274</v>
+        <v>-0.38965098513695234</v>
       </c>
       <c r="F219">
-        <v>0.77175906781845138</v>
+        <v>0.76252010442463936</v>
       </c>
       <c r="G219">
-        <v>-0.47913579503776055</v>
+        <v>-0.47438696603906261</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>3.574575389367165</v>
+        <v>3.5578185551629447</v>
       </c>
       <c r="B220">
-        <v>3.9703066339917417</v>
+        <v>3.880476534921435</v>
       </c>
       <c r="C220">
-        <v>0.32182040620246155</v>
+        <v>0.36041846480775319</v>
       </c>
       <c r="D220">
-        <v>0.87127328014281002</v>
+        <v>0.86252658860608178</v>
       </c>
       <c r="E220">
-        <v>-0.42681815951216984</v>
+        <v>-0.40285218537519246</v>
       </c>
       <c r="F220">
-        <v>0.78805392164292509</v>
+        <v>0.77172839639540514</v>
       </c>
       <c r="G220">
-        <v>-0.48833018655854149</v>
+        <v>-0.47922917404554288</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>3.5887978585343254</v>
+        <v>3.5745810972672047</v>
       </c>
       <c r="B221">
-        <v>4.0502510931931388</v>
+        <v>3.9703240723791096</v>
       </c>
       <c r="C221">
-        <v>0.28943886969135113</v>
+        <v>0.32183193178503627</v>
       </c>
       <c r="D221">
-        <v>0.87972571025923907</v>
+        <v>0.87126748778068008</v>
       </c>
       <c r="E221">
-        <v>-0.44769143338274531</v>
+        <v>-0.42687371071608227</v>
       </c>
       <c r="F221">
-        <v>0.80171123723103621</v>
+        <v>0.78801346017897345</v>
       </c>
       <c r="G221">
-        <v>-0.49674321309723368</v>
+        <v>-0.48844027074255741</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>3.5927243850320196</v>
+        <v>3.5888033379782573</v>
       </c>
       <c r="B222">
-        <v>4.0729296316311077</v>
+        <v>4.0502685641169371</v>
       </c>
       <c r="C222">
-        <v>0.28056279816596402</v>
+        <v>0.28945061181745463</v>
       </c>
       <c r="D222">
-        <v>0.8822163867068008</v>
+        <v>0.87971898140314131</v>
       </c>
       <c r="E222">
-        <v>-0.45353225586819917</v>
+        <v>-0.44773356554595695</v>
       </c>
       <c r="F222">
-        <v>0.80545023123885828</v>
+        <v>0.80165199592524805</v>
       </c>
       <c r="G222">
-        <v>-0.4991644267443518</v>
+        <v>-0.49685690313256115</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>3.5989190283410952</v>
+        <v>3.5927298014039954</v>
       </c>
       <c r="B223">
-        <v>4.1092468803912565</v>
+        <v>4.0729470807572712</v>
       </c>
       <c r="C223">
-        <v>0.26661926959124727</v>
+        <v>0.28057457688992166</v>
       </c>
       <c r="D223">
-        <v>0.88627776041771356</v>
+        <v>0.88220940891441024</v>
       </c>
       <c r="E223">
-        <v>-0.46257960210156712</v>
+        <v>-0.45356466071679202</v>
       </c>
       <c r="F223">
-        <v>0.81118235552316931</v>
+        <v>0.80538226062027396</v>
       </c>
       <c r="G223">
-        <v>-0.50295631330684731</v>
+        <v>-0.49927625290578509</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>3.6111811054508078</v>
+        <v>3.5989243452082604</v>
       </c>
       <c r="B224">
-        <v>4.1830941091589278</v>
+        <v>4.1092642452353818</v>
       </c>
       <c r="C224">
-        <v>0.23924630242060577</v>
+        <v>0.26663106691248739</v>
       </c>
       <c r="D224">
-        <v>0.89477190177448318</v>
+        <v>0.88627042948896928</v>
       </c>
       <c r="E224">
-        <v>-0.48184616374857453</v>
+        <v>-0.46254254768367981</v>
       </c>
       <c r="F224">
-        <v>0.82307623277526643</v>
+        <v>0.81106771759305374</v>
       </c>
       <c r="G224">
-        <v>-0.51130656788592355</v>
+        <v>-0.50304052273937017</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>3.6247772179967019</v>
+        <v>3.6111862253517244</v>
       </c>
       <c r="B225">
-        <v>4.2680469121390461</v>
+        <v>4.1831111111922912</v>
       </c>
       <c r="C225">
-        <v>0.20927516612669969</v>
+        <v>0.23925797688061373</v>
       </c>
       <c r="D225">
-        <v>0.90485014984377898</v>
+        <v>0.89476403927975845</v>
       </c>
       <c r="E225">
-        <v>-0.49555472337484069</v>
+        <v>-0.48174871885883608</v>
       </c>
       <c r="F225">
-        <v>0.8313308647108768</v>
+        <v>0.82291904158432672</v>
       </c>
       <c r="G225">
-        <v>-0.51718391082820014</v>
+        <v>-0.51136911485900183</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>3.6345168066984233</v>
+        <v>3.624782119502703</v>
       </c>
       <c r="B226">
-        <v>4.3309017383424813</v>
+        <v>4.2680629229036127</v>
       </c>
       <c r="C226">
-        <v>0.1880637600324922</v>
+        <v>0.20928621452938989</v>
       </c>
       <c r="D226">
-        <v>0.91247323616958775</v>
+        <v>0.90484239166493852</v>
       </c>
       <c r="E226">
-        <v>-0.49563210683805686</v>
+        <v>-0.49502485925478501</v>
       </c>
       <c r="F226">
-        <v>0.83142820162826903</v>
+        <v>0.83090873177278735</v>
       </c>
       <c r="G226">
-        <v>-0.51689287565449515</v>
+        <v>-0.5170459133798837</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>3.6370478632935468</v>
+        <v>3.6345215517570102</v>
       </c>
       <c r="B227">
-        <v>4.3475092584352879</v>
+        <v>4.3309163268068591</v>
       </c>
       <c r="C227">
-        <v>0.18258713396354992</v>
+        <v>0.18807377545763937</v>
       </c>
       <c r="D227">
-        <v>0.91450881953504182</v>
+        <v>0.91246649496036891</v>
       </c>
       <c r="E227">
-        <v>-0.49548471334344368</v>
+        <v>-0.49521914881529772</v>
       </c>
       <c r="F227">
-        <v>0.8313985259700174</v>
+        <v>0.83106852290972288</v>
       </c>
       <c r="G227">
-        <v>-0.51676874470673406</v>
+        <v>-0.51681199683720169</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>3.6464595345242308</v>
+        <v>3.637052567695668</v>
       </c>
       <c r="B228">
-        <v>4.4102518194315472</v>
+        <v>4.3475233522860153</v>
       </c>
       <c r="C228">
-        <v>0.16235112943682267</v>
+        <v>0.18259677962737603</v>
       </c>
       <c r="D228">
-        <v>0.92227581625603583</v>
+        <v>0.91450251235063285</v>
       </c>
       <c r="E228">
-        <v>-0.49471504993223292</v>
+        <v>-0.49542490866549083</v>
       </c>
       <c r="F228">
-        <v>0.83112247281931106</v>
+        <v>0.83124662928386561</v>
       </c>
       <c r="G228">
-        <v>-0.51619289363516396</v>
+        <v>-0.51685748683649502</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>3.6632223458902193</v>
+        <v>3.6464640877462897</v>
       </c>
       <c r="B229">
-        <v>4.525852392670612</v>
+        <v>4.4102640671050004</v>
       </c>
       <c r="C229">
-        <v>0.1268109219589231</v>
+        <v>0.16235939709261918</v>
       </c>
       <c r="D229">
-        <v>0.9368812401115344</v>
+        <v>0.92227107414199117</v>
       </c>
       <c r="E229">
-        <v>-0.49409467424417708</v>
+        <v>-0.49514771168690785</v>
       </c>
       <c r="F229">
-        <v>0.8310158378311191</v>
+        <v>0.83125038151173736</v>
       </c>
       <c r="G229">
-        <v>-0.5155209998828143</v>
+        <v>-0.51651454203751057</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>3.6774448150573797</v>
+        <v>3.6632266298505498</v>
       </c>
       <c r="B230">
-        <v>4.6277973799818479</v>
+        <v>4.5258618384839577</v>
       </c>
       <c r="C230">
-        <v>0.097159638433550244</v>
+        <v>0.12681716808115182</v>
       </c>
       <c r="D230">
-        <v>0.95004782733454318</v>
+        <v>0.93687835378115791</v>
       </c>
       <c r="E230">
-        <v>-0.49382539260860903</v>
+        <v>-0.49437909093015153</v>
       </c>
       <c r="F230">
-        <v>0.83103405062890867</v>
+        <v>0.83104287239208974</v>
       </c>
       <c r="G230">
-        <v>-0.51508547333985621</v>
+        <v>-0.51577725323443924</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>3.681371341555074</v>
+        <v>3.6774488705616029</v>
       </c>
       <c r="B231">
-        <v>4.6565662944425306</v>
+        <v>4.6278048149165407</v>
       </c>
       <c r="C231">
-        <v>0.089054860038508266</v>
+        <v>0.097164518170918535</v>
       </c>
       <c r="D231">
-        <v>0.95380784888542813</v>
+        <v>0.95004576231142512</v>
       </c>
       <c r="E231">
-        <v>-0.49360920340944814</v>
+        <v>-0.49388414442508993</v>
       </c>
       <c r="F231">
-        <v>0.83096030570713308</v>
+        <v>0.83092582890029731</v>
       </c>
       <c r="G231">
-        <v>-0.51490628608945288</v>
+        <v>-0.51524747669983617</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>3.6907830127857579</v>
+        <v>3.6813753339873405</v>
       </c>
       <c r="B232">
-        <v>4.7266219604764119</v>
+        <v>4.6565730954788718</v>
       </c>
       <c r="C232">
-        <v>0.069771196432789867</v>
+        <v>0.089059304510816867</v>
       </c>
       <c r="D232">
-        <v>0.96304056625353507</v>
+        <v>0.9538060898610955</v>
       </c>
       <c r="E232">
-        <v>-0.49322613276966337</v>
+        <v>-0.49375664473305003</v>
       </c>
       <c r="F232">
-        <v>0.83085913895072872</v>
+        <v>0.83090126616369309</v>
       </c>
       <c r="G232">
-        <v>-0.51454244515710568</v>
+        <v>-0.5151114975006148</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>3.7075458241517465</v>
+        <v>3.6907868540379623</v>
       </c>
       <c r="B233">
-        <v>4.855229667300466</v>
+        <v>4.7266272691231324</v>
       </c>
       <c r="C233">
-        <v>0.035925085994509796</v>
+        <v>0.069774627523596103</v>
       </c>
       <c r="D233">
-        <v>0.98025370764795816</v>
+        <v>0.96303942977083057</v>
       </c>
       <c r="E233">
-        <v>-0.49254177422792844</v>
+        <v>-0.49341941326292532</v>
       </c>
       <c r="F233">
-        <v>0.83063705136381727</v>
+        <v>0.83081797983821215</v>
       </c>
       <c r="G233">
-        <v>-0.51388120230183143</v>
+        <v>-0.51477141552190098</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>3.7217682933189069</v>
+        <v>3.7075493961422223</v>
       </c>
       <c r="B234">
-        <v>4.9681923859532295</v>
+        <v>4.8552323390750853</v>
       </c>
       <c r="C234">
-        <v>0.0077089968177688458</v>
+        <v>0.035926770191109361</v>
       </c>
       <c r="D234">
-        <v>0.99563016188674858</v>
+        <v>0.98025343211160154</v>
       </c>
       <c r="E234">
-        <v>-0.49208391654237499</v>
+        <v>-0.49281114969488288</v>
       </c>
       <c r="F234">
-        <v>0.8305277615341965</v>
+        <v>0.83063236940249419</v>
       </c>
       <c r="G234">
-        <v>-0.51340230080189264</v>
+        <v>-0.5141567224419531</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>3.7256948198166011</v>
+        <v>3.7217716368532754</v>
       </c>
       <c r="B235">
+        <v>4.9681929454421683</v>
+      </c>
+      <c r="C235">
+        <v>0.0077093401655680578</v>
+      </c>
+      <c r="D235">
+        <v>0.99563017950273225</v>
+      </c>
+      <c r="E235">
+        <v>-0.49238557739993555</v>
+      </c>
+      <c r="F235">
+        <v>0.83053976243245586</v>
+      </c>
+      <c r="G235">
+        <v>-0.51370672771885584</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>3.725698100279013</v>
+      </c>
+      <c r="B236">
         <v>5</v>
       </c>
-      <c r="C235">
+      <c r="C236">
         <v>0</v>
       </c>
-      <c r="D235">
+      <c r="D236">
         <v>1</v>
       </c>
-      <c r="E235">
-        <v>-0.49199961290995592</v>
-      </c>
-      <c r="F235">
-        <v>0.8305366799656988</v>
-      </c>
-      <c r="G235">
-        <v>-0.51330219974243152</v>
+      <c r="E236">
+        <v>-0.49230520921230503</v>
+      </c>
+      <c r="F236">
+        <v>0.83054893110701278</v>
+      </c>
+      <c r="G236">
+        <v>-0.51361125148224096</v>
       </c>
     </row>
   </sheetData>
